--- a/public/import/ExampleImport-Absensi.xlsx
+++ b/public/import/ExampleImport-Absensi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\apk_gaji_karyawan\public\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C65DA8-DB38-497E-AAB2-DE309F1A1099}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB21F58-62DE-492A-928B-3C5611755DEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{27EEAB46-AA00-491A-B6D9-AD3DDE5C26BB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="61">
   <si>
     <t>No</t>
   </si>
@@ -1047,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795E670E-CA89-45E6-884B-246EB2379FD2}">
-  <dimension ref="A1:BM24"/>
+  <dimension ref="A1:BN24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" topLeftCell="AP13" workbookViewId="0">
+      <selection activeCell="BF15" sqref="BF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1068,1018 +1068,1019 @@
     <col min="55" max="55" width="7.85546875" style="20" customWidth="1"/>
     <col min="56" max="56" width="9" style="20" customWidth="1"/>
     <col min="57" max="57" width="7.5703125" style="20" customWidth="1"/>
-    <col min="58" max="251" width="9.140625" style="3"/>
-    <col min="252" max="252" width="2.140625" style="3" customWidth="1"/>
-    <col min="253" max="253" width="2.42578125" style="3" customWidth="1"/>
-    <col min="254" max="254" width="9.5703125" style="3" customWidth="1"/>
-    <col min="255" max="255" width="14.85546875" style="3" customWidth="1"/>
-    <col min="256" max="256" width="8" style="3" customWidth="1"/>
-    <col min="257" max="257" width="6.5703125" style="3" customWidth="1"/>
-    <col min="258" max="258" width="7.42578125" style="3" customWidth="1"/>
-    <col min="259" max="289" width="4.7109375" style="3" customWidth="1"/>
-    <col min="290" max="295" width="5.7109375" style="3" customWidth="1"/>
-    <col min="296" max="296" width="5.140625" style="3" customWidth="1"/>
-    <col min="297" max="303" width="5.7109375" style="3" customWidth="1"/>
-    <col min="304" max="304" width="6.85546875" style="3" customWidth="1"/>
-    <col min="305" max="305" width="6.5703125" style="3" customWidth="1"/>
-    <col min="306" max="306" width="10" style="3" customWidth="1"/>
-    <col min="307" max="313" width="10.7109375" style="3" customWidth="1"/>
-    <col min="314" max="507" width="9.140625" style="3"/>
-    <col min="508" max="508" width="2.140625" style="3" customWidth="1"/>
-    <col min="509" max="509" width="2.42578125" style="3" customWidth="1"/>
-    <col min="510" max="510" width="9.5703125" style="3" customWidth="1"/>
-    <col min="511" max="511" width="14.85546875" style="3" customWidth="1"/>
-    <col min="512" max="512" width="8" style="3" customWidth="1"/>
-    <col min="513" max="513" width="6.5703125" style="3" customWidth="1"/>
-    <col min="514" max="514" width="7.42578125" style="3" customWidth="1"/>
-    <col min="515" max="545" width="4.7109375" style="3" customWidth="1"/>
-    <col min="546" max="551" width="5.7109375" style="3" customWidth="1"/>
-    <col min="552" max="552" width="5.140625" style="3" customWidth="1"/>
-    <col min="553" max="559" width="5.7109375" style="3" customWidth="1"/>
-    <col min="560" max="560" width="6.85546875" style="3" customWidth="1"/>
-    <col min="561" max="561" width="6.5703125" style="3" customWidth="1"/>
-    <col min="562" max="562" width="10" style="3" customWidth="1"/>
-    <col min="563" max="569" width="10.7109375" style="3" customWidth="1"/>
-    <col min="570" max="763" width="9.140625" style="3"/>
-    <col min="764" max="764" width="2.140625" style="3" customWidth="1"/>
-    <col min="765" max="765" width="2.42578125" style="3" customWidth="1"/>
-    <col min="766" max="766" width="9.5703125" style="3" customWidth="1"/>
-    <col min="767" max="767" width="14.85546875" style="3" customWidth="1"/>
-    <col min="768" max="768" width="8" style="3" customWidth="1"/>
-    <col min="769" max="769" width="6.5703125" style="3" customWidth="1"/>
-    <col min="770" max="770" width="7.42578125" style="3" customWidth="1"/>
-    <col min="771" max="801" width="4.7109375" style="3" customWidth="1"/>
-    <col min="802" max="807" width="5.7109375" style="3" customWidth="1"/>
-    <col min="808" max="808" width="5.140625" style="3" customWidth="1"/>
-    <col min="809" max="815" width="5.7109375" style="3" customWidth="1"/>
-    <col min="816" max="816" width="6.85546875" style="3" customWidth="1"/>
-    <col min="817" max="817" width="6.5703125" style="3" customWidth="1"/>
-    <col min="818" max="818" width="10" style="3" customWidth="1"/>
-    <col min="819" max="825" width="10.7109375" style="3" customWidth="1"/>
-    <col min="826" max="1019" width="9.140625" style="3"/>
-    <col min="1020" max="1020" width="2.140625" style="3" customWidth="1"/>
-    <col min="1021" max="1021" width="2.42578125" style="3" customWidth="1"/>
-    <col min="1022" max="1022" width="9.5703125" style="3" customWidth="1"/>
-    <col min="1023" max="1023" width="14.85546875" style="3" customWidth="1"/>
-    <col min="1024" max="1024" width="8" style="3" customWidth="1"/>
-    <col min="1025" max="1025" width="6.5703125" style="3" customWidth="1"/>
-    <col min="1026" max="1026" width="7.42578125" style="3" customWidth="1"/>
-    <col min="1027" max="1057" width="4.7109375" style="3" customWidth="1"/>
-    <col min="1058" max="1063" width="5.7109375" style="3" customWidth="1"/>
-    <col min="1064" max="1064" width="5.140625" style="3" customWidth="1"/>
-    <col min="1065" max="1071" width="5.7109375" style="3" customWidth="1"/>
-    <col min="1072" max="1072" width="6.85546875" style="3" customWidth="1"/>
-    <col min="1073" max="1073" width="6.5703125" style="3" customWidth="1"/>
-    <col min="1074" max="1074" width="10" style="3" customWidth="1"/>
-    <col min="1075" max="1081" width="10.7109375" style="3" customWidth="1"/>
-    <col min="1082" max="1275" width="9.140625" style="3"/>
-    <col min="1276" max="1276" width="2.140625" style="3" customWidth="1"/>
-    <col min="1277" max="1277" width="2.42578125" style="3" customWidth="1"/>
-    <col min="1278" max="1278" width="9.5703125" style="3" customWidth="1"/>
-    <col min="1279" max="1279" width="14.85546875" style="3" customWidth="1"/>
-    <col min="1280" max="1280" width="8" style="3" customWidth="1"/>
-    <col min="1281" max="1281" width="6.5703125" style="3" customWidth="1"/>
-    <col min="1282" max="1282" width="7.42578125" style="3" customWidth="1"/>
-    <col min="1283" max="1313" width="4.7109375" style="3" customWidth="1"/>
-    <col min="1314" max="1319" width="5.7109375" style="3" customWidth="1"/>
-    <col min="1320" max="1320" width="5.140625" style="3" customWidth="1"/>
-    <col min="1321" max="1327" width="5.7109375" style="3" customWidth="1"/>
-    <col min="1328" max="1328" width="6.85546875" style="3" customWidth="1"/>
-    <col min="1329" max="1329" width="6.5703125" style="3" customWidth="1"/>
-    <col min="1330" max="1330" width="10" style="3" customWidth="1"/>
-    <col min="1331" max="1337" width="10.7109375" style="3" customWidth="1"/>
-    <col min="1338" max="1531" width="9.140625" style="3"/>
-    <col min="1532" max="1532" width="2.140625" style="3" customWidth="1"/>
-    <col min="1533" max="1533" width="2.42578125" style="3" customWidth="1"/>
-    <col min="1534" max="1534" width="9.5703125" style="3" customWidth="1"/>
-    <col min="1535" max="1535" width="14.85546875" style="3" customWidth="1"/>
-    <col min="1536" max="1536" width="8" style="3" customWidth="1"/>
-    <col min="1537" max="1537" width="6.5703125" style="3" customWidth="1"/>
-    <col min="1538" max="1538" width="7.42578125" style="3" customWidth="1"/>
-    <col min="1539" max="1569" width="4.7109375" style="3" customWidth="1"/>
-    <col min="1570" max="1575" width="5.7109375" style="3" customWidth="1"/>
-    <col min="1576" max="1576" width="5.140625" style="3" customWidth="1"/>
-    <col min="1577" max="1583" width="5.7109375" style="3" customWidth="1"/>
-    <col min="1584" max="1584" width="6.85546875" style="3" customWidth="1"/>
-    <col min="1585" max="1585" width="6.5703125" style="3" customWidth="1"/>
-    <col min="1586" max="1586" width="10" style="3" customWidth="1"/>
-    <col min="1587" max="1593" width="10.7109375" style="3" customWidth="1"/>
-    <col min="1594" max="1787" width="9.140625" style="3"/>
-    <col min="1788" max="1788" width="2.140625" style="3" customWidth="1"/>
-    <col min="1789" max="1789" width="2.42578125" style="3" customWidth="1"/>
-    <col min="1790" max="1790" width="9.5703125" style="3" customWidth="1"/>
-    <col min="1791" max="1791" width="14.85546875" style="3" customWidth="1"/>
-    <col min="1792" max="1792" width="8" style="3" customWidth="1"/>
-    <col min="1793" max="1793" width="6.5703125" style="3" customWidth="1"/>
-    <col min="1794" max="1794" width="7.42578125" style="3" customWidth="1"/>
-    <col min="1795" max="1825" width="4.7109375" style="3" customWidth="1"/>
-    <col min="1826" max="1831" width="5.7109375" style="3" customWidth="1"/>
-    <col min="1832" max="1832" width="5.140625" style="3" customWidth="1"/>
-    <col min="1833" max="1839" width="5.7109375" style="3" customWidth="1"/>
-    <col min="1840" max="1840" width="6.85546875" style="3" customWidth="1"/>
-    <col min="1841" max="1841" width="6.5703125" style="3" customWidth="1"/>
-    <col min="1842" max="1842" width="10" style="3" customWidth="1"/>
-    <col min="1843" max="1849" width="10.7109375" style="3" customWidth="1"/>
-    <col min="1850" max="2043" width="9.140625" style="3"/>
-    <col min="2044" max="2044" width="2.140625" style="3" customWidth="1"/>
-    <col min="2045" max="2045" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2046" max="2046" width="9.5703125" style="3" customWidth="1"/>
-    <col min="2047" max="2047" width="14.85546875" style="3" customWidth="1"/>
-    <col min="2048" max="2048" width="8" style="3" customWidth="1"/>
-    <col min="2049" max="2049" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2050" max="2050" width="7.42578125" style="3" customWidth="1"/>
-    <col min="2051" max="2081" width="4.7109375" style="3" customWidth="1"/>
-    <col min="2082" max="2087" width="5.7109375" style="3" customWidth="1"/>
-    <col min="2088" max="2088" width="5.140625" style="3" customWidth="1"/>
-    <col min="2089" max="2095" width="5.7109375" style="3" customWidth="1"/>
-    <col min="2096" max="2096" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2097" max="2097" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2098" max="2098" width="10" style="3" customWidth="1"/>
-    <col min="2099" max="2105" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2106" max="2299" width="9.140625" style="3"/>
-    <col min="2300" max="2300" width="2.140625" style="3" customWidth="1"/>
-    <col min="2301" max="2301" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2302" max="2302" width="9.5703125" style="3" customWidth="1"/>
-    <col min="2303" max="2303" width="14.85546875" style="3" customWidth="1"/>
-    <col min="2304" max="2304" width="8" style="3" customWidth="1"/>
-    <col min="2305" max="2305" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2306" max="2306" width="7.42578125" style="3" customWidth="1"/>
-    <col min="2307" max="2337" width="4.7109375" style="3" customWidth="1"/>
-    <col min="2338" max="2343" width="5.7109375" style="3" customWidth="1"/>
-    <col min="2344" max="2344" width="5.140625" style="3" customWidth="1"/>
-    <col min="2345" max="2351" width="5.7109375" style="3" customWidth="1"/>
-    <col min="2352" max="2352" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2353" max="2353" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2354" max="2354" width="10" style="3" customWidth="1"/>
-    <col min="2355" max="2361" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2362" max="2555" width="9.140625" style="3"/>
-    <col min="2556" max="2556" width="2.140625" style="3" customWidth="1"/>
-    <col min="2557" max="2557" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2558" max="2558" width="9.5703125" style="3" customWidth="1"/>
-    <col min="2559" max="2559" width="14.85546875" style="3" customWidth="1"/>
-    <col min="2560" max="2560" width="8" style="3" customWidth="1"/>
-    <col min="2561" max="2561" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2562" max="2562" width="7.42578125" style="3" customWidth="1"/>
-    <col min="2563" max="2593" width="4.7109375" style="3" customWidth="1"/>
-    <col min="2594" max="2599" width="5.7109375" style="3" customWidth="1"/>
-    <col min="2600" max="2600" width="5.140625" style="3" customWidth="1"/>
-    <col min="2601" max="2607" width="5.7109375" style="3" customWidth="1"/>
-    <col min="2608" max="2608" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2609" max="2609" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2610" max="2610" width="10" style="3" customWidth="1"/>
-    <col min="2611" max="2617" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2618" max="2811" width="9.140625" style="3"/>
-    <col min="2812" max="2812" width="2.140625" style="3" customWidth="1"/>
-    <col min="2813" max="2813" width="2.42578125" style="3" customWidth="1"/>
-    <col min="2814" max="2814" width="9.5703125" style="3" customWidth="1"/>
-    <col min="2815" max="2815" width="14.85546875" style="3" customWidth="1"/>
-    <col min="2816" max="2816" width="8" style="3" customWidth="1"/>
-    <col min="2817" max="2817" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2818" max="2818" width="7.42578125" style="3" customWidth="1"/>
-    <col min="2819" max="2849" width="4.7109375" style="3" customWidth="1"/>
-    <col min="2850" max="2855" width="5.7109375" style="3" customWidth="1"/>
-    <col min="2856" max="2856" width="5.140625" style="3" customWidth="1"/>
-    <col min="2857" max="2863" width="5.7109375" style="3" customWidth="1"/>
-    <col min="2864" max="2864" width="6.85546875" style="3" customWidth="1"/>
-    <col min="2865" max="2865" width="6.5703125" style="3" customWidth="1"/>
-    <col min="2866" max="2866" width="10" style="3" customWidth="1"/>
-    <col min="2867" max="2873" width="10.7109375" style="3" customWidth="1"/>
-    <col min="2874" max="3067" width="9.140625" style="3"/>
-    <col min="3068" max="3068" width="2.140625" style="3" customWidth="1"/>
-    <col min="3069" max="3069" width="2.42578125" style="3" customWidth="1"/>
-    <col min="3070" max="3070" width="9.5703125" style="3" customWidth="1"/>
-    <col min="3071" max="3071" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3072" max="3072" width="8" style="3" customWidth="1"/>
-    <col min="3073" max="3073" width="6.5703125" style="3" customWidth="1"/>
-    <col min="3074" max="3074" width="7.42578125" style="3" customWidth="1"/>
-    <col min="3075" max="3105" width="4.7109375" style="3" customWidth="1"/>
-    <col min="3106" max="3111" width="5.7109375" style="3" customWidth="1"/>
-    <col min="3112" max="3112" width="5.140625" style="3" customWidth="1"/>
-    <col min="3113" max="3119" width="5.7109375" style="3" customWidth="1"/>
-    <col min="3120" max="3120" width="6.85546875" style="3" customWidth="1"/>
-    <col min="3121" max="3121" width="6.5703125" style="3" customWidth="1"/>
-    <col min="3122" max="3122" width="10" style="3" customWidth="1"/>
-    <col min="3123" max="3129" width="10.7109375" style="3" customWidth="1"/>
-    <col min="3130" max="3323" width="9.140625" style="3"/>
-    <col min="3324" max="3324" width="2.140625" style="3" customWidth="1"/>
-    <col min="3325" max="3325" width="2.42578125" style="3" customWidth="1"/>
-    <col min="3326" max="3326" width="9.5703125" style="3" customWidth="1"/>
-    <col min="3327" max="3327" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3328" max="3328" width="8" style="3" customWidth="1"/>
-    <col min="3329" max="3329" width="6.5703125" style="3" customWidth="1"/>
-    <col min="3330" max="3330" width="7.42578125" style="3" customWidth="1"/>
-    <col min="3331" max="3361" width="4.7109375" style="3" customWidth="1"/>
-    <col min="3362" max="3367" width="5.7109375" style="3" customWidth="1"/>
-    <col min="3368" max="3368" width="5.140625" style="3" customWidth="1"/>
-    <col min="3369" max="3375" width="5.7109375" style="3" customWidth="1"/>
-    <col min="3376" max="3376" width="6.85546875" style="3" customWidth="1"/>
-    <col min="3377" max="3377" width="6.5703125" style="3" customWidth="1"/>
-    <col min="3378" max="3378" width="10" style="3" customWidth="1"/>
-    <col min="3379" max="3385" width="10.7109375" style="3" customWidth="1"/>
-    <col min="3386" max="3579" width="9.140625" style="3"/>
-    <col min="3580" max="3580" width="2.140625" style="3" customWidth="1"/>
-    <col min="3581" max="3581" width="2.42578125" style="3" customWidth="1"/>
-    <col min="3582" max="3582" width="9.5703125" style="3" customWidth="1"/>
-    <col min="3583" max="3583" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3584" max="3584" width="8" style="3" customWidth="1"/>
-    <col min="3585" max="3585" width="6.5703125" style="3" customWidth="1"/>
-    <col min="3586" max="3586" width="7.42578125" style="3" customWidth="1"/>
-    <col min="3587" max="3617" width="4.7109375" style="3" customWidth="1"/>
-    <col min="3618" max="3623" width="5.7109375" style="3" customWidth="1"/>
-    <col min="3624" max="3624" width="5.140625" style="3" customWidth="1"/>
-    <col min="3625" max="3631" width="5.7109375" style="3" customWidth="1"/>
-    <col min="3632" max="3632" width="6.85546875" style="3" customWidth="1"/>
-    <col min="3633" max="3633" width="6.5703125" style="3" customWidth="1"/>
-    <col min="3634" max="3634" width="10" style="3" customWidth="1"/>
-    <col min="3635" max="3641" width="10.7109375" style="3" customWidth="1"/>
-    <col min="3642" max="3835" width="9.140625" style="3"/>
-    <col min="3836" max="3836" width="2.140625" style="3" customWidth="1"/>
-    <col min="3837" max="3837" width="2.42578125" style="3" customWidth="1"/>
-    <col min="3838" max="3838" width="9.5703125" style="3" customWidth="1"/>
-    <col min="3839" max="3839" width="14.85546875" style="3" customWidth="1"/>
-    <col min="3840" max="3840" width="8" style="3" customWidth="1"/>
-    <col min="3841" max="3841" width="6.5703125" style="3" customWidth="1"/>
-    <col min="3842" max="3842" width="7.42578125" style="3" customWidth="1"/>
-    <col min="3843" max="3873" width="4.7109375" style="3" customWidth="1"/>
-    <col min="3874" max="3879" width="5.7109375" style="3" customWidth="1"/>
-    <col min="3880" max="3880" width="5.140625" style="3" customWidth="1"/>
-    <col min="3881" max="3887" width="5.7109375" style="3" customWidth="1"/>
-    <col min="3888" max="3888" width="6.85546875" style="3" customWidth="1"/>
-    <col min="3889" max="3889" width="6.5703125" style="3" customWidth="1"/>
-    <col min="3890" max="3890" width="10" style="3" customWidth="1"/>
-    <col min="3891" max="3897" width="10.7109375" style="3" customWidth="1"/>
-    <col min="3898" max="4091" width="9.140625" style="3"/>
-    <col min="4092" max="4092" width="2.140625" style="3" customWidth="1"/>
-    <col min="4093" max="4093" width="2.42578125" style="3" customWidth="1"/>
-    <col min="4094" max="4094" width="9.5703125" style="3" customWidth="1"/>
-    <col min="4095" max="4095" width="14.85546875" style="3" customWidth="1"/>
-    <col min="4096" max="4096" width="8" style="3" customWidth="1"/>
-    <col min="4097" max="4097" width="6.5703125" style="3" customWidth="1"/>
-    <col min="4098" max="4098" width="7.42578125" style="3" customWidth="1"/>
-    <col min="4099" max="4129" width="4.7109375" style="3" customWidth="1"/>
-    <col min="4130" max="4135" width="5.7109375" style="3" customWidth="1"/>
-    <col min="4136" max="4136" width="5.140625" style="3" customWidth="1"/>
-    <col min="4137" max="4143" width="5.7109375" style="3" customWidth="1"/>
-    <col min="4144" max="4144" width="6.85546875" style="3" customWidth="1"/>
-    <col min="4145" max="4145" width="6.5703125" style="3" customWidth="1"/>
-    <col min="4146" max="4146" width="10" style="3" customWidth="1"/>
-    <col min="4147" max="4153" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4154" max="4347" width="9.140625" style="3"/>
-    <col min="4348" max="4348" width="2.140625" style="3" customWidth="1"/>
-    <col min="4349" max="4349" width="2.42578125" style="3" customWidth="1"/>
-    <col min="4350" max="4350" width="9.5703125" style="3" customWidth="1"/>
-    <col min="4351" max="4351" width="14.85546875" style="3" customWidth="1"/>
-    <col min="4352" max="4352" width="8" style="3" customWidth="1"/>
-    <col min="4353" max="4353" width="6.5703125" style="3" customWidth="1"/>
-    <col min="4354" max="4354" width="7.42578125" style="3" customWidth="1"/>
-    <col min="4355" max="4385" width="4.7109375" style="3" customWidth="1"/>
-    <col min="4386" max="4391" width="5.7109375" style="3" customWidth="1"/>
-    <col min="4392" max="4392" width="5.140625" style="3" customWidth="1"/>
-    <col min="4393" max="4399" width="5.7109375" style="3" customWidth="1"/>
-    <col min="4400" max="4400" width="6.85546875" style="3" customWidth="1"/>
-    <col min="4401" max="4401" width="6.5703125" style="3" customWidth="1"/>
-    <col min="4402" max="4402" width="10" style="3" customWidth="1"/>
-    <col min="4403" max="4409" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4410" max="4603" width="9.140625" style="3"/>
-    <col min="4604" max="4604" width="2.140625" style="3" customWidth="1"/>
-    <col min="4605" max="4605" width="2.42578125" style="3" customWidth="1"/>
-    <col min="4606" max="4606" width="9.5703125" style="3" customWidth="1"/>
-    <col min="4607" max="4607" width="14.85546875" style="3" customWidth="1"/>
-    <col min="4608" max="4608" width="8" style="3" customWidth="1"/>
-    <col min="4609" max="4609" width="6.5703125" style="3" customWidth="1"/>
-    <col min="4610" max="4610" width="7.42578125" style="3" customWidth="1"/>
-    <col min="4611" max="4641" width="4.7109375" style="3" customWidth="1"/>
-    <col min="4642" max="4647" width="5.7109375" style="3" customWidth="1"/>
-    <col min="4648" max="4648" width="5.140625" style="3" customWidth="1"/>
-    <col min="4649" max="4655" width="5.7109375" style="3" customWidth="1"/>
-    <col min="4656" max="4656" width="6.85546875" style="3" customWidth="1"/>
-    <col min="4657" max="4657" width="6.5703125" style="3" customWidth="1"/>
-    <col min="4658" max="4658" width="10" style="3" customWidth="1"/>
-    <col min="4659" max="4665" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4666" max="4859" width="9.140625" style="3"/>
-    <col min="4860" max="4860" width="2.140625" style="3" customWidth="1"/>
-    <col min="4861" max="4861" width="2.42578125" style="3" customWidth="1"/>
-    <col min="4862" max="4862" width="9.5703125" style="3" customWidth="1"/>
-    <col min="4863" max="4863" width="14.85546875" style="3" customWidth="1"/>
-    <col min="4864" max="4864" width="8" style="3" customWidth="1"/>
-    <col min="4865" max="4865" width="6.5703125" style="3" customWidth="1"/>
-    <col min="4866" max="4866" width="7.42578125" style="3" customWidth="1"/>
-    <col min="4867" max="4897" width="4.7109375" style="3" customWidth="1"/>
-    <col min="4898" max="4903" width="5.7109375" style="3" customWidth="1"/>
-    <col min="4904" max="4904" width="5.140625" style="3" customWidth="1"/>
-    <col min="4905" max="4911" width="5.7109375" style="3" customWidth="1"/>
-    <col min="4912" max="4912" width="6.85546875" style="3" customWidth="1"/>
-    <col min="4913" max="4913" width="6.5703125" style="3" customWidth="1"/>
-    <col min="4914" max="4914" width="10" style="3" customWidth="1"/>
-    <col min="4915" max="4921" width="10.7109375" style="3" customWidth="1"/>
-    <col min="4922" max="5115" width="9.140625" style="3"/>
-    <col min="5116" max="5116" width="2.140625" style="3" customWidth="1"/>
-    <col min="5117" max="5117" width="2.42578125" style="3" customWidth="1"/>
-    <col min="5118" max="5118" width="9.5703125" style="3" customWidth="1"/>
-    <col min="5119" max="5119" width="14.85546875" style="3" customWidth="1"/>
-    <col min="5120" max="5120" width="8" style="3" customWidth="1"/>
-    <col min="5121" max="5121" width="6.5703125" style="3" customWidth="1"/>
-    <col min="5122" max="5122" width="7.42578125" style="3" customWidth="1"/>
-    <col min="5123" max="5153" width="4.7109375" style="3" customWidth="1"/>
-    <col min="5154" max="5159" width="5.7109375" style="3" customWidth="1"/>
-    <col min="5160" max="5160" width="5.140625" style="3" customWidth="1"/>
-    <col min="5161" max="5167" width="5.7109375" style="3" customWidth="1"/>
-    <col min="5168" max="5168" width="6.85546875" style="3" customWidth="1"/>
-    <col min="5169" max="5169" width="6.5703125" style="3" customWidth="1"/>
-    <col min="5170" max="5170" width="10" style="3" customWidth="1"/>
-    <col min="5171" max="5177" width="10.7109375" style="3" customWidth="1"/>
-    <col min="5178" max="5371" width="9.140625" style="3"/>
-    <col min="5372" max="5372" width="2.140625" style="3" customWidth="1"/>
-    <col min="5373" max="5373" width="2.42578125" style="3" customWidth="1"/>
-    <col min="5374" max="5374" width="9.5703125" style="3" customWidth="1"/>
-    <col min="5375" max="5375" width="14.85546875" style="3" customWidth="1"/>
-    <col min="5376" max="5376" width="8" style="3" customWidth="1"/>
-    <col min="5377" max="5377" width="6.5703125" style="3" customWidth="1"/>
-    <col min="5378" max="5378" width="7.42578125" style="3" customWidth="1"/>
-    <col min="5379" max="5409" width="4.7109375" style="3" customWidth="1"/>
-    <col min="5410" max="5415" width="5.7109375" style="3" customWidth="1"/>
-    <col min="5416" max="5416" width="5.140625" style="3" customWidth="1"/>
-    <col min="5417" max="5423" width="5.7109375" style="3" customWidth="1"/>
-    <col min="5424" max="5424" width="6.85546875" style="3" customWidth="1"/>
-    <col min="5425" max="5425" width="6.5703125" style="3" customWidth="1"/>
-    <col min="5426" max="5426" width="10" style="3" customWidth="1"/>
-    <col min="5427" max="5433" width="10.7109375" style="3" customWidth="1"/>
-    <col min="5434" max="5627" width="9.140625" style="3"/>
-    <col min="5628" max="5628" width="2.140625" style="3" customWidth="1"/>
-    <col min="5629" max="5629" width="2.42578125" style="3" customWidth="1"/>
-    <col min="5630" max="5630" width="9.5703125" style="3" customWidth="1"/>
-    <col min="5631" max="5631" width="14.85546875" style="3" customWidth="1"/>
-    <col min="5632" max="5632" width="8" style="3" customWidth="1"/>
-    <col min="5633" max="5633" width="6.5703125" style="3" customWidth="1"/>
-    <col min="5634" max="5634" width="7.42578125" style="3" customWidth="1"/>
-    <col min="5635" max="5665" width="4.7109375" style="3" customWidth="1"/>
-    <col min="5666" max="5671" width="5.7109375" style="3" customWidth="1"/>
-    <col min="5672" max="5672" width="5.140625" style="3" customWidth="1"/>
-    <col min="5673" max="5679" width="5.7109375" style="3" customWidth="1"/>
-    <col min="5680" max="5680" width="6.85546875" style="3" customWidth="1"/>
-    <col min="5681" max="5681" width="6.5703125" style="3" customWidth="1"/>
-    <col min="5682" max="5682" width="10" style="3" customWidth="1"/>
-    <col min="5683" max="5689" width="10.7109375" style="3" customWidth="1"/>
-    <col min="5690" max="5883" width="9.140625" style="3"/>
-    <col min="5884" max="5884" width="2.140625" style="3" customWidth="1"/>
-    <col min="5885" max="5885" width="2.42578125" style="3" customWidth="1"/>
-    <col min="5886" max="5886" width="9.5703125" style="3" customWidth="1"/>
-    <col min="5887" max="5887" width="14.85546875" style="3" customWidth="1"/>
-    <col min="5888" max="5888" width="8" style="3" customWidth="1"/>
-    <col min="5889" max="5889" width="6.5703125" style="3" customWidth="1"/>
-    <col min="5890" max="5890" width="7.42578125" style="3" customWidth="1"/>
-    <col min="5891" max="5921" width="4.7109375" style="3" customWidth="1"/>
-    <col min="5922" max="5927" width="5.7109375" style="3" customWidth="1"/>
-    <col min="5928" max="5928" width="5.140625" style="3" customWidth="1"/>
-    <col min="5929" max="5935" width="5.7109375" style="3" customWidth="1"/>
-    <col min="5936" max="5936" width="6.85546875" style="3" customWidth="1"/>
-    <col min="5937" max="5937" width="6.5703125" style="3" customWidth="1"/>
-    <col min="5938" max="5938" width="10" style="3" customWidth="1"/>
-    <col min="5939" max="5945" width="10.7109375" style="3" customWidth="1"/>
-    <col min="5946" max="6139" width="9.140625" style="3"/>
-    <col min="6140" max="6140" width="2.140625" style="3" customWidth="1"/>
-    <col min="6141" max="6141" width="2.42578125" style="3" customWidth="1"/>
-    <col min="6142" max="6142" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6143" max="6143" width="14.85546875" style="3" customWidth="1"/>
-    <col min="6144" max="6144" width="8" style="3" customWidth="1"/>
-    <col min="6145" max="6145" width="6.5703125" style="3" customWidth="1"/>
-    <col min="6146" max="6146" width="7.42578125" style="3" customWidth="1"/>
-    <col min="6147" max="6177" width="4.7109375" style="3" customWidth="1"/>
-    <col min="6178" max="6183" width="5.7109375" style="3" customWidth="1"/>
-    <col min="6184" max="6184" width="5.140625" style="3" customWidth="1"/>
-    <col min="6185" max="6191" width="5.7109375" style="3" customWidth="1"/>
-    <col min="6192" max="6192" width="6.85546875" style="3" customWidth="1"/>
-    <col min="6193" max="6193" width="6.5703125" style="3" customWidth="1"/>
-    <col min="6194" max="6194" width="10" style="3" customWidth="1"/>
-    <col min="6195" max="6201" width="10.7109375" style="3" customWidth="1"/>
-    <col min="6202" max="6395" width="9.140625" style="3"/>
-    <col min="6396" max="6396" width="2.140625" style="3" customWidth="1"/>
-    <col min="6397" max="6397" width="2.42578125" style="3" customWidth="1"/>
-    <col min="6398" max="6398" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6399" max="6399" width="14.85546875" style="3" customWidth="1"/>
-    <col min="6400" max="6400" width="8" style="3" customWidth="1"/>
-    <col min="6401" max="6401" width="6.5703125" style="3" customWidth="1"/>
-    <col min="6402" max="6402" width="7.42578125" style="3" customWidth="1"/>
-    <col min="6403" max="6433" width="4.7109375" style="3" customWidth="1"/>
-    <col min="6434" max="6439" width="5.7109375" style="3" customWidth="1"/>
-    <col min="6440" max="6440" width="5.140625" style="3" customWidth="1"/>
-    <col min="6441" max="6447" width="5.7109375" style="3" customWidth="1"/>
-    <col min="6448" max="6448" width="6.85546875" style="3" customWidth="1"/>
-    <col min="6449" max="6449" width="6.5703125" style="3" customWidth="1"/>
-    <col min="6450" max="6450" width="10" style="3" customWidth="1"/>
-    <col min="6451" max="6457" width="10.7109375" style="3" customWidth="1"/>
-    <col min="6458" max="6651" width="9.140625" style="3"/>
-    <col min="6652" max="6652" width="2.140625" style="3" customWidth="1"/>
-    <col min="6653" max="6653" width="2.42578125" style="3" customWidth="1"/>
-    <col min="6654" max="6654" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6655" max="6655" width="14.85546875" style="3" customWidth="1"/>
-    <col min="6656" max="6656" width="8" style="3" customWidth="1"/>
-    <col min="6657" max="6657" width="6.5703125" style="3" customWidth="1"/>
-    <col min="6658" max="6658" width="7.42578125" style="3" customWidth="1"/>
-    <col min="6659" max="6689" width="4.7109375" style="3" customWidth="1"/>
-    <col min="6690" max="6695" width="5.7109375" style="3" customWidth="1"/>
-    <col min="6696" max="6696" width="5.140625" style="3" customWidth="1"/>
-    <col min="6697" max="6703" width="5.7109375" style="3" customWidth="1"/>
-    <col min="6704" max="6704" width="6.85546875" style="3" customWidth="1"/>
-    <col min="6705" max="6705" width="6.5703125" style="3" customWidth="1"/>
-    <col min="6706" max="6706" width="10" style="3" customWidth="1"/>
-    <col min="6707" max="6713" width="10.7109375" style="3" customWidth="1"/>
-    <col min="6714" max="6907" width="9.140625" style="3"/>
-    <col min="6908" max="6908" width="2.140625" style="3" customWidth="1"/>
-    <col min="6909" max="6909" width="2.42578125" style="3" customWidth="1"/>
-    <col min="6910" max="6910" width="9.5703125" style="3" customWidth="1"/>
-    <col min="6911" max="6911" width="14.85546875" style="3" customWidth="1"/>
-    <col min="6912" max="6912" width="8" style="3" customWidth="1"/>
-    <col min="6913" max="6913" width="6.5703125" style="3" customWidth="1"/>
-    <col min="6914" max="6914" width="7.42578125" style="3" customWidth="1"/>
-    <col min="6915" max="6945" width="4.7109375" style="3" customWidth="1"/>
-    <col min="6946" max="6951" width="5.7109375" style="3" customWidth="1"/>
-    <col min="6952" max="6952" width="5.140625" style="3" customWidth="1"/>
-    <col min="6953" max="6959" width="5.7109375" style="3" customWidth="1"/>
-    <col min="6960" max="6960" width="6.85546875" style="3" customWidth="1"/>
-    <col min="6961" max="6961" width="6.5703125" style="3" customWidth="1"/>
-    <col min="6962" max="6962" width="10" style="3" customWidth="1"/>
-    <col min="6963" max="6969" width="10.7109375" style="3" customWidth="1"/>
-    <col min="6970" max="7163" width="9.140625" style="3"/>
-    <col min="7164" max="7164" width="2.140625" style="3" customWidth="1"/>
-    <col min="7165" max="7165" width="2.42578125" style="3" customWidth="1"/>
-    <col min="7166" max="7166" width="9.5703125" style="3" customWidth="1"/>
-    <col min="7167" max="7167" width="14.85546875" style="3" customWidth="1"/>
-    <col min="7168" max="7168" width="8" style="3" customWidth="1"/>
-    <col min="7169" max="7169" width="6.5703125" style="3" customWidth="1"/>
-    <col min="7170" max="7170" width="7.42578125" style="3" customWidth="1"/>
-    <col min="7171" max="7201" width="4.7109375" style="3" customWidth="1"/>
-    <col min="7202" max="7207" width="5.7109375" style="3" customWidth="1"/>
-    <col min="7208" max="7208" width="5.140625" style="3" customWidth="1"/>
-    <col min="7209" max="7215" width="5.7109375" style="3" customWidth="1"/>
-    <col min="7216" max="7216" width="6.85546875" style="3" customWidth="1"/>
-    <col min="7217" max="7217" width="6.5703125" style="3" customWidth="1"/>
-    <col min="7218" max="7218" width="10" style="3" customWidth="1"/>
-    <col min="7219" max="7225" width="10.7109375" style="3" customWidth="1"/>
-    <col min="7226" max="7419" width="9.140625" style="3"/>
-    <col min="7420" max="7420" width="2.140625" style="3" customWidth="1"/>
-    <col min="7421" max="7421" width="2.42578125" style="3" customWidth="1"/>
-    <col min="7422" max="7422" width="9.5703125" style="3" customWidth="1"/>
-    <col min="7423" max="7423" width="14.85546875" style="3" customWidth="1"/>
-    <col min="7424" max="7424" width="8" style="3" customWidth="1"/>
-    <col min="7425" max="7425" width="6.5703125" style="3" customWidth="1"/>
-    <col min="7426" max="7426" width="7.42578125" style="3" customWidth="1"/>
-    <col min="7427" max="7457" width="4.7109375" style="3" customWidth="1"/>
-    <col min="7458" max="7463" width="5.7109375" style="3" customWidth="1"/>
-    <col min="7464" max="7464" width="5.140625" style="3" customWidth="1"/>
-    <col min="7465" max="7471" width="5.7109375" style="3" customWidth="1"/>
-    <col min="7472" max="7472" width="6.85546875" style="3" customWidth="1"/>
-    <col min="7473" max="7473" width="6.5703125" style="3" customWidth="1"/>
-    <col min="7474" max="7474" width="10" style="3" customWidth="1"/>
-    <col min="7475" max="7481" width="10.7109375" style="3" customWidth="1"/>
-    <col min="7482" max="7675" width="9.140625" style="3"/>
-    <col min="7676" max="7676" width="2.140625" style="3" customWidth="1"/>
-    <col min="7677" max="7677" width="2.42578125" style="3" customWidth="1"/>
-    <col min="7678" max="7678" width="9.5703125" style="3" customWidth="1"/>
-    <col min="7679" max="7679" width="14.85546875" style="3" customWidth="1"/>
-    <col min="7680" max="7680" width="8" style="3" customWidth="1"/>
-    <col min="7681" max="7681" width="6.5703125" style="3" customWidth="1"/>
-    <col min="7682" max="7682" width="7.42578125" style="3" customWidth="1"/>
-    <col min="7683" max="7713" width="4.7109375" style="3" customWidth="1"/>
-    <col min="7714" max="7719" width="5.7109375" style="3" customWidth="1"/>
-    <col min="7720" max="7720" width="5.140625" style="3" customWidth="1"/>
-    <col min="7721" max="7727" width="5.7109375" style="3" customWidth="1"/>
-    <col min="7728" max="7728" width="6.85546875" style="3" customWidth="1"/>
-    <col min="7729" max="7729" width="6.5703125" style="3" customWidth="1"/>
-    <col min="7730" max="7730" width="10" style="3" customWidth="1"/>
-    <col min="7731" max="7737" width="10.7109375" style="3" customWidth="1"/>
-    <col min="7738" max="7931" width="9.140625" style="3"/>
-    <col min="7932" max="7932" width="2.140625" style="3" customWidth="1"/>
-    <col min="7933" max="7933" width="2.42578125" style="3" customWidth="1"/>
-    <col min="7934" max="7934" width="9.5703125" style="3" customWidth="1"/>
-    <col min="7935" max="7935" width="14.85546875" style="3" customWidth="1"/>
-    <col min="7936" max="7936" width="8" style="3" customWidth="1"/>
-    <col min="7937" max="7937" width="6.5703125" style="3" customWidth="1"/>
-    <col min="7938" max="7938" width="7.42578125" style="3" customWidth="1"/>
-    <col min="7939" max="7969" width="4.7109375" style="3" customWidth="1"/>
-    <col min="7970" max="7975" width="5.7109375" style="3" customWidth="1"/>
-    <col min="7976" max="7976" width="5.140625" style="3" customWidth="1"/>
-    <col min="7977" max="7983" width="5.7109375" style="3" customWidth="1"/>
-    <col min="7984" max="7984" width="6.85546875" style="3" customWidth="1"/>
-    <col min="7985" max="7985" width="6.5703125" style="3" customWidth="1"/>
-    <col min="7986" max="7986" width="10" style="3" customWidth="1"/>
-    <col min="7987" max="7993" width="10.7109375" style="3" customWidth="1"/>
-    <col min="7994" max="8187" width="9.140625" style="3"/>
-    <col min="8188" max="8188" width="2.140625" style="3" customWidth="1"/>
-    <col min="8189" max="8189" width="2.42578125" style="3" customWidth="1"/>
-    <col min="8190" max="8190" width="9.5703125" style="3" customWidth="1"/>
-    <col min="8191" max="8191" width="14.85546875" style="3" customWidth="1"/>
-    <col min="8192" max="8192" width="8" style="3" customWidth="1"/>
-    <col min="8193" max="8193" width="6.5703125" style="3" customWidth="1"/>
-    <col min="8194" max="8194" width="7.42578125" style="3" customWidth="1"/>
-    <col min="8195" max="8225" width="4.7109375" style="3" customWidth="1"/>
-    <col min="8226" max="8231" width="5.7109375" style="3" customWidth="1"/>
-    <col min="8232" max="8232" width="5.140625" style="3" customWidth="1"/>
-    <col min="8233" max="8239" width="5.7109375" style="3" customWidth="1"/>
-    <col min="8240" max="8240" width="6.85546875" style="3" customWidth="1"/>
-    <col min="8241" max="8241" width="6.5703125" style="3" customWidth="1"/>
-    <col min="8242" max="8242" width="10" style="3" customWidth="1"/>
-    <col min="8243" max="8249" width="10.7109375" style="3" customWidth="1"/>
-    <col min="8250" max="8443" width="9.140625" style="3"/>
-    <col min="8444" max="8444" width="2.140625" style="3" customWidth="1"/>
-    <col min="8445" max="8445" width="2.42578125" style="3" customWidth="1"/>
-    <col min="8446" max="8446" width="9.5703125" style="3" customWidth="1"/>
-    <col min="8447" max="8447" width="14.85546875" style="3" customWidth="1"/>
-    <col min="8448" max="8448" width="8" style="3" customWidth="1"/>
-    <col min="8449" max="8449" width="6.5703125" style="3" customWidth="1"/>
-    <col min="8450" max="8450" width="7.42578125" style="3" customWidth="1"/>
-    <col min="8451" max="8481" width="4.7109375" style="3" customWidth="1"/>
-    <col min="8482" max="8487" width="5.7109375" style="3" customWidth="1"/>
-    <col min="8488" max="8488" width="5.140625" style="3" customWidth="1"/>
-    <col min="8489" max="8495" width="5.7109375" style="3" customWidth="1"/>
-    <col min="8496" max="8496" width="6.85546875" style="3" customWidth="1"/>
-    <col min="8497" max="8497" width="6.5703125" style="3" customWidth="1"/>
-    <col min="8498" max="8498" width="10" style="3" customWidth="1"/>
-    <col min="8499" max="8505" width="10.7109375" style="3" customWidth="1"/>
-    <col min="8506" max="8699" width="9.140625" style="3"/>
-    <col min="8700" max="8700" width="2.140625" style="3" customWidth="1"/>
-    <col min="8701" max="8701" width="2.42578125" style="3" customWidth="1"/>
-    <col min="8702" max="8702" width="9.5703125" style="3" customWidth="1"/>
-    <col min="8703" max="8703" width="14.85546875" style="3" customWidth="1"/>
-    <col min="8704" max="8704" width="8" style="3" customWidth="1"/>
-    <col min="8705" max="8705" width="6.5703125" style="3" customWidth="1"/>
-    <col min="8706" max="8706" width="7.42578125" style="3" customWidth="1"/>
-    <col min="8707" max="8737" width="4.7109375" style="3" customWidth="1"/>
-    <col min="8738" max="8743" width="5.7109375" style="3" customWidth="1"/>
-    <col min="8744" max="8744" width="5.140625" style="3" customWidth="1"/>
-    <col min="8745" max="8751" width="5.7109375" style="3" customWidth="1"/>
-    <col min="8752" max="8752" width="6.85546875" style="3" customWidth="1"/>
-    <col min="8753" max="8753" width="6.5703125" style="3" customWidth="1"/>
-    <col min="8754" max="8754" width="10" style="3" customWidth="1"/>
-    <col min="8755" max="8761" width="10.7109375" style="3" customWidth="1"/>
-    <col min="8762" max="8955" width="9.140625" style="3"/>
-    <col min="8956" max="8956" width="2.140625" style="3" customWidth="1"/>
-    <col min="8957" max="8957" width="2.42578125" style="3" customWidth="1"/>
-    <col min="8958" max="8958" width="9.5703125" style="3" customWidth="1"/>
-    <col min="8959" max="8959" width="14.85546875" style="3" customWidth="1"/>
-    <col min="8960" max="8960" width="8" style="3" customWidth="1"/>
-    <col min="8961" max="8961" width="6.5703125" style="3" customWidth="1"/>
-    <col min="8962" max="8962" width="7.42578125" style="3" customWidth="1"/>
-    <col min="8963" max="8993" width="4.7109375" style="3" customWidth="1"/>
-    <col min="8994" max="8999" width="5.7109375" style="3" customWidth="1"/>
-    <col min="9000" max="9000" width="5.140625" style="3" customWidth="1"/>
-    <col min="9001" max="9007" width="5.7109375" style="3" customWidth="1"/>
-    <col min="9008" max="9008" width="6.85546875" style="3" customWidth="1"/>
-    <col min="9009" max="9009" width="6.5703125" style="3" customWidth="1"/>
-    <col min="9010" max="9010" width="10" style="3" customWidth="1"/>
-    <col min="9011" max="9017" width="10.7109375" style="3" customWidth="1"/>
-    <col min="9018" max="9211" width="9.140625" style="3"/>
-    <col min="9212" max="9212" width="2.140625" style="3" customWidth="1"/>
-    <col min="9213" max="9213" width="2.42578125" style="3" customWidth="1"/>
-    <col min="9214" max="9214" width="9.5703125" style="3" customWidth="1"/>
-    <col min="9215" max="9215" width="14.85546875" style="3" customWidth="1"/>
-    <col min="9216" max="9216" width="8" style="3" customWidth="1"/>
-    <col min="9217" max="9217" width="6.5703125" style="3" customWidth="1"/>
-    <col min="9218" max="9218" width="7.42578125" style="3" customWidth="1"/>
-    <col min="9219" max="9249" width="4.7109375" style="3" customWidth="1"/>
-    <col min="9250" max="9255" width="5.7109375" style="3" customWidth="1"/>
-    <col min="9256" max="9256" width="5.140625" style="3" customWidth="1"/>
-    <col min="9257" max="9263" width="5.7109375" style="3" customWidth="1"/>
-    <col min="9264" max="9264" width="6.85546875" style="3" customWidth="1"/>
-    <col min="9265" max="9265" width="6.5703125" style="3" customWidth="1"/>
-    <col min="9266" max="9266" width="10" style="3" customWidth="1"/>
-    <col min="9267" max="9273" width="10.7109375" style="3" customWidth="1"/>
-    <col min="9274" max="9467" width="9.140625" style="3"/>
-    <col min="9468" max="9468" width="2.140625" style="3" customWidth="1"/>
-    <col min="9469" max="9469" width="2.42578125" style="3" customWidth="1"/>
-    <col min="9470" max="9470" width="9.5703125" style="3" customWidth="1"/>
-    <col min="9471" max="9471" width="14.85546875" style="3" customWidth="1"/>
-    <col min="9472" max="9472" width="8" style="3" customWidth="1"/>
-    <col min="9473" max="9473" width="6.5703125" style="3" customWidth="1"/>
-    <col min="9474" max="9474" width="7.42578125" style="3" customWidth="1"/>
-    <col min="9475" max="9505" width="4.7109375" style="3" customWidth="1"/>
-    <col min="9506" max="9511" width="5.7109375" style="3" customWidth="1"/>
-    <col min="9512" max="9512" width="5.140625" style="3" customWidth="1"/>
-    <col min="9513" max="9519" width="5.7109375" style="3" customWidth="1"/>
-    <col min="9520" max="9520" width="6.85546875" style="3" customWidth="1"/>
-    <col min="9521" max="9521" width="6.5703125" style="3" customWidth="1"/>
-    <col min="9522" max="9522" width="10" style="3" customWidth="1"/>
-    <col min="9523" max="9529" width="10.7109375" style="3" customWidth="1"/>
-    <col min="9530" max="9723" width="9.140625" style="3"/>
-    <col min="9724" max="9724" width="2.140625" style="3" customWidth="1"/>
-    <col min="9725" max="9725" width="2.42578125" style="3" customWidth="1"/>
-    <col min="9726" max="9726" width="9.5703125" style="3" customWidth="1"/>
-    <col min="9727" max="9727" width="14.85546875" style="3" customWidth="1"/>
-    <col min="9728" max="9728" width="8" style="3" customWidth="1"/>
-    <col min="9729" max="9729" width="6.5703125" style="3" customWidth="1"/>
-    <col min="9730" max="9730" width="7.42578125" style="3" customWidth="1"/>
-    <col min="9731" max="9761" width="4.7109375" style="3" customWidth="1"/>
-    <col min="9762" max="9767" width="5.7109375" style="3" customWidth="1"/>
-    <col min="9768" max="9768" width="5.140625" style="3" customWidth="1"/>
-    <col min="9769" max="9775" width="5.7109375" style="3" customWidth="1"/>
-    <col min="9776" max="9776" width="6.85546875" style="3" customWidth="1"/>
-    <col min="9777" max="9777" width="6.5703125" style="3" customWidth="1"/>
-    <col min="9778" max="9778" width="10" style="3" customWidth="1"/>
-    <col min="9779" max="9785" width="10.7109375" style="3" customWidth="1"/>
-    <col min="9786" max="9979" width="9.140625" style="3"/>
-    <col min="9980" max="9980" width="2.140625" style="3" customWidth="1"/>
-    <col min="9981" max="9981" width="2.42578125" style="3" customWidth="1"/>
-    <col min="9982" max="9982" width="9.5703125" style="3" customWidth="1"/>
-    <col min="9983" max="9983" width="14.85546875" style="3" customWidth="1"/>
-    <col min="9984" max="9984" width="8" style="3" customWidth="1"/>
-    <col min="9985" max="9985" width="6.5703125" style="3" customWidth="1"/>
-    <col min="9986" max="9986" width="7.42578125" style="3" customWidth="1"/>
-    <col min="9987" max="10017" width="4.7109375" style="3" customWidth="1"/>
-    <col min="10018" max="10023" width="5.7109375" style="3" customWidth="1"/>
-    <col min="10024" max="10024" width="5.140625" style="3" customWidth="1"/>
-    <col min="10025" max="10031" width="5.7109375" style="3" customWidth="1"/>
-    <col min="10032" max="10032" width="6.85546875" style="3" customWidth="1"/>
-    <col min="10033" max="10033" width="6.5703125" style="3" customWidth="1"/>
-    <col min="10034" max="10034" width="10" style="3" customWidth="1"/>
-    <col min="10035" max="10041" width="10.7109375" style="3" customWidth="1"/>
-    <col min="10042" max="10235" width="9.140625" style="3"/>
-    <col min="10236" max="10236" width="2.140625" style="3" customWidth="1"/>
-    <col min="10237" max="10237" width="2.42578125" style="3" customWidth="1"/>
-    <col min="10238" max="10238" width="9.5703125" style="3" customWidth="1"/>
-    <col min="10239" max="10239" width="14.85546875" style="3" customWidth="1"/>
-    <col min="10240" max="10240" width="8" style="3" customWidth="1"/>
-    <col min="10241" max="10241" width="6.5703125" style="3" customWidth="1"/>
-    <col min="10242" max="10242" width="7.42578125" style="3" customWidth="1"/>
-    <col min="10243" max="10273" width="4.7109375" style="3" customWidth="1"/>
-    <col min="10274" max="10279" width="5.7109375" style="3" customWidth="1"/>
-    <col min="10280" max="10280" width="5.140625" style="3" customWidth="1"/>
-    <col min="10281" max="10287" width="5.7109375" style="3" customWidth="1"/>
-    <col min="10288" max="10288" width="6.85546875" style="3" customWidth="1"/>
-    <col min="10289" max="10289" width="6.5703125" style="3" customWidth="1"/>
-    <col min="10290" max="10290" width="10" style="3" customWidth="1"/>
-    <col min="10291" max="10297" width="10.7109375" style="3" customWidth="1"/>
-    <col min="10298" max="10491" width="9.140625" style="3"/>
-    <col min="10492" max="10492" width="2.140625" style="3" customWidth="1"/>
-    <col min="10493" max="10493" width="2.42578125" style="3" customWidth="1"/>
-    <col min="10494" max="10494" width="9.5703125" style="3" customWidth="1"/>
-    <col min="10495" max="10495" width="14.85546875" style="3" customWidth="1"/>
-    <col min="10496" max="10496" width="8" style="3" customWidth="1"/>
-    <col min="10497" max="10497" width="6.5703125" style="3" customWidth="1"/>
-    <col min="10498" max="10498" width="7.42578125" style="3" customWidth="1"/>
-    <col min="10499" max="10529" width="4.7109375" style="3" customWidth="1"/>
-    <col min="10530" max="10535" width="5.7109375" style="3" customWidth="1"/>
-    <col min="10536" max="10536" width="5.140625" style="3" customWidth="1"/>
-    <col min="10537" max="10543" width="5.7109375" style="3" customWidth="1"/>
-    <col min="10544" max="10544" width="6.85546875" style="3" customWidth="1"/>
-    <col min="10545" max="10545" width="6.5703125" style="3" customWidth="1"/>
-    <col min="10546" max="10546" width="10" style="3" customWidth="1"/>
-    <col min="10547" max="10553" width="10.7109375" style="3" customWidth="1"/>
-    <col min="10554" max="10747" width="9.140625" style="3"/>
-    <col min="10748" max="10748" width="2.140625" style="3" customWidth="1"/>
-    <col min="10749" max="10749" width="2.42578125" style="3" customWidth="1"/>
-    <col min="10750" max="10750" width="9.5703125" style="3" customWidth="1"/>
-    <col min="10751" max="10751" width="14.85546875" style="3" customWidth="1"/>
-    <col min="10752" max="10752" width="8" style="3" customWidth="1"/>
-    <col min="10753" max="10753" width="6.5703125" style="3" customWidth="1"/>
-    <col min="10754" max="10754" width="7.42578125" style="3" customWidth="1"/>
-    <col min="10755" max="10785" width="4.7109375" style="3" customWidth="1"/>
-    <col min="10786" max="10791" width="5.7109375" style="3" customWidth="1"/>
-    <col min="10792" max="10792" width="5.140625" style="3" customWidth="1"/>
-    <col min="10793" max="10799" width="5.7109375" style="3" customWidth="1"/>
-    <col min="10800" max="10800" width="6.85546875" style="3" customWidth="1"/>
-    <col min="10801" max="10801" width="6.5703125" style="3" customWidth="1"/>
-    <col min="10802" max="10802" width="10" style="3" customWidth="1"/>
-    <col min="10803" max="10809" width="10.7109375" style="3" customWidth="1"/>
-    <col min="10810" max="11003" width="9.140625" style="3"/>
-    <col min="11004" max="11004" width="2.140625" style="3" customWidth="1"/>
-    <col min="11005" max="11005" width="2.42578125" style="3" customWidth="1"/>
-    <col min="11006" max="11006" width="9.5703125" style="3" customWidth="1"/>
-    <col min="11007" max="11007" width="14.85546875" style="3" customWidth="1"/>
-    <col min="11008" max="11008" width="8" style="3" customWidth="1"/>
-    <col min="11009" max="11009" width="6.5703125" style="3" customWidth="1"/>
-    <col min="11010" max="11010" width="7.42578125" style="3" customWidth="1"/>
-    <col min="11011" max="11041" width="4.7109375" style="3" customWidth="1"/>
-    <col min="11042" max="11047" width="5.7109375" style="3" customWidth="1"/>
-    <col min="11048" max="11048" width="5.140625" style="3" customWidth="1"/>
-    <col min="11049" max="11055" width="5.7109375" style="3" customWidth="1"/>
-    <col min="11056" max="11056" width="6.85546875" style="3" customWidth="1"/>
-    <col min="11057" max="11057" width="6.5703125" style="3" customWidth="1"/>
-    <col min="11058" max="11058" width="10" style="3" customWidth="1"/>
-    <col min="11059" max="11065" width="10.7109375" style="3" customWidth="1"/>
-    <col min="11066" max="11259" width="9.140625" style="3"/>
-    <col min="11260" max="11260" width="2.140625" style="3" customWidth="1"/>
-    <col min="11261" max="11261" width="2.42578125" style="3" customWidth="1"/>
-    <col min="11262" max="11262" width="9.5703125" style="3" customWidth="1"/>
-    <col min="11263" max="11263" width="14.85546875" style="3" customWidth="1"/>
-    <col min="11264" max="11264" width="8" style="3" customWidth="1"/>
-    <col min="11265" max="11265" width="6.5703125" style="3" customWidth="1"/>
-    <col min="11266" max="11266" width="7.42578125" style="3" customWidth="1"/>
-    <col min="11267" max="11297" width="4.7109375" style="3" customWidth="1"/>
-    <col min="11298" max="11303" width="5.7109375" style="3" customWidth="1"/>
-    <col min="11304" max="11304" width="5.140625" style="3" customWidth="1"/>
-    <col min="11305" max="11311" width="5.7109375" style="3" customWidth="1"/>
-    <col min="11312" max="11312" width="6.85546875" style="3" customWidth="1"/>
-    <col min="11313" max="11313" width="6.5703125" style="3" customWidth="1"/>
-    <col min="11314" max="11314" width="10" style="3" customWidth="1"/>
-    <col min="11315" max="11321" width="10.7109375" style="3" customWidth="1"/>
-    <col min="11322" max="11515" width="9.140625" style="3"/>
-    <col min="11516" max="11516" width="2.140625" style="3" customWidth="1"/>
-    <col min="11517" max="11517" width="2.42578125" style="3" customWidth="1"/>
-    <col min="11518" max="11518" width="9.5703125" style="3" customWidth="1"/>
-    <col min="11519" max="11519" width="14.85546875" style="3" customWidth="1"/>
-    <col min="11520" max="11520" width="8" style="3" customWidth="1"/>
-    <col min="11521" max="11521" width="6.5703125" style="3" customWidth="1"/>
-    <col min="11522" max="11522" width="7.42578125" style="3" customWidth="1"/>
-    <col min="11523" max="11553" width="4.7109375" style="3" customWidth="1"/>
-    <col min="11554" max="11559" width="5.7109375" style="3" customWidth="1"/>
-    <col min="11560" max="11560" width="5.140625" style="3" customWidth="1"/>
-    <col min="11561" max="11567" width="5.7109375" style="3" customWidth="1"/>
-    <col min="11568" max="11568" width="6.85546875" style="3" customWidth="1"/>
-    <col min="11569" max="11569" width="6.5703125" style="3" customWidth="1"/>
-    <col min="11570" max="11570" width="10" style="3" customWidth="1"/>
-    <col min="11571" max="11577" width="10.7109375" style="3" customWidth="1"/>
-    <col min="11578" max="11771" width="9.140625" style="3"/>
-    <col min="11772" max="11772" width="2.140625" style="3" customWidth="1"/>
-    <col min="11773" max="11773" width="2.42578125" style="3" customWidth="1"/>
-    <col min="11774" max="11774" width="9.5703125" style="3" customWidth="1"/>
-    <col min="11775" max="11775" width="14.85546875" style="3" customWidth="1"/>
-    <col min="11776" max="11776" width="8" style="3" customWidth="1"/>
-    <col min="11777" max="11777" width="6.5703125" style="3" customWidth="1"/>
-    <col min="11778" max="11778" width="7.42578125" style="3" customWidth="1"/>
-    <col min="11779" max="11809" width="4.7109375" style="3" customWidth="1"/>
-    <col min="11810" max="11815" width="5.7109375" style="3" customWidth="1"/>
-    <col min="11816" max="11816" width="5.140625" style="3" customWidth="1"/>
-    <col min="11817" max="11823" width="5.7109375" style="3" customWidth="1"/>
-    <col min="11824" max="11824" width="6.85546875" style="3" customWidth="1"/>
-    <col min="11825" max="11825" width="6.5703125" style="3" customWidth="1"/>
-    <col min="11826" max="11826" width="10" style="3" customWidth="1"/>
-    <col min="11827" max="11833" width="10.7109375" style="3" customWidth="1"/>
-    <col min="11834" max="12027" width="9.140625" style="3"/>
-    <col min="12028" max="12028" width="2.140625" style="3" customWidth="1"/>
-    <col min="12029" max="12029" width="2.42578125" style="3" customWidth="1"/>
-    <col min="12030" max="12030" width="9.5703125" style="3" customWidth="1"/>
-    <col min="12031" max="12031" width="14.85546875" style="3" customWidth="1"/>
-    <col min="12032" max="12032" width="8" style="3" customWidth="1"/>
-    <col min="12033" max="12033" width="6.5703125" style="3" customWidth="1"/>
-    <col min="12034" max="12034" width="7.42578125" style="3" customWidth="1"/>
-    <col min="12035" max="12065" width="4.7109375" style="3" customWidth="1"/>
-    <col min="12066" max="12071" width="5.7109375" style="3" customWidth="1"/>
-    <col min="12072" max="12072" width="5.140625" style="3" customWidth="1"/>
-    <col min="12073" max="12079" width="5.7109375" style="3" customWidth="1"/>
-    <col min="12080" max="12080" width="6.85546875" style="3" customWidth="1"/>
-    <col min="12081" max="12081" width="6.5703125" style="3" customWidth="1"/>
-    <col min="12082" max="12082" width="10" style="3" customWidth="1"/>
-    <col min="12083" max="12089" width="10.7109375" style="3" customWidth="1"/>
-    <col min="12090" max="12283" width="9.140625" style="3"/>
-    <col min="12284" max="12284" width="2.140625" style="3" customWidth="1"/>
-    <col min="12285" max="12285" width="2.42578125" style="3" customWidth="1"/>
-    <col min="12286" max="12286" width="9.5703125" style="3" customWidth="1"/>
-    <col min="12287" max="12287" width="14.85546875" style="3" customWidth="1"/>
-    <col min="12288" max="12288" width="8" style="3" customWidth="1"/>
-    <col min="12289" max="12289" width="6.5703125" style="3" customWidth="1"/>
-    <col min="12290" max="12290" width="7.42578125" style="3" customWidth="1"/>
-    <col min="12291" max="12321" width="4.7109375" style="3" customWidth="1"/>
-    <col min="12322" max="12327" width="5.7109375" style="3" customWidth="1"/>
-    <col min="12328" max="12328" width="5.140625" style="3" customWidth="1"/>
-    <col min="12329" max="12335" width="5.7109375" style="3" customWidth="1"/>
-    <col min="12336" max="12336" width="6.85546875" style="3" customWidth="1"/>
-    <col min="12337" max="12337" width="6.5703125" style="3" customWidth="1"/>
-    <col min="12338" max="12338" width="10" style="3" customWidth="1"/>
-    <col min="12339" max="12345" width="10.7109375" style="3" customWidth="1"/>
-    <col min="12346" max="12539" width="9.140625" style="3"/>
-    <col min="12540" max="12540" width="2.140625" style="3" customWidth="1"/>
-    <col min="12541" max="12541" width="2.42578125" style="3" customWidth="1"/>
-    <col min="12542" max="12542" width="9.5703125" style="3" customWidth="1"/>
-    <col min="12543" max="12543" width="14.85546875" style="3" customWidth="1"/>
-    <col min="12544" max="12544" width="8" style="3" customWidth="1"/>
-    <col min="12545" max="12545" width="6.5703125" style="3" customWidth="1"/>
-    <col min="12546" max="12546" width="7.42578125" style="3" customWidth="1"/>
-    <col min="12547" max="12577" width="4.7109375" style="3" customWidth="1"/>
-    <col min="12578" max="12583" width="5.7109375" style="3" customWidth="1"/>
-    <col min="12584" max="12584" width="5.140625" style="3" customWidth="1"/>
-    <col min="12585" max="12591" width="5.7109375" style="3" customWidth="1"/>
-    <col min="12592" max="12592" width="6.85546875" style="3" customWidth="1"/>
-    <col min="12593" max="12593" width="6.5703125" style="3" customWidth="1"/>
-    <col min="12594" max="12594" width="10" style="3" customWidth="1"/>
-    <col min="12595" max="12601" width="10.7109375" style="3" customWidth="1"/>
-    <col min="12602" max="12795" width="9.140625" style="3"/>
-    <col min="12796" max="12796" width="2.140625" style="3" customWidth="1"/>
-    <col min="12797" max="12797" width="2.42578125" style="3" customWidth="1"/>
-    <col min="12798" max="12798" width="9.5703125" style="3" customWidth="1"/>
-    <col min="12799" max="12799" width="14.85546875" style="3" customWidth="1"/>
-    <col min="12800" max="12800" width="8" style="3" customWidth="1"/>
-    <col min="12801" max="12801" width="6.5703125" style="3" customWidth="1"/>
-    <col min="12802" max="12802" width="7.42578125" style="3" customWidth="1"/>
-    <col min="12803" max="12833" width="4.7109375" style="3" customWidth="1"/>
-    <col min="12834" max="12839" width="5.7109375" style="3" customWidth="1"/>
-    <col min="12840" max="12840" width="5.140625" style="3" customWidth="1"/>
-    <col min="12841" max="12847" width="5.7109375" style="3" customWidth="1"/>
-    <col min="12848" max="12848" width="6.85546875" style="3" customWidth="1"/>
-    <col min="12849" max="12849" width="6.5703125" style="3" customWidth="1"/>
-    <col min="12850" max="12850" width="10" style="3" customWidth="1"/>
-    <col min="12851" max="12857" width="10.7109375" style="3" customWidth="1"/>
-    <col min="12858" max="13051" width="9.140625" style="3"/>
-    <col min="13052" max="13052" width="2.140625" style="3" customWidth="1"/>
-    <col min="13053" max="13053" width="2.42578125" style="3" customWidth="1"/>
-    <col min="13054" max="13054" width="9.5703125" style="3" customWidth="1"/>
-    <col min="13055" max="13055" width="14.85546875" style="3" customWidth="1"/>
-    <col min="13056" max="13056" width="8" style="3" customWidth="1"/>
-    <col min="13057" max="13057" width="6.5703125" style="3" customWidth="1"/>
-    <col min="13058" max="13058" width="7.42578125" style="3" customWidth="1"/>
-    <col min="13059" max="13089" width="4.7109375" style="3" customWidth="1"/>
-    <col min="13090" max="13095" width="5.7109375" style="3" customWidth="1"/>
-    <col min="13096" max="13096" width="5.140625" style="3" customWidth="1"/>
-    <col min="13097" max="13103" width="5.7109375" style="3" customWidth="1"/>
-    <col min="13104" max="13104" width="6.85546875" style="3" customWidth="1"/>
-    <col min="13105" max="13105" width="6.5703125" style="3" customWidth="1"/>
-    <col min="13106" max="13106" width="10" style="3" customWidth="1"/>
-    <col min="13107" max="13113" width="10.7109375" style="3" customWidth="1"/>
-    <col min="13114" max="13307" width="9.140625" style="3"/>
-    <col min="13308" max="13308" width="2.140625" style="3" customWidth="1"/>
-    <col min="13309" max="13309" width="2.42578125" style="3" customWidth="1"/>
-    <col min="13310" max="13310" width="9.5703125" style="3" customWidth="1"/>
-    <col min="13311" max="13311" width="14.85546875" style="3" customWidth="1"/>
-    <col min="13312" max="13312" width="8" style="3" customWidth="1"/>
-    <col min="13313" max="13313" width="6.5703125" style="3" customWidth="1"/>
-    <col min="13314" max="13314" width="7.42578125" style="3" customWidth="1"/>
-    <col min="13315" max="13345" width="4.7109375" style="3" customWidth="1"/>
-    <col min="13346" max="13351" width="5.7109375" style="3" customWidth="1"/>
-    <col min="13352" max="13352" width="5.140625" style="3" customWidth="1"/>
-    <col min="13353" max="13359" width="5.7109375" style="3" customWidth="1"/>
-    <col min="13360" max="13360" width="6.85546875" style="3" customWidth="1"/>
-    <col min="13361" max="13361" width="6.5703125" style="3" customWidth="1"/>
-    <col min="13362" max="13362" width="10" style="3" customWidth="1"/>
-    <col min="13363" max="13369" width="10.7109375" style="3" customWidth="1"/>
-    <col min="13370" max="13563" width="9.140625" style="3"/>
-    <col min="13564" max="13564" width="2.140625" style="3" customWidth="1"/>
-    <col min="13565" max="13565" width="2.42578125" style="3" customWidth="1"/>
-    <col min="13566" max="13566" width="9.5703125" style="3" customWidth="1"/>
-    <col min="13567" max="13567" width="14.85546875" style="3" customWidth="1"/>
-    <col min="13568" max="13568" width="8" style="3" customWidth="1"/>
-    <col min="13569" max="13569" width="6.5703125" style="3" customWidth="1"/>
-    <col min="13570" max="13570" width="7.42578125" style="3" customWidth="1"/>
-    <col min="13571" max="13601" width="4.7109375" style="3" customWidth="1"/>
-    <col min="13602" max="13607" width="5.7109375" style="3" customWidth="1"/>
-    <col min="13608" max="13608" width="5.140625" style="3" customWidth="1"/>
-    <col min="13609" max="13615" width="5.7109375" style="3" customWidth="1"/>
-    <col min="13616" max="13616" width="6.85546875" style="3" customWidth="1"/>
-    <col min="13617" max="13617" width="6.5703125" style="3" customWidth="1"/>
-    <col min="13618" max="13618" width="10" style="3" customWidth="1"/>
-    <col min="13619" max="13625" width="10.7109375" style="3" customWidth="1"/>
-    <col min="13626" max="13819" width="9.140625" style="3"/>
-    <col min="13820" max="13820" width="2.140625" style="3" customWidth="1"/>
-    <col min="13821" max="13821" width="2.42578125" style="3" customWidth="1"/>
-    <col min="13822" max="13822" width="9.5703125" style="3" customWidth="1"/>
-    <col min="13823" max="13823" width="14.85546875" style="3" customWidth="1"/>
-    <col min="13824" max="13824" width="8" style="3" customWidth="1"/>
-    <col min="13825" max="13825" width="6.5703125" style="3" customWidth="1"/>
-    <col min="13826" max="13826" width="7.42578125" style="3" customWidth="1"/>
-    <col min="13827" max="13857" width="4.7109375" style="3" customWidth="1"/>
-    <col min="13858" max="13863" width="5.7109375" style="3" customWidth="1"/>
-    <col min="13864" max="13864" width="5.140625" style="3" customWidth="1"/>
-    <col min="13865" max="13871" width="5.7109375" style="3" customWidth="1"/>
-    <col min="13872" max="13872" width="6.85546875" style="3" customWidth="1"/>
-    <col min="13873" max="13873" width="6.5703125" style="3" customWidth="1"/>
-    <col min="13874" max="13874" width="10" style="3" customWidth="1"/>
-    <col min="13875" max="13881" width="10.7109375" style="3" customWidth="1"/>
-    <col min="13882" max="14075" width="9.140625" style="3"/>
-    <col min="14076" max="14076" width="2.140625" style="3" customWidth="1"/>
-    <col min="14077" max="14077" width="2.42578125" style="3" customWidth="1"/>
-    <col min="14078" max="14078" width="9.5703125" style="3" customWidth="1"/>
-    <col min="14079" max="14079" width="14.85546875" style="3" customWidth="1"/>
-    <col min="14080" max="14080" width="8" style="3" customWidth="1"/>
-    <col min="14081" max="14081" width="6.5703125" style="3" customWidth="1"/>
-    <col min="14082" max="14082" width="7.42578125" style="3" customWidth="1"/>
-    <col min="14083" max="14113" width="4.7109375" style="3" customWidth="1"/>
-    <col min="14114" max="14119" width="5.7109375" style="3" customWidth="1"/>
-    <col min="14120" max="14120" width="5.140625" style="3" customWidth="1"/>
-    <col min="14121" max="14127" width="5.7109375" style="3" customWidth="1"/>
-    <col min="14128" max="14128" width="6.85546875" style="3" customWidth="1"/>
-    <col min="14129" max="14129" width="6.5703125" style="3" customWidth="1"/>
-    <col min="14130" max="14130" width="10" style="3" customWidth="1"/>
-    <col min="14131" max="14137" width="10.7109375" style="3" customWidth="1"/>
-    <col min="14138" max="14331" width="9.140625" style="3"/>
-    <col min="14332" max="14332" width="2.140625" style="3" customWidth="1"/>
-    <col min="14333" max="14333" width="2.42578125" style="3" customWidth="1"/>
-    <col min="14334" max="14334" width="9.5703125" style="3" customWidth="1"/>
-    <col min="14335" max="14335" width="14.85546875" style="3" customWidth="1"/>
-    <col min="14336" max="14336" width="8" style="3" customWidth="1"/>
-    <col min="14337" max="14337" width="6.5703125" style="3" customWidth="1"/>
-    <col min="14338" max="14338" width="7.42578125" style="3" customWidth="1"/>
-    <col min="14339" max="14369" width="4.7109375" style="3" customWidth="1"/>
-    <col min="14370" max="14375" width="5.7109375" style="3" customWidth="1"/>
-    <col min="14376" max="14376" width="5.140625" style="3" customWidth="1"/>
-    <col min="14377" max="14383" width="5.7109375" style="3" customWidth="1"/>
-    <col min="14384" max="14384" width="6.85546875" style="3" customWidth="1"/>
-    <col min="14385" max="14385" width="6.5703125" style="3" customWidth="1"/>
-    <col min="14386" max="14386" width="10" style="3" customWidth="1"/>
-    <col min="14387" max="14393" width="10.7109375" style="3" customWidth="1"/>
-    <col min="14394" max="14587" width="9.140625" style="3"/>
-    <col min="14588" max="14588" width="2.140625" style="3" customWidth="1"/>
-    <col min="14589" max="14589" width="2.42578125" style="3" customWidth="1"/>
-    <col min="14590" max="14590" width="9.5703125" style="3" customWidth="1"/>
-    <col min="14591" max="14591" width="14.85546875" style="3" customWidth="1"/>
-    <col min="14592" max="14592" width="8" style="3" customWidth="1"/>
-    <col min="14593" max="14593" width="6.5703125" style="3" customWidth="1"/>
-    <col min="14594" max="14594" width="7.42578125" style="3" customWidth="1"/>
-    <col min="14595" max="14625" width="4.7109375" style="3" customWidth="1"/>
-    <col min="14626" max="14631" width="5.7109375" style="3" customWidth="1"/>
-    <col min="14632" max="14632" width="5.140625" style="3" customWidth="1"/>
-    <col min="14633" max="14639" width="5.7109375" style="3" customWidth="1"/>
-    <col min="14640" max="14640" width="6.85546875" style="3" customWidth="1"/>
-    <col min="14641" max="14641" width="6.5703125" style="3" customWidth="1"/>
-    <col min="14642" max="14642" width="10" style="3" customWidth="1"/>
-    <col min="14643" max="14649" width="10.7109375" style="3" customWidth="1"/>
-    <col min="14650" max="14843" width="9.140625" style="3"/>
-    <col min="14844" max="14844" width="2.140625" style="3" customWidth="1"/>
-    <col min="14845" max="14845" width="2.42578125" style="3" customWidth="1"/>
-    <col min="14846" max="14846" width="9.5703125" style="3" customWidth="1"/>
-    <col min="14847" max="14847" width="14.85546875" style="3" customWidth="1"/>
-    <col min="14848" max="14848" width="8" style="3" customWidth="1"/>
-    <col min="14849" max="14849" width="6.5703125" style="3" customWidth="1"/>
-    <col min="14850" max="14850" width="7.42578125" style="3" customWidth="1"/>
-    <col min="14851" max="14881" width="4.7109375" style="3" customWidth="1"/>
-    <col min="14882" max="14887" width="5.7109375" style="3" customWidth="1"/>
-    <col min="14888" max="14888" width="5.140625" style="3" customWidth="1"/>
-    <col min="14889" max="14895" width="5.7109375" style="3" customWidth="1"/>
-    <col min="14896" max="14896" width="6.85546875" style="3" customWidth="1"/>
-    <col min="14897" max="14897" width="6.5703125" style="3" customWidth="1"/>
-    <col min="14898" max="14898" width="10" style="3" customWidth="1"/>
-    <col min="14899" max="14905" width="10.7109375" style="3" customWidth="1"/>
-    <col min="14906" max="15099" width="9.140625" style="3"/>
-    <col min="15100" max="15100" width="2.140625" style="3" customWidth="1"/>
-    <col min="15101" max="15101" width="2.42578125" style="3" customWidth="1"/>
-    <col min="15102" max="15102" width="9.5703125" style="3" customWidth="1"/>
-    <col min="15103" max="15103" width="14.85546875" style="3" customWidth="1"/>
-    <col min="15104" max="15104" width="8" style="3" customWidth="1"/>
-    <col min="15105" max="15105" width="6.5703125" style="3" customWidth="1"/>
-    <col min="15106" max="15106" width="7.42578125" style="3" customWidth="1"/>
-    <col min="15107" max="15137" width="4.7109375" style="3" customWidth="1"/>
-    <col min="15138" max="15143" width="5.7109375" style="3" customWidth="1"/>
-    <col min="15144" max="15144" width="5.140625" style="3" customWidth="1"/>
-    <col min="15145" max="15151" width="5.7109375" style="3" customWidth="1"/>
-    <col min="15152" max="15152" width="6.85546875" style="3" customWidth="1"/>
-    <col min="15153" max="15153" width="6.5703125" style="3" customWidth="1"/>
-    <col min="15154" max="15154" width="10" style="3" customWidth="1"/>
-    <col min="15155" max="15161" width="10.7109375" style="3" customWidth="1"/>
-    <col min="15162" max="15355" width="9.140625" style="3"/>
-    <col min="15356" max="15356" width="2.140625" style="3" customWidth="1"/>
-    <col min="15357" max="15357" width="2.42578125" style="3" customWidth="1"/>
-    <col min="15358" max="15358" width="9.5703125" style="3" customWidth="1"/>
-    <col min="15359" max="15359" width="14.85546875" style="3" customWidth="1"/>
-    <col min="15360" max="15360" width="8" style="3" customWidth="1"/>
-    <col min="15361" max="15361" width="6.5703125" style="3" customWidth="1"/>
-    <col min="15362" max="15362" width="7.42578125" style="3" customWidth="1"/>
-    <col min="15363" max="15393" width="4.7109375" style="3" customWidth="1"/>
-    <col min="15394" max="15399" width="5.7109375" style="3" customWidth="1"/>
-    <col min="15400" max="15400" width="5.140625" style="3" customWidth="1"/>
-    <col min="15401" max="15407" width="5.7109375" style="3" customWidth="1"/>
-    <col min="15408" max="15408" width="6.85546875" style="3" customWidth="1"/>
-    <col min="15409" max="15409" width="6.5703125" style="3" customWidth="1"/>
-    <col min="15410" max="15410" width="10" style="3" customWidth="1"/>
-    <col min="15411" max="15417" width="10.7109375" style="3" customWidth="1"/>
-    <col min="15418" max="15611" width="9.140625" style="3"/>
-    <col min="15612" max="15612" width="2.140625" style="3" customWidth="1"/>
-    <col min="15613" max="15613" width="2.42578125" style="3" customWidth="1"/>
-    <col min="15614" max="15614" width="9.5703125" style="3" customWidth="1"/>
-    <col min="15615" max="15615" width="14.85546875" style="3" customWidth="1"/>
-    <col min="15616" max="15616" width="8" style="3" customWidth="1"/>
-    <col min="15617" max="15617" width="6.5703125" style="3" customWidth="1"/>
-    <col min="15618" max="15618" width="7.42578125" style="3" customWidth="1"/>
-    <col min="15619" max="15649" width="4.7109375" style="3" customWidth="1"/>
-    <col min="15650" max="15655" width="5.7109375" style="3" customWidth="1"/>
-    <col min="15656" max="15656" width="5.140625" style="3" customWidth="1"/>
-    <col min="15657" max="15663" width="5.7109375" style="3" customWidth="1"/>
-    <col min="15664" max="15664" width="6.85546875" style="3" customWidth="1"/>
-    <col min="15665" max="15665" width="6.5703125" style="3" customWidth="1"/>
-    <col min="15666" max="15666" width="10" style="3" customWidth="1"/>
-    <col min="15667" max="15673" width="10.7109375" style="3" customWidth="1"/>
-    <col min="15674" max="15867" width="9.140625" style="3"/>
-    <col min="15868" max="15868" width="2.140625" style="3" customWidth="1"/>
-    <col min="15869" max="15869" width="2.42578125" style="3" customWidth="1"/>
-    <col min="15870" max="15870" width="9.5703125" style="3" customWidth="1"/>
-    <col min="15871" max="15871" width="14.85546875" style="3" customWidth="1"/>
-    <col min="15872" max="15872" width="8" style="3" customWidth="1"/>
-    <col min="15873" max="15873" width="6.5703125" style="3" customWidth="1"/>
-    <col min="15874" max="15874" width="7.42578125" style="3" customWidth="1"/>
-    <col min="15875" max="15905" width="4.7109375" style="3" customWidth="1"/>
-    <col min="15906" max="15911" width="5.7109375" style="3" customWidth="1"/>
-    <col min="15912" max="15912" width="5.140625" style="3" customWidth="1"/>
-    <col min="15913" max="15919" width="5.7109375" style="3" customWidth="1"/>
-    <col min="15920" max="15920" width="6.85546875" style="3" customWidth="1"/>
-    <col min="15921" max="15921" width="6.5703125" style="3" customWidth="1"/>
-    <col min="15922" max="15922" width="10" style="3" customWidth="1"/>
-    <col min="15923" max="15929" width="10.7109375" style="3" customWidth="1"/>
-    <col min="15930" max="16123" width="9.140625" style="3"/>
-    <col min="16124" max="16124" width="2.140625" style="3" customWidth="1"/>
-    <col min="16125" max="16125" width="2.42578125" style="3" customWidth="1"/>
-    <col min="16126" max="16126" width="9.5703125" style="3" customWidth="1"/>
-    <col min="16127" max="16127" width="14.85546875" style="3" customWidth="1"/>
-    <col min="16128" max="16128" width="8" style="3" customWidth="1"/>
-    <col min="16129" max="16129" width="6.5703125" style="3" customWidth="1"/>
-    <col min="16130" max="16130" width="7.42578125" style="3" customWidth="1"/>
-    <col min="16131" max="16161" width="4.7109375" style="3" customWidth="1"/>
-    <col min="16162" max="16167" width="5.7109375" style="3" customWidth="1"/>
-    <col min="16168" max="16168" width="5.140625" style="3" customWidth="1"/>
-    <col min="16169" max="16175" width="5.7109375" style="3" customWidth="1"/>
-    <col min="16176" max="16176" width="6.85546875" style="3" customWidth="1"/>
-    <col min="16177" max="16177" width="6.5703125" style="3" customWidth="1"/>
-    <col min="16178" max="16178" width="10" style="3" customWidth="1"/>
-    <col min="16179" max="16185" width="10.7109375" style="3" customWidth="1"/>
-    <col min="16186" max="16384" width="9.140625" style="3"/>
+    <col min="58" max="58" width="5.7109375" style="20" customWidth="1"/>
+    <col min="59" max="252" width="9.140625" style="3"/>
+    <col min="253" max="253" width="2.140625" style="3" customWidth="1"/>
+    <col min="254" max="254" width="2.42578125" style="3" customWidth="1"/>
+    <col min="255" max="255" width="9.5703125" style="3" customWidth="1"/>
+    <col min="256" max="256" width="14.85546875" style="3" customWidth="1"/>
+    <col min="257" max="257" width="8" style="3" customWidth="1"/>
+    <col min="258" max="258" width="6.5703125" style="3" customWidth="1"/>
+    <col min="259" max="259" width="7.42578125" style="3" customWidth="1"/>
+    <col min="260" max="290" width="4.7109375" style="3" customWidth="1"/>
+    <col min="291" max="296" width="5.7109375" style="3" customWidth="1"/>
+    <col min="297" max="297" width="5.140625" style="3" customWidth="1"/>
+    <col min="298" max="304" width="5.7109375" style="3" customWidth="1"/>
+    <col min="305" max="305" width="6.85546875" style="3" customWidth="1"/>
+    <col min="306" max="306" width="6.5703125" style="3" customWidth="1"/>
+    <col min="307" max="307" width="10" style="3" customWidth="1"/>
+    <col min="308" max="314" width="10.7109375" style="3" customWidth="1"/>
+    <col min="315" max="508" width="9.140625" style="3"/>
+    <col min="509" max="509" width="2.140625" style="3" customWidth="1"/>
+    <col min="510" max="510" width="2.42578125" style="3" customWidth="1"/>
+    <col min="511" max="511" width="9.5703125" style="3" customWidth="1"/>
+    <col min="512" max="512" width="14.85546875" style="3" customWidth="1"/>
+    <col min="513" max="513" width="8" style="3" customWidth="1"/>
+    <col min="514" max="514" width="6.5703125" style="3" customWidth="1"/>
+    <col min="515" max="515" width="7.42578125" style="3" customWidth="1"/>
+    <col min="516" max="546" width="4.7109375" style="3" customWidth="1"/>
+    <col min="547" max="552" width="5.7109375" style="3" customWidth="1"/>
+    <col min="553" max="553" width="5.140625" style="3" customWidth="1"/>
+    <col min="554" max="560" width="5.7109375" style="3" customWidth="1"/>
+    <col min="561" max="561" width="6.85546875" style="3" customWidth="1"/>
+    <col min="562" max="562" width="6.5703125" style="3" customWidth="1"/>
+    <col min="563" max="563" width="10" style="3" customWidth="1"/>
+    <col min="564" max="570" width="10.7109375" style="3" customWidth="1"/>
+    <col min="571" max="764" width="9.140625" style="3"/>
+    <col min="765" max="765" width="2.140625" style="3" customWidth="1"/>
+    <col min="766" max="766" width="2.42578125" style="3" customWidth="1"/>
+    <col min="767" max="767" width="9.5703125" style="3" customWidth="1"/>
+    <col min="768" max="768" width="14.85546875" style="3" customWidth="1"/>
+    <col min="769" max="769" width="8" style="3" customWidth="1"/>
+    <col min="770" max="770" width="6.5703125" style="3" customWidth="1"/>
+    <col min="771" max="771" width="7.42578125" style="3" customWidth="1"/>
+    <col min="772" max="802" width="4.7109375" style="3" customWidth="1"/>
+    <col min="803" max="808" width="5.7109375" style="3" customWidth="1"/>
+    <col min="809" max="809" width="5.140625" style="3" customWidth="1"/>
+    <col min="810" max="816" width="5.7109375" style="3" customWidth="1"/>
+    <col min="817" max="817" width="6.85546875" style="3" customWidth="1"/>
+    <col min="818" max="818" width="6.5703125" style="3" customWidth="1"/>
+    <col min="819" max="819" width="10" style="3" customWidth="1"/>
+    <col min="820" max="826" width="10.7109375" style="3" customWidth="1"/>
+    <col min="827" max="1020" width="9.140625" style="3"/>
+    <col min="1021" max="1021" width="2.140625" style="3" customWidth="1"/>
+    <col min="1022" max="1022" width="2.42578125" style="3" customWidth="1"/>
+    <col min="1023" max="1023" width="9.5703125" style="3" customWidth="1"/>
+    <col min="1024" max="1024" width="14.85546875" style="3" customWidth="1"/>
+    <col min="1025" max="1025" width="8" style="3" customWidth="1"/>
+    <col min="1026" max="1026" width="6.5703125" style="3" customWidth="1"/>
+    <col min="1027" max="1027" width="7.42578125" style="3" customWidth="1"/>
+    <col min="1028" max="1058" width="4.7109375" style="3" customWidth="1"/>
+    <col min="1059" max="1064" width="5.7109375" style="3" customWidth="1"/>
+    <col min="1065" max="1065" width="5.140625" style="3" customWidth="1"/>
+    <col min="1066" max="1072" width="5.7109375" style="3" customWidth="1"/>
+    <col min="1073" max="1073" width="6.85546875" style="3" customWidth="1"/>
+    <col min="1074" max="1074" width="6.5703125" style="3" customWidth="1"/>
+    <col min="1075" max="1075" width="10" style="3" customWidth="1"/>
+    <col min="1076" max="1082" width="10.7109375" style="3" customWidth="1"/>
+    <col min="1083" max="1276" width="9.140625" style="3"/>
+    <col min="1277" max="1277" width="2.140625" style="3" customWidth="1"/>
+    <col min="1278" max="1278" width="2.42578125" style="3" customWidth="1"/>
+    <col min="1279" max="1279" width="9.5703125" style="3" customWidth="1"/>
+    <col min="1280" max="1280" width="14.85546875" style="3" customWidth="1"/>
+    <col min="1281" max="1281" width="8" style="3" customWidth="1"/>
+    <col min="1282" max="1282" width="6.5703125" style="3" customWidth="1"/>
+    <col min="1283" max="1283" width="7.42578125" style="3" customWidth="1"/>
+    <col min="1284" max="1314" width="4.7109375" style="3" customWidth="1"/>
+    <col min="1315" max="1320" width="5.7109375" style="3" customWidth="1"/>
+    <col min="1321" max="1321" width="5.140625" style="3" customWidth="1"/>
+    <col min="1322" max="1328" width="5.7109375" style="3" customWidth="1"/>
+    <col min="1329" max="1329" width="6.85546875" style="3" customWidth="1"/>
+    <col min="1330" max="1330" width="6.5703125" style="3" customWidth="1"/>
+    <col min="1331" max="1331" width="10" style="3" customWidth="1"/>
+    <col min="1332" max="1338" width="10.7109375" style="3" customWidth="1"/>
+    <col min="1339" max="1532" width="9.140625" style="3"/>
+    <col min="1533" max="1533" width="2.140625" style="3" customWidth="1"/>
+    <col min="1534" max="1534" width="2.42578125" style="3" customWidth="1"/>
+    <col min="1535" max="1535" width="9.5703125" style="3" customWidth="1"/>
+    <col min="1536" max="1536" width="14.85546875" style="3" customWidth="1"/>
+    <col min="1537" max="1537" width="8" style="3" customWidth="1"/>
+    <col min="1538" max="1538" width="6.5703125" style="3" customWidth="1"/>
+    <col min="1539" max="1539" width="7.42578125" style="3" customWidth="1"/>
+    <col min="1540" max="1570" width="4.7109375" style="3" customWidth="1"/>
+    <col min="1571" max="1576" width="5.7109375" style="3" customWidth="1"/>
+    <col min="1577" max="1577" width="5.140625" style="3" customWidth="1"/>
+    <col min="1578" max="1584" width="5.7109375" style="3" customWidth="1"/>
+    <col min="1585" max="1585" width="6.85546875" style="3" customWidth="1"/>
+    <col min="1586" max="1586" width="6.5703125" style="3" customWidth="1"/>
+    <col min="1587" max="1587" width="10" style="3" customWidth="1"/>
+    <col min="1588" max="1594" width="10.7109375" style="3" customWidth="1"/>
+    <col min="1595" max="1788" width="9.140625" style="3"/>
+    <col min="1789" max="1789" width="2.140625" style="3" customWidth="1"/>
+    <col min="1790" max="1790" width="2.42578125" style="3" customWidth="1"/>
+    <col min="1791" max="1791" width="9.5703125" style="3" customWidth="1"/>
+    <col min="1792" max="1792" width="14.85546875" style="3" customWidth="1"/>
+    <col min="1793" max="1793" width="8" style="3" customWidth="1"/>
+    <col min="1794" max="1794" width="6.5703125" style="3" customWidth="1"/>
+    <col min="1795" max="1795" width="7.42578125" style="3" customWidth="1"/>
+    <col min="1796" max="1826" width="4.7109375" style="3" customWidth="1"/>
+    <col min="1827" max="1832" width="5.7109375" style="3" customWidth="1"/>
+    <col min="1833" max="1833" width="5.140625" style="3" customWidth="1"/>
+    <col min="1834" max="1840" width="5.7109375" style="3" customWidth="1"/>
+    <col min="1841" max="1841" width="6.85546875" style="3" customWidth="1"/>
+    <col min="1842" max="1842" width="6.5703125" style="3" customWidth="1"/>
+    <col min="1843" max="1843" width="10" style="3" customWidth="1"/>
+    <col min="1844" max="1850" width="10.7109375" style="3" customWidth="1"/>
+    <col min="1851" max="2044" width="9.140625" style="3"/>
+    <col min="2045" max="2045" width="2.140625" style="3" customWidth="1"/>
+    <col min="2046" max="2046" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2047" max="2047" width="9.5703125" style="3" customWidth="1"/>
+    <col min="2048" max="2048" width="14.85546875" style="3" customWidth="1"/>
+    <col min="2049" max="2049" width="8" style="3" customWidth="1"/>
+    <col min="2050" max="2050" width="6.5703125" style="3" customWidth="1"/>
+    <col min="2051" max="2051" width="7.42578125" style="3" customWidth="1"/>
+    <col min="2052" max="2082" width="4.7109375" style="3" customWidth="1"/>
+    <col min="2083" max="2088" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2089" max="2089" width="5.140625" style="3" customWidth="1"/>
+    <col min="2090" max="2096" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2097" max="2097" width="6.85546875" style="3" customWidth="1"/>
+    <col min="2098" max="2098" width="6.5703125" style="3" customWidth="1"/>
+    <col min="2099" max="2099" width="10" style="3" customWidth="1"/>
+    <col min="2100" max="2106" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2107" max="2300" width="9.140625" style="3"/>
+    <col min="2301" max="2301" width="2.140625" style="3" customWidth="1"/>
+    <col min="2302" max="2302" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2303" max="2303" width="9.5703125" style="3" customWidth="1"/>
+    <col min="2304" max="2304" width="14.85546875" style="3" customWidth="1"/>
+    <col min="2305" max="2305" width="8" style="3" customWidth="1"/>
+    <col min="2306" max="2306" width="6.5703125" style="3" customWidth="1"/>
+    <col min="2307" max="2307" width="7.42578125" style="3" customWidth="1"/>
+    <col min="2308" max="2338" width="4.7109375" style="3" customWidth="1"/>
+    <col min="2339" max="2344" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2345" max="2345" width="5.140625" style="3" customWidth="1"/>
+    <col min="2346" max="2352" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2353" max="2353" width="6.85546875" style="3" customWidth="1"/>
+    <col min="2354" max="2354" width="6.5703125" style="3" customWidth="1"/>
+    <col min="2355" max="2355" width="10" style="3" customWidth="1"/>
+    <col min="2356" max="2362" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2363" max="2556" width="9.140625" style="3"/>
+    <col min="2557" max="2557" width="2.140625" style="3" customWidth="1"/>
+    <col min="2558" max="2558" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2559" max="2559" width="9.5703125" style="3" customWidth="1"/>
+    <col min="2560" max="2560" width="14.85546875" style="3" customWidth="1"/>
+    <col min="2561" max="2561" width="8" style="3" customWidth="1"/>
+    <col min="2562" max="2562" width="6.5703125" style="3" customWidth="1"/>
+    <col min="2563" max="2563" width="7.42578125" style="3" customWidth="1"/>
+    <col min="2564" max="2594" width="4.7109375" style="3" customWidth="1"/>
+    <col min="2595" max="2600" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2601" max="2601" width="5.140625" style="3" customWidth="1"/>
+    <col min="2602" max="2608" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2609" max="2609" width="6.85546875" style="3" customWidth="1"/>
+    <col min="2610" max="2610" width="6.5703125" style="3" customWidth="1"/>
+    <col min="2611" max="2611" width="10" style="3" customWidth="1"/>
+    <col min="2612" max="2618" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2619" max="2812" width="9.140625" style="3"/>
+    <col min="2813" max="2813" width="2.140625" style="3" customWidth="1"/>
+    <col min="2814" max="2814" width="2.42578125" style="3" customWidth="1"/>
+    <col min="2815" max="2815" width="9.5703125" style="3" customWidth="1"/>
+    <col min="2816" max="2816" width="14.85546875" style="3" customWidth="1"/>
+    <col min="2817" max="2817" width="8" style="3" customWidth="1"/>
+    <col min="2818" max="2818" width="6.5703125" style="3" customWidth="1"/>
+    <col min="2819" max="2819" width="7.42578125" style="3" customWidth="1"/>
+    <col min="2820" max="2850" width="4.7109375" style="3" customWidth="1"/>
+    <col min="2851" max="2856" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2857" max="2857" width="5.140625" style="3" customWidth="1"/>
+    <col min="2858" max="2864" width="5.7109375" style="3" customWidth="1"/>
+    <col min="2865" max="2865" width="6.85546875" style="3" customWidth="1"/>
+    <col min="2866" max="2866" width="6.5703125" style="3" customWidth="1"/>
+    <col min="2867" max="2867" width="10" style="3" customWidth="1"/>
+    <col min="2868" max="2874" width="10.7109375" style="3" customWidth="1"/>
+    <col min="2875" max="3068" width="9.140625" style="3"/>
+    <col min="3069" max="3069" width="2.140625" style="3" customWidth="1"/>
+    <col min="3070" max="3070" width="2.42578125" style="3" customWidth="1"/>
+    <col min="3071" max="3071" width="9.5703125" style="3" customWidth="1"/>
+    <col min="3072" max="3072" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3073" max="3073" width="8" style="3" customWidth="1"/>
+    <col min="3074" max="3074" width="6.5703125" style="3" customWidth="1"/>
+    <col min="3075" max="3075" width="7.42578125" style="3" customWidth="1"/>
+    <col min="3076" max="3106" width="4.7109375" style="3" customWidth="1"/>
+    <col min="3107" max="3112" width="5.7109375" style="3" customWidth="1"/>
+    <col min="3113" max="3113" width="5.140625" style="3" customWidth="1"/>
+    <col min="3114" max="3120" width="5.7109375" style="3" customWidth="1"/>
+    <col min="3121" max="3121" width="6.85546875" style="3" customWidth="1"/>
+    <col min="3122" max="3122" width="6.5703125" style="3" customWidth="1"/>
+    <col min="3123" max="3123" width="10" style="3" customWidth="1"/>
+    <col min="3124" max="3130" width="10.7109375" style="3" customWidth="1"/>
+    <col min="3131" max="3324" width="9.140625" style="3"/>
+    <col min="3325" max="3325" width="2.140625" style="3" customWidth="1"/>
+    <col min="3326" max="3326" width="2.42578125" style="3" customWidth="1"/>
+    <col min="3327" max="3327" width="9.5703125" style="3" customWidth="1"/>
+    <col min="3328" max="3328" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3329" max="3329" width="8" style="3" customWidth="1"/>
+    <col min="3330" max="3330" width="6.5703125" style="3" customWidth="1"/>
+    <col min="3331" max="3331" width="7.42578125" style="3" customWidth="1"/>
+    <col min="3332" max="3362" width="4.7109375" style="3" customWidth="1"/>
+    <col min="3363" max="3368" width="5.7109375" style="3" customWidth="1"/>
+    <col min="3369" max="3369" width="5.140625" style="3" customWidth="1"/>
+    <col min="3370" max="3376" width="5.7109375" style="3" customWidth="1"/>
+    <col min="3377" max="3377" width="6.85546875" style="3" customWidth="1"/>
+    <col min="3378" max="3378" width="6.5703125" style="3" customWidth="1"/>
+    <col min="3379" max="3379" width="10" style="3" customWidth="1"/>
+    <col min="3380" max="3386" width="10.7109375" style="3" customWidth="1"/>
+    <col min="3387" max="3580" width="9.140625" style="3"/>
+    <col min="3581" max="3581" width="2.140625" style="3" customWidth="1"/>
+    <col min="3582" max="3582" width="2.42578125" style="3" customWidth="1"/>
+    <col min="3583" max="3583" width="9.5703125" style="3" customWidth="1"/>
+    <col min="3584" max="3584" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3585" max="3585" width="8" style="3" customWidth="1"/>
+    <col min="3586" max="3586" width="6.5703125" style="3" customWidth="1"/>
+    <col min="3587" max="3587" width="7.42578125" style="3" customWidth="1"/>
+    <col min="3588" max="3618" width="4.7109375" style="3" customWidth="1"/>
+    <col min="3619" max="3624" width="5.7109375" style="3" customWidth="1"/>
+    <col min="3625" max="3625" width="5.140625" style="3" customWidth="1"/>
+    <col min="3626" max="3632" width="5.7109375" style="3" customWidth="1"/>
+    <col min="3633" max="3633" width="6.85546875" style="3" customWidth="1"/>
+    <col min="3634" max="3634" width="6.5703125" style="3" customWidth="1"/>
+    <col min="3635" max="3635" width="10" style="3" customWidth="1"/>
+    <col min="3636" max="3642" width="10.7109375" style="3" customWidth="1"/>
+    <col min="3643" max="3836" width="9.140625" style="3"/>
+    <col min="3837" max="3837" width="2.140625" style="3" customWidth="1"/>
+    <col min="3838" max="3838" width="2.42578125" style="3" customWidth="1"/>
+    <col min="3839" max="3839" width="9.5703125" style="3" customWidth="1"/>
+    <col min="3840" max="3840" width="14.85546875" style="3" customWidth="1"/>
+    <col min="3841" max="3841" width="8" style="3" customWidth="1"/>
+    <col min="3842" max="3842" width="6.5703125" style="3" customWidth="1"/>
+    <col min="3843" max="3843" width="7.42578125" style="3" customWidth="1"/>
+    <col min="3844" max="3874" width="4.7109375" style="3" customWidth="1"/>
+    <col min="3875" max="3880" width="5.7109375" style="3" customWidth="1"/>
+    <col min="3881" max="3881" width="5.140625" style="3" customWidth="1"/>
+    <col min="3882" max="3888" width="5.7109375" style="3" customWidth="1"/>
+    <col min="3889" max="3889" width="6.85546875" style="3" customWidth="1"/>
+    <col min="3890" max="3890" width="6.5703125" style="3" customWidth="1"/>
+    <col min="3891" max="3891" width="10" style="3" customWidth="1"/>
+    <col min="3892" max="3898" width="10.7109375" style="3" customWidth="1"/>
+    <col min="3899" max="4092" width="9.140625" style="3"/>
+    <col min="4093" max="4093" width="2.140625" style="3" customWidth="1"/>
+    <col min="4094" max="4094" width="2.42578125" style="3" customWidth="1"/>
+    <col min="4095" max="4095" width="9.5703125" style="3" customWidth="1"/>
+    <col min="4096" max="4096" width="14.85546875" style="3" customWidth="1"/>
+    <col min="4097" max="4097" width="8" style="3" customWidth="1"/>
+    <col min="4098" max="4098" width="6.5703125" style="3" customWidth="1"/>
+    <col min="4099" max="4099" width="7.42578125" style="3" customWidth="1"/>
+    <col min="4100" max="4130" width="4.7109375" style="3" customWidth="1"/>
+    <col min="4131" max="4136" width="5.7109375" style="3" customWidth="1"/>
+    <col min="4137" max="4137" width="5.140625" style="3" customWidth="1"/>
+    <col min="4138" max="4144" width="5.7109375" style="3" customWidth="1"/>
+    <col min="4145" max="4145" width="6.85546875" style="3" customWidth="1"/>
+    <col min="4146" max="4146" width="6.5703125" style="3" customWidth="1"/>
+    <col min="4147" max="4147" width="10" style="3" customWidth="1"/>
+    <col min="4148" max="4154" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4155" max="4348" width="9.140625" style="3"/>
+    <col min="4349" max="4349" width="2.140625" style="3" customWidth="1"/>
+    <col min="4350" max="4350" width="2.42578125" style="3" customWidth="1"/>
+    <col min="4351" max="4351" width="9.5703125" style="3" customWidth="1"/>
+    <col min="4352" max="4352" width="14.85546875" style="3" customWidth="1"/>
+    <col min="4353" max="4353" width="8" style="3" customWidth="1"/>
+    <col min="4354" max="4354" width="6.5703125" style="3" customWidth="1"/>
+    <col min="4355" max="4355" width="7.42578125" style="3" customWidth="1"/>
+    <col min="4356" max="4386" width="4.7109375" style="3" customWidth="1"/>
+    <col min="4387" max="4392" width="5.7109375" style="3" customWidth="1"/>
+    <col min="4393" max="4393" width="5.140625" style="3" customWidth="1"/>
+    <col min="4394" max="4400" width="5.7109375" style="3" customWidth="1"/>
+    <col min="4401" max="4401" width="6.85546875" style="3" customWidth="1"/>
+    <col min="4402" max="4402" width="6.5703125" style="3" customWidth="1"/>
+    <col min="4403" max="4403" width="10" style="3" customWidth="1"/>
+    <col min="4404" max="4410" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4411" max="4604" width="9.140625" style="3"/>
+    <col min="4605" max="4605" width="2.140625" style="3" customWidth="1"/>
+    <col min="4606" max="4606" width="2.42578125" style="3" customWidth="1"/>
+    <col min="4607" max="4607" width="9.5703125" style="3" customWidth="1"/>
+    <col min="4608" max="4608" width="14.85546875" style="3" customWidth="1"/>
+    <col min="4609" max="4609" width="8" style="3" customWidth="1"/>
+    <col min="4610" max="4610" width="6.5703125" style="3" customWidth="1"/>
+    <col min="4611" max="4611" width="7.42578125" style="3" customWidth="1"/>
+    <col min="4612" max="4642" width="4.7109375" style="3" customWidth="1"/>
+    <col min="4643" max="4648" width="5.7109375" style="3" customWidth="1"/>
+    <col min="4649" max="4649" width="5.140625" style="3" customWidth="1"/>
+    <col min="4650" max="4656" width="5.7109375" style="3" customWidth="1"/>
+    <col min="4657" max="4657" width="6.85546875" style="3" customWidth="1"/>
+    <col min="4658" max="4658" width="6.5703125" style="3" customWidth="1"/>
+    <col min="4659" max="4659" width="10" style="3" customWidth="1"/>
+    <col min="4660" max="4666" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4667" max="4860" width="9.140625" style="3"/>
+    <col min="4861" max="4861" width="2.140625" style="3" customWidth="1"/>
+    <col min="4862" max="4862" width="2.42578125" style="3" customWidth="1"/>
+    <col min="4863" max="4863" width="9.5703125" style="3" customWidth="1"/>
+    <col min="4864" max="4864" width="14.85546875" style="3" customWidth="1"/>
+    <col min="4865" max="4865" width="8" style="3" customWidth="1"/>
+    <col min="4866" max="4866" width="6.5703125" style="3" customWidth="1"/>
+    <col min="4867" max="4867" width="7.42578125" style="3" customWidth="1"/>
+    <col min="4868" max="4898" width="4.7109375" style="3" customWidth="1"/>
+    <col min="4899" max="4904" width="5.7109375" style="3" customWidth="1"/>
+    <col min="4905" max="4905" width="5.140625" style="3" customWidth="1"/>
+    <col min="4906" max="4912" width="5.7109375" style="3" customWidth="1"/>
+    <col min="4913" max="4913" width="6.85546875" style="3" customWidth="1"/>
+    <col min="4914" max="4914" width="6.5703125" style="3" customWidth="1"/>
+    <col min="4915" max="4915" width="10" style="3" customWidth="1"/>
+    <col min="4916" max="4922" width="10.7109375" style="3" customWidth="1"/>
+    <col min="4923" max="5116" width="9.140625" style="3"/>
+    <col min="5117" max="5117" width="2.140625" style="3" customWidth="1"/>
+    <col min="5118" max="5118" width="2.42578125" style="3" customWidth="1"/>
+    <col min="5119" max="5119" width="9.5703125" style="3" customWidth="1"/>
+    <col min="5120" max="5120" width="14.85546875" style="3" customWidth="1"/>
+    <col min="5121" max="5121" width="8" style="3" customWidth="1"/>
+    <col min="5122" max="5122" width="6.5703125" style="3" customWidth="1"/>
+    <col min="5123" max="5123" width="7.42578125" style="3" customWidth="1"/>
+    <col min="5124" max="5154" width="4.7109375" style="3" customWidth="1"/>
+    <col min="5155" max="5160" width="5.7109375" style="3" customWidth="1"/>
+    <col min="5161" max="5161" width="5.140625" style="3" customWidth="1"/>
+    <col min="5162" max="5168" width="5.7109375" style="3" customWidth="1"/>
+    <col min="5169" max="5169" width="6.85546875" style="3" customWidth="1"/>
+    <col min="5170" max="5170" width="6.5703125" style="3" customWidth="1"/>
+    <col min="5171" max="5171" width="10" style="3" customWidth="1"/>
+    <col min="5172" max="5178" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5179" max="5372" width="9.140625" style="3"/>
+    <col min="5373" max="5373" width="2.140625" style="3" customWidth="1"/>
+    <col min="5374" max="5374" width="2.42578125" style="3" customWidth="1"/>
+    <col min="5375" max="5375" width="9.5703125" style="3" customWidth="1"/>
+    <col min="5376" max="5376" width="14.85546875" style="3" customWidth="1"/>
+    <col min="5377" max="5377" width="8" style="3" customWidth="1"/>
+    <col min="5378" max="5378" width="6.5703125" style="3" customWidth="1"/>
+    <col min="5379" max="5379" width="7.42578125" style="3" customWidth="1"/>
+    <col min="5380" max="5410" width="4.7109375" style="3" customWidth="1"/>
+    <col min="5411" max="5416" width="5.7109375" style="3" customWidth="1"/>
+    <col min="5417" max="5417" width="5.140625" style="3" customWidth="1"/>
+    <col min="5418" max="5424" width="5.7109375" style="3" customWidth="1"/>
+    <col min="5425" max="5425" width="6.85546875" style="3" customWidth="1"/>
+    <col min="5426" max="5426" width="6.5703125" style="3" customWidth="1"/>
+    <col min="5427" max="5427" width="10" style="3" customWidth="1"/>
+    <col min="5428" max="5434" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5435" max="5628" width="9.140625" style="3"/>
+    <col min="5629" max="5629" width="2.140625" style="3" customWidth="1"/>
+    <col min="5630" max="5630" width="2.42578125" style="3" customWidth="1"/>
+    <col min="5631" max="5631" width="9.5703125" style="3" customWidth="1"/>
+    <col min="5632" max="5632" width="14.85546875" style="3" customWidth="1"/>
+    <col min="5633" max="5633" width="8" style="3" customWidth="1"/>
+    <col min="5634" max="5634" width="6.5703125" style="3" customWidth="1"/>
+    <col min="5635" max="5635" width="7.42578125" style="3" customWidth="1"/>
+    <col min="5636" max="5666" width="4.7109375" style="3" customWidth="1"/>
+    <col min="5667" max="5672" width="5.7109375" style="3" customWidth="1"/>
+    <col min="5673" max="5673" width="5.140625" style="3" customWidth="1"/>
+    <col min="5674" max="5680" width="5.7109375" style="3" customWidth="1"/>
+    <col min="5681" max="5681" width="6.85546875" style="3" customWidth="1"/>
+    <col min="5682" max="5682" width="6.5703125" style="3" customWidth="1"/>
+    <col min="5683" max="5683" width="10" style="3" customWidth="1"/>
+    <col min="5684" max="5690" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5691" max="5884" width="9.140625" style="3"/>
+    <col min="5885" max="5885" width="2.140625" style="3" customWidth="1"/>
+    <col min="5886" max="5886" width="2.42578125" style="3" customWidth="1"/>
+    <col min="5887" max="5887" width="9.5703125" style="3" customWidth="1"/>
+    <col min="5888" max="5888" width="14.85546875" style="3" customWidth="1"/>
+    <col min="5889" max="5889" width="8" style="3" customWidth="1"/>
+    <col min="5890" max="5890" width="6.5703125" style="3" customWidth="1"/>
+    <col min="5891" max="5891" width="7.42578125" style="3" customWidth="1"/>
+    <col min="5892" max="5922" width="4.7109375" style="3" customWidth="1"/>
+    <col min="5923" max="5928" width="5.7109375" style="3" customWidth="1"/>
+    <col min="5929" max="5929" width="5.140625" style="3" customWidth="1"/>
+    <col min="5930" max="5936" width="5.7109375" style="3" customWidth="1"/>
+    <col min="5937" max="5937" width="6.85546875" style="3" customWidth="1"/>
+    <col min="5938" max="5938" width="6.5703125" style="3" customWidth="1"/>
+    <col min="5939" max="5939" width="10" style="3" customWidth="1"/>
+    <col min="5940" max="5946" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5947" max="6140" width="9.140625" style="3"/>
+    <col min="6141" max="6141" width="2.140625" style="3" customWidth="1"/>
+    <col min="6142" max="6142" width="2.42578125" style="3" customWidth="1"/>
+    <col min="6143" max="6143" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6144" max="6144" width="14.85546875" style="3" customWidth="1"/>
+    <col min="6145" max="6145" width="8" style="3" customWidth="1"/>
+    <col min="6146" max="6146" width="6.5703125" style="3" customWidth="1"/>
+    <col min="6147" max="6147" width="7.42578125" style="3" customWidth="1"/>
+    <col min="6148" max="6178" width="4.7109375" style="3" customWidth="1"/>
+    <col min="6179" max="6184" width="5.7109375" style="3" customWidth="1"/>
+    <col min="6185" max="6185" width="5.140625" style="3" customWidth="1"/>
+    <col min="6186" max="6192" width="5.7109375" style="3" customWidth="1"/>
+    <col min="6193" max="6193" width="6.85546875" style="3" customWidth="1"/>
+    <col min="6194" max="6194" width="6.5703125" style="3" customWidth="1"/>
+    <col min="6195" max="6195" width="10" style="3" customWidth="1"/>
+    <col min="6196" max="6202" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6203" max="6396" width="9.140625" style="3"/>
+    <col min="6397" max="6397" width="2.140625" style="3" customWidth="1"/>
+    <col min="6398" max="6398" width="2.42578125" style="3" customWidth="1"/>
+    <col min="6399" max="6399" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6400" max="6400" width="14.85546875" style="3" customWidth="1"/>
+    <col min="6401" max="6401" width="8" style="3" customWidth="1"/>
+    <col min="6402" max="6402" width="6.5703125" style="3" customWidth="1"/>
+    <col min="6403" max="6403" width="7.42578125" style="3" customWidth="1"/>
+    <col min="6404" max="6434" width="4.7109375" style="3" customWidth="1"/>
+    <col min="6435" max="6440" width="5.7109375" style="3" customWidth="1"/>
+    <col min="6441" max="6441" width="5.140625" style="3" customWidth="1"/>
+    <col min="6442" max="6448" width="5.7109375" style="3" customWidth="1"/>
+    <col min="6449" max="6449" width="6.85546875" style="3" customWidth="1"/>
+    <col min="6450" max="6450" width="6.5703125" style="3" customWidth="1"/>
+    <col min="6451" max="6451" width="10" style="3" customWidth="1"/>
+    <col min="6452" max="6458" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6459" max="6652" width="9.140625" style="3"/>
+    <col min="6653" max="6653" width="2.140625" style="3" customWidth="1"/>
+    <col min="6654" max="6654" width="2.42578125" style="3" customWidth="1"/>
+    <col min="6655" max="6655" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6656" max="6656" width="14.85546875" style="3" customWidth="1"/>
+    <col min="6657" max="6657" width="8" style="3" customWidth="1"/>
+    <col min="6658" max="6658" width="6.5703125" style="3" customWidth="1"/>
+    <col min="6659" max="6659" width="7.42578125" style="3" customWidth="1"/>
+    <col min="6660" max="6690" width="4.7109375" style="3" customWidth="1"/>
+    <col min="6691" max="6696" width="5.7109375" style="3" customWidth="1"/>
+    <col min="6697" max="6697" width="5.140625" style="3" customWidth="1"/>
+    <col min="6698" max="6704" width="5.7109375" style="3" customWidth="1"/>
+    <col min="6705" max="6705" width="6.85546875" style="3" customWidth="1"/>
+    <col min="6706" max="6706" width="6.5703125" style="3" customWidth="1"/>
+    <col min="6707" max="6707" width="10" style="3" customWidth="1"/>
+    <col min="6708" max="6714" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6715" max="6908" width="9.140625" style="3"/>
+    <col min="6909" max="6909" width="2.140625" style="3" customWidth="1"/>
+    <col min="6910" max="6910" width="2.42578125" style="3" customWidth="1"/>
+    <col min="6911" max="6911" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6912" max="6912" width="14.85546875" style="3" customWidth="1"/>
+    <col min="6913" max="6913" width="8" style="3" customWidth="1"/>
+    <col min="6914" max="6914" width="6.5703125" style="3" customWidth="1"/>
+    <col min="6915" max="6915" width="7.42578125" style="3" customWidth="1"/>
+    <col min="6916" max="6946" width="4.7109375" style="3" customWidth="1"/>
+    <col min="6947" max="6952" width="5.7109375" style="3" customWidth="1"/>
+    <col min="6953" max="6953" width="5.140625" style="3" customWidth="1"/>
+    <col min="6954" max="6960" width="5.7109375" style="3" customWidth="1"/>
+    <col min="6961" max="6961" width="6.85546875" style="3" customWidth="1"/>
+    <col min="6962" max="6962" width="6.5703125" style="3" customWidth="1"/>
+    <col min="6963" max="6963" width="10" style="3" customWidth="1"/>
+    <col min="6964" max="6970" width="10.7109375" style="3" customWidth="1"/>
+    <col min="6971" max="7164" width="9.140625" style="3"/>
+    <col min="7165" max="7165" width="2.140625" style="3" customWidth="1"/>
+    <col min="7166" max="7166" width="2.42578125" style="3" customWidth="1"/>
+    <col min="7167" max="7167" width="9.5703125" style="3" customWidth="1"/>
+    <col min="7168" max="7168" width="14.85546875" style="3" customWidth="1"/>
+    <col min="7169" max="7169" width="8" style="3" customWidth="1"/>
+    <col min="7170" max="7170" width="6.5703125" style="3" customWidth="1"/>
+    <col min="7171" max="7171" width="7.42578125" style="3" customWidth="1"/>
+    <col min="7172" max="7202" width="4.7109375" style="3" customWidth="1"/>
+    <col min="7203" max="7208" width="5.7109375" style="3" customWidth="1"/>
+    <col min="7209" max="7209" width="5.140625" style="3" customWidth="1"/>
+    <col min="7210" max="7216" width="5.7109375" style="3" customWidth="1"/>
+    <col min="7217" max="7217" width="6.85546875" style="3" customWidth="1"/>
+    <col min="7218" max="7218" width="6.5703125" style="3" customWidth="1"/>
+    <col min="7219" max="7219" width="10" style="3" customWidth="1"/>
+    <col min="7220" max="7226" width="10.7109375" style="3" customWidth="1"/>
+    <col min="7227" max="7420" width="9.140625" style="3"/>
+    <col min="7421" max="7421" width="2.140625" style="3" customWidth="1"/>
+    <col min="7422" max="7422" width="2.42578125" style="3" customWidth="1"/>
+    <col min="7423" max="7423" width="9.5703125" style="3" customWidth="1"/>
+    <col min="7424" max="7424" width="14.85546875" style="3" customWidth="1"/>
+    <col min="7425" max="7425" width="8" style="3" customWidth="1"/>
+    <col min="7426" max="7426" width="6.5703125" style="3" customWidth="1"/>
+    <col min="7427" max="7427" width="7.42578125" style="3" customWidth="1"/>
+    <col min="7428" max="7458" width="4.7109375" style="3" customWidth="1"/>
+    <col min="7459" max="7464" width="5.7109375" style="3" customWidth="1"/>
+    <col min="7465" max="7465" width="5.140625" style="3" customWidth="1"/>
+    <col min="7466" max="7472" width="5.7109375" style="3" customWidth="1"/>
+    <col min="7473" max="7473" width="6.85546875" style="3" customWidth="1"/>
+    <col min="7474" max="7474" width="6.5703125" style="3" customWidth="1"/>
+    <col min="7475" max="7475" width="10" style="3" customWidth="1"/>
+    <col min="7476" max="7482" width="10.7109375" style="3" customWidth="1"/>
+    <col min="7483" max="7676" width="9.140625" style="3"/>
+    <col min="7677" max="7677" width="2.140625" style="3" customWidth="1"/>
+    <col min="7678" max="7678" width="2.42578125" style="3" customWidth="1"/>
+    <col min="7679" max="7679" width="9.5703125" style="3" customWidth="1"/>
+    <col min="7680" max="7680" width="14.85546875" style="3" customWidth="1"/>
+    <col min="7681" max="7681" width="8" style="3" customWidth="1"/>
+    <col min="7682" max="7682" width="6.5703125" style="3" customWidth="1"/>
+    <col min="7683" max="7683" width="7.42578125" style="3" customWidth="1"/>
+    <col min="7684" max="7714" width="4.7109375" style="3" customWidth="1"/>
+    <col min="7715" max="7720" width="5.7109375" style="3" customWidth="1"/>
+    <col min="7721" max="7721" width="5.140625" style="3" customWidth="1"/>
+    <col min="7722" max="7728" width="5.7109375" style="3" customWidth="1"/>
+    <col min="7729" max="7729" width="6.85546875" style="3" customWidth="1"/>
+    <col min="7730" max="7730" width="6.5703125" style="3" customWidth="1"/>
+    <col min="7731" max="7731" width="10" style="3" customWidth="1"/>
+    <col min="7732" max="7738" width="10.7109375" style="3" customWidth="1"/>
+    <col min="7739" max="7932" width="9.140625" style="3"/>
+    <col min="7933" max="7933" width="2.140625" style="3" customWidth="1"/>
+    <col min="7934" max="7934" width="2.42578125" style="3" customWidth="1"/>
+    <col min="7935" max="7935" width="9.5703125" style="3" customWidth="1"/>
+    <col min="7936" max="7936" width="14.85546875" style="3" customWidth="1"/>
+    <col min="7937" max="7937" width="8" style="3" customWidth="1"/>
+    <col min="7938" max="7938" width="6.5703125" style="3" customWidth="1"/>
+    <col min="7939" max="7939" width="7.42578125" style="3" customWidth="1"/>
+    <col min="7940" max="7970" width="4.7109375" style="3" customWidth="1"/>
+    <col min="7971" max="7976" width="5.7109375" style="3" customWidth="1"/>
+    <col min="7977" max="7977" width="5.140625" style="3" customWidth="1"/>
+    <col min="7978" max="7984" width="5.7109375" style="3" customWidth="1"/>
+    <col min="7985" max="7985" width="6.85546875" style="3" customWidth="1"/>
+    <col min="7986" max="7986" width="6.5703125" style="3" customWidth="1"/>
+    <col min="7987" max="7987" width="10" style="3" customWidth="1"/>
+    <col min="7988" max="7994" width="10.7109375" style="3" customWidth="1"/>
+    <col min="7995" max="8188" width="9.140625" style="3"/>
+    <col min="8189" max="8189" width="2.140625" style="3" customWidth="1"/>
+    <col min="8190" max="8190" width="2.42578125" style="3" customWidth="1"/>
+    <col min="8191" max="8191" width="9.5703125" style="3" customWidth="1"/>
+    <col min="8192" max="8192" width="14.85546875" style="3" customWidth="1"/>
+    <col min="8193" max="8193" width="8" style="3" customWidth="1"/>
+    <col min="8194" max="8194" width="6.5703125" style="3" customWidth="1"/>
+    <col min="8195" max="8195" width="7.42578125" style="3" customWidth="1"/>
+    <col min="8196" max="8226" width="4.7109375" style="3" customWidth="1"/>
+    <col min="8227" max="8232" width="5.7109375" style="3" customWidth="1"/>
+    <col min="8233" max="8233" width="5.140625" style="3" customWidth="1"/>
+    <col min="8234" max="8240" width="5.7109375" style="3" customWidth="1"/>
+    <col min="8241" max="8241" width="6.85546875" style="3" customWidth="1"/>
+    <col min="8242" max="8242" width="6.5703125" style="3" customWidth="1"/>
+    <col min="8243" max="8243" width="10" style="3" customWidth="1"/>
+    <col min="8244" max="8250" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8251" max="8444" width="9.140625" style="3"/>
+    <col min="8445" max="8445" width="2.140625" style="3" customWidth="1"/>
+    <col min="8446" max="8446" width="2.42578125" style="3" customWidth="1"/>
+    <col min="8447" max="8447" width="9.5703125" style="3" customWidth="1"/>
+    <col min="8448" max="8448" width="14.85546875" style="3" customWidth="1"/>
+    <col min="8449" max="8449" width="8" style="3" customWidth="1"/>
+    <col min="8450" max="8450" width="6.5703125" style="3" customWidth="1"/>
+    <col min="8451" max="8451" width="7.42578125" style="3" customWidth="1"/>
+    <col min="8452" max="8482" width="4.7109375" style="3" customWidth="1"/>
+    <col min="8483" max="8488" width="5.7109375" style="3" customWidth="1"/>
+    <col min="8489" max="8489" width="5.140625" style="3" customWidth="1"/>
+    <col min="8490" max="8496" width="5.7109375" style="3" customWidth="1"/>
+    <col min="8497" max="8497" width="6.85546875" style="3" customWidth="1"/>
+    <col min="8498" max="8498" width="6.5703125" style="3" customWidth="1"/>
+    <col min="8499" max="8499" width="10" style="3" customWidth="1"/>
+    <col min="8500" max="8506" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8507" max="8700" width="9.140625" style="3"/>
+    <col min="8701" max="8701" width="2.140625" style="3" customWidth="1"/>
+    <col min="8702" max="8702" width="2.42578125" style="3" customWidth="1"/>
+    <col min="8703" max="8703" width="9.5703125" style="3" customWidth="1"/>
+    <col min="8704" max="8704" width="14.85546875" style="3" customWidth="1"/>
+    <col min="8705" max="8705" width="8" style="3" customWidth="1"/>
+    <col min="8706" max="8706" width="6.5703125" style="3" customWidth="1"/>
+    <col min="8707" max="8707" width="7.42578125" style="3" customWidth="1"/>
+    <col min="8708" max="8738" width="4.7109375" style="3" customWidth="1"/>
+    <col min="8739" max="8744" width="5.7109375" style="3" customWidth="1"/>
+    <col min="8745" max="8745" width="5.140625" style="3" customWidth="1"/>
+    <col min="8746" max="8752" width="5.7109375" style="3" customWidth="1"/>
+    <col min="8753" max="8753" width="6.85546875" style="3" customWidth="1"/>
+    <col min="8754" max="8754" width="6.5703125" style="3" customWidth="1"/>
+    <col min="8755" max="8755" width="10" style="3" customWidth="1"/>
+    <col min="8756" max="8762" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8763" max="8956" width="9.140625" style="3"/>
+    <col min="8957" max="8957" width="2.140625" style="3" customWidth="1"/>
+    <col min="8958" max="8958" width="2.42578125" style="3" customWidth="1"/>
+    <col min="8959" max="8959" width="9.5703125" style="3" customWidth="1"/>
+    <col min="8960" max="8960" width="14.85546875" style="3" customWidth="1"/>
+    <col min="8961" max="8961" width="8" style="3" customWidth="1"/>
+    <col min="8962" max="8962" width="6.5703125" style="3" customWidth="1"/>
+    <col min="8963" max="8963" width="7.42578125" style="3" customWidth="1"/>
+    <col min="8964" max="8994" width="4.7109375" style="3" customWidth="1"/>
+    <col min="8995" max="9000" width="5.7109375" style="3" customWidth="1"/>
+    <col min="9001" max="9001" width="5.140625" style="3" customWidth="1"/>
+    <col min="9002" max="9008" width="5.7109375" style="3" customWidth="1"/>
+    <col min="9009" max="9009" width="6.85546875" style="3" customWidth="1"/>
+    <col min="9010" max="9010" width="6.5703125" style="3" customWidth="1"/>
+    <col min="9011" max="9011" width="10" style="3" customWidth="1"/>
+    <col min="9012" max="9018" width="10.7109375" style="3" customWidth="1"/>
+    <col min="9019" max="9212" width="9.140625" style="3"/>
+    <col min="9213" max="9213" width="2.140625" style="3" customWidth="1"/>
+    <col min="9214" max="9214" width="2.42578125" style="3" customWidth="1"/>
+    <col min="9215" max="9215" width="9.5703125" style="3" customWidth="1"/>
+    <col min="9216" max="9216" width="14.85546875" style="3" customWidth="1"/>
+    <col min="9217" max="9217" width="8" style="3" customWidth="1"/>
+    <col min="9218" max="9218" width="6.5703125" style="3" customWidth="1"/>
+    <col min="9219" max="9219" width="7.42578125" style="3" customWidth="1"/>
+    <col min="9220" max="9250" width="4.7109375" style="3" customWidth="1"/>
+    <col min="9251" max="9256" width="5.7109375" style="3" customWidth="1"/>
+    <col min="9257" max="9257" width="5.140625" style="3" customWidth="1"/>
+    <col min="9258" max="9264" width="5.7109375" style="3" customWidth="1"/>
+    <col min="9265" max="9265" width="6.85546875" style="3" customWidth="1"/>
+    <col min="9266" max="9266" width="6.5703125" style="3" customWidth="1"/>
+    <col min="9267" max="9267" width="10" style="3" customWidth="1"/>
+    <col min="9268" max="9274" width="10.7109375" style="3" customWidth="1"/>
+    <col min="9275" max="9468" width="9.140625" style="3"/>
+    <col min="9469" max="9469" width="2.140625" style="3" customWidth="1"/>
+    <col min="9470" max="9470" width="2.42578125" style="3" customWidth="1"/>
+    <col min="9471" max="9471" width="9.5703125" style="3" customWidth="1"/>
+    <col min="9472" max="9472" width="14.85546875" style="3" customWidth="1"/>
+    <col min="9473" max="9473" width="8" style="3" customWidth="1"/>
+    <col min="9474" max="9474" width="6.5703125" style="3" customWidth="1"/>
+    <col min="9475" max="9475" width="7.42578125" style="3" customWidth="1"/>
+    <col min="9476" max="9506" width="4.7109375" style="3" customWidth="1"/>
+    <col min="9507" max="9512" width="5.7109375" style="3" customWidth="1"/>
+    <col min="9513" max="9513" width="5.140625" style="3" customWidth="1"/>
+    <col min="9514" max="9520" width="5.7109375" style="3" customWidth="1"/>
+    <col min="9521" max="9521" width="6.85546875" style="3" customWidth="1"/>
+    <col min="9522" max="9522" width="6.5703125" style="3" customWidth="1"/>
+    <col min="9523" max="9523" width="10" style="3" customWidth="1"/>
+    <col min="9524" max="9530" width="10.7109375" style="3" customWidth="1"/>
+    <col min="9531" max="9724" width="9.140625" style="3"/>
+    <col min="9725" max="9725" width="2.140625" style="3" customWidth="1"/>
+    <col min="9726" max="9726" width="2.42578125" style="3" customWidth="1"/>
+    <col min="9727" max="9727" width="9.5703125" style="3" customWidth="1"/>
+    <col min="9728" max="9728" width="14.85546875" style="3" customWidth="1"/>
+    <col min="9729" max="9729" width="8" style="3" customWidth="1"/>
+    <col min="9730" max="9730" width="6.5703125" style="3" customWidth="1"/>
+    <col min="9731" max="9731" width="7.42578125" style="3" customWidth="1"/>
+    <col min="9732" max="9762" width="4.7109375" style="3" customWidth="1"/>
+    <col min="9763" max="9768" width="5.7109375" style="3" customWidth="1"/>
+    <col min="9769" max="9769" width="5.140625" style="3" customWidth="1"/>
+    <col min="9770" max="9776" width="5.7109375" style="3" customWidth="1"/>
+    <col min="9777" max="9777" width="6.85546875" style="3" customWidth="1"/>
+    <col min="9778" max="9778" width="6.5703125" style="3" customWidth="1"/>
+    <col min="9779" max="9779" width="10" style="3" customWidth="1"/>
+    <col min="9780" max="9786" width="10.7109375" style="3" customWidth="1"/>
+    <col min="9787" max="9980" width="9.140625" style="3"/>
+    <col min="9981" max="9981" width="2.140625" style="3" customWidth="1"/>
+    <col min="9982" max="9982" width="2.42578125" style="3" customWidth="1"/>
+    <col min="9983" max="9983" width="9.5703125" style="3" customWidth="1"/>
+    <col min="9984" max="9984" width="14.85546875" style="3" customWidth="1"/>
+    <col min="9985" max="9985" width="8" style="3" customWidth="1"/>
+    <col min="9986" max="9986" width="6.5703125" style="3" customWidth="1"/>
+    <col min="9987" max="9987" width="7.42578125" style="3" customWidth="1"/>
+    <col min="9988" max="10018" width="4.7109375" style="3" customWidth="1"/>
+    <col min="10019" max="10024" width="5.7109375" style="3" customWidth="1"/>
+    <col min="10025" max="10025" width="5.140625" style="3" customWidth="1"/>
+    <col min="10026" max="10032" width="5.7109375" style="3" customWidth="1"/>
+    <col min="10033" max="10033" width="6.85546875" style="3" customWidth="1"/>
+    <col min="10034" max="10034" width="6.5703125" style="3" customWidth="1"/>
+    <col min="10035" max="10035" width="10" style="3" customWidth="1"/>
+    <col min="10036" max="10042" width="10.7109375" style="3" customWidth="1"/>
+    <col min="10043" max="10236" width="9.140625" style="3"/>
+    <col min="10237" max="10237" width="2.140625" style="3" customWidth="1"/>
+    <col min="10238" max="10238" width="2.42578125" style="3" customWidth="1"/>
+    <col min="10239" max="10239" width="9.5703125" style="3" customWidth="1"/>
+    <col min="10240" max="10240" width="14.85546875" style="3" customWidth="1"/>
+    <col min="10241" max="10241" width="8" style="3" customWidth="1"/>
+    <col min="10242" max="10242" width="6.5703125" style="3" customWidth="1"/>
+    <col min="10243" max="10243" width="7.42578125" style="3" customWidth="1"/>
+    <col min="10244" max="10274" width="4.7109375" style="3" customWidth="1"/>
+    <col min="10275" max="10280" width="5.7109375" style="3" customWidth="1"/>
+    <col min="10281" max="10281" width="5.140625" style="3" customWidth="1"/>
+    <col min="10282" max="10288" width="5.7109375" style="3" customWidth="1"/>
+    <col min="10289" max="10289" width="6.85546875" style="3" customWidth="1"/>
+    <col min="10290" max="10290" width="6.5703125" style="3" customWidth="1"/>
+    <col min="10291" max="10291" width="10" style="3" customWidth="1"/>
+    <col min="10292" max="10298" width="10.7109375" style="3" customWidth="1"/>
+    <col min="10299" max="10492" width="9.140625" style="3"/>
+    <col min="10493" max="10493" width="2.140625" style="3" customWidth="1"/>
+    <col min="10494" max="10494" width="2.42578125" style="3" customWidth="1"/>
+    <col min="10495" max="10495" width="9.5703125" style="3" customWidth="1"/>
+    <col min="10496" max="10496" width="14.85546875" style="3" customWidth="1"/>
+    <col min="10497" max="10497" width="8" style="3" customWidth="1"/>
+    <col min="10498" max="10498" width="6.5703125" style="3" customWidth="1"/>
+    <col min="10499" max="10499" width="7.42578125" style="3" customWidth="1"/>
+    <col min="10500" max="10530" width="4.7109375" style="3" customWidth="1"/>
+    <col min="10531" max="10536" width="5.7109375" style="3" customWidth="1"/>
+    <col min="10537" max="10537" width="5.140625" style="3" customWidth="1"/>
+    <col min="10538" max="10544" width="5.7109375" style="3" customWidth="1"/>
+    <col min="10545" max="10545" width="6.85546875" style="3" customWidth="1"/>
+    <col min="10546" max="10546" width="6.5703125" style="3" customWidth="1"/>
+    <col min="10547" max="10547" width="10" style="3" customWidth="1"/>
+    <col min="10548" max="10554" width="10.7109375" style="3" customWidth="1"/>
+    <col min="10555" max="10748" width="9.140625" style="3"/>
+    <col min="10749" max="10749" width="2.140625" style="3" customWidth="1"/>
+    <col min="10750" max="10750" width="2.42578125" style="3" customWidth="1"/>
+    <col min="10751" max="10751" width="9.5703125" style="3" customWidth="1"/>
+    <col min="10752" max="10752" width="14.85546875" style="3" customWidth="1"/>
+    <col min="10753" max="10753" width="8" style="3" customWidth="1"/>
+    <col min="10754" max="10754" width="6.5703125" style="3" customWidth="1"/>
+    <col min="10755" max="10755" width="7.42578125" style="3" customWidth="1"/>
+    <col min="10756" max="10786" width="4.7109375" style="3" customWidth="1"/>
+    <col min="10787" max="10792" width="5.7109375" style="3" customWidth="1"/>
+    <col min="10793" max="10793" width="5.140625" style="3" customWidth="1"/>
+    <col min="10794" max="10800" width="5.7109375" style="3" customWidth="1"/>
+    <col min="10801" max="10801" width="6.85546875" style="3" customWidth="1"/>
+    <col min="10802" max="10802" width="6.5703125" style="3" customWidth="1"/>
+    <col min="10803" max="10803" width="10" style="3" customWidth="1"/>
+    <col min="10804" max="10810" width="10.7109375" style="3" customWidth="1"/>
+    <col min="10811" max="11004" width="9.140625" style="3"/>
+    <col min="11005" max="11005" width="2.140625" style="3" customWidth="1"/>
+    <col min="11006" max="11006" width="2.42578125" style="3" customWidth="1"/>
+    <col min="11007" max="11007" width="9.5703125" style="3" customWidth="1"/>
+    <col min="11008" max="11008" width="14.85546875" style="3" customWidth="1"/>
+    <col min="11009" max="11009" width="8" style="3" customWidth="1"/>
+    <col min="11010" max="11010" width="6.5703125" style="3" customWidth="1"/>
+    <col min="11011" max="11011" width="7.42578125" style="3" customWidth="1"/>
+    <col min="11012" max="11042" width="4.7109375" style="3" customWidth="1"/>
+    <col min="11043" max="11048" width="5.7109375" style="3" customWidth="1"/>
+    <col min="11049" max="11049" width="5.140625" style="3" customWidth="1"/>
+    <col min="11050" max="11056" width="5.7109375" style="3" customWidth="1"/>
+    <col min="11057" max="11057" width="6.85546875" style="3" customWidth="1"/>
+    <col min="11058" max="11058" width="6.5703125" style="3" customWidth="1"/>
+    <col min="11059" max="11059" width="10" style="3" customWidth="1"/>
+    <col min="11060" max="11066" width="10.7109375" style="3" customWidth="1"/>
+    <col min="11067" max="11260" width="9.140625" style="3"/>
+    <col min="11261" max="11261" width="2.140625" style="3" customWidth="1"/>
+    <col min="11262" max="11262" width="2.42578125" style="3" customWidth="1"/>
+    <col min="11263" max="11263" width="9.5703125" style="3" customWidth="1"/>
+    <col min="11264" max="11264" width="14.85546875" style="3" customWidth="1"/>
+    <col min="11265" max="11265" width="8" style="3" customWidth="1"/>
+    <col min="11266" max="11266" width="6.5703125" style="3" customWidth="1"/>
+    <col min="11267" max="11267" width="7.42578125" style="3" customWidth="1"/>
+    <col min="11268" max="11298" width="4.7109375" style="3" customWidth="1"/>
+    <col min="11299" max="11304" width="5.7109375" style="3" customWidth="1"/>
+    <col min="11305" max="11305" width="5.140625" style="3" customWidth="1"/>
+    <col min="11306" max="11312" width="5.7109375" style="3" customWidth="1"/>
+    <col min="11313" max="11313" width="6.85546875" style="3" customWidth="1"/>
+    <col min="11314" max="11314" width="6.5703125" style="3" customWidth="1"/>
+    <col min="11315" max="11315" width="10" style="3" customWidth="1"/>
+    <col min="11316" max="11322" width="10.7109375" style="3" customWidth="1"/>
+    <col min="11323" max="11516" width="9.140625" style="3"/>
+    <col min="11517" max="11517" width="2.140625" style="3" customWidth="1"/>
+    <col min="11518" max="11518" width="2.42578125" style="3" customWidth="1"/>
+    <col min="11519" max="11519" width="9.5703125" style="3" customWidth="1"/>
+    <col min="11520" max="11520" width="14.85546875" style="3" customWidth="1"/>
+    <col min="11521" max="11521" width="8" style="3" customWidth="1"/>
+    <col min="11522" max="11522" width="6.5703125" style="3" customWidth="1"/>
+    <col min="11523" max="11523" width="7.42578125" style="3" customWidth="1"/>
+    <col min="11524" max="11554" width="4.7109375" style="3" customWidth="1"/>
+    <col min="11555" max="11560" width="5.7109375" style="3" customWidth="1"/>
+    <col min="11561" max="11561" width="5.140625" style="3" customWidth="1"/>
+    <col min="11562" max="11568" width="5.7109375" style="3" customWidth="1"/>
+    <col min="11569" max="11569" width="6.85546875" style="3" customWidth="1"/>
+    <col min="11570" max="11570" width="6.5703125" style="3" customWidth="1"/>
+    <col min="11571" max="11571" width="10" style="3" customWidth="1"/>
+    <col min="11572" max="11578" width="10.7109375" style="3" customWidth="1"/>
+    <col min="11579" max="11772" width="9.140625" style="3"/>
+    <col min="11773" max="11773" width="2.140625" style="3" customWidth="1"/>
+    <col min="11774" max="11774" width="2.42578125" style="3" customWidth="1"/>
+    <col min="11775" max="11775" width="9.5703125" style="3" customWidth="1"/>
+    <col min="11776" max="11776" width="14.85546875" style="3" customWidth="1"/>
+    <col min="11777" max="11777" width="8" style="3" customWidth="1"/>
+    <col min="11778" max="11778" width="6.5703125" style="3" customWidth="1"/>
+    <col min="11779" max="11779" width="7.42578125" style="3" customWidth="1"/>
+    <col min="11780" max="11810" width="4.7109375" style="3" customWidth="1"/>
+    <col min="11811" max="11816" width="5.7109375" style="3" customWidth="1"/>
+    <col min="11817" max="11817" width="5.140625" style="3" customWidth="1"/>
+    <col min="11818" max="11824" width="5.7109375" style="3" customWidth="1"/>
+    <col min="11825" max="11825" width="6.85546875" style="3" customWidth="1"/>
+    <col min="11826" max="11826" width="6.5703125" style="3" customWidth="1"/>
+    <col min="11827" max="11827" width="10" style="3" customWidth="1"/>
+    <col min="11828" max="11834" width="10.7109375" style="3" customWidth="1"/>
+    <col min="11835" max="12028" width="9.140625" style="3"/>
+    <col min="12029" max="12029" width="2.140625" style="3" customWidth="1"/>
+    <col min="12030" max="12030" width="2.42578125" style="3" customWidth="1"/>
+    <col min="12031" max="12031" width="9.5703125" style="3" customWidth="1"/>
+    <col min="12032" max="12032" width="14.85546875" style="3" customWidth="1"/>
+    <col min="12033" max="12033" width="8" style="3" customWidth="1"/>
+    <col min="12034" max="12034" width="6.5703125" style="3" customWidth="1"/>
+    <col min="12035" max="12035" width="7.42578125" style="3" customWidth="1"/>
+    <col min="12036" max="12066" width="4.7109375" style="3" customWidth="1"/>
+    <col min="12067" max="12072" width="5.7109375" style="3" customWidth="1"/>
+    <col min="12073" max="12073" width="5.140625" style="3" customWidth="1"/>
+    <col min="12074" max="12080" width="5.7109375" style="3" customWidth="1"/>
+    <col min="12081" max="12081" width="6.85546875" style="3" customWidth="1"/>
+    <col min="12082" max="12082" width="6.5703125" style="3" customWidth="1"/>
+    <col min="12083" max="12083" width="10" style="3" customWidth="1"/>
+    <col min="12084" max="12090" width="10.7109375" style="3" customWidth="1"/>
+    <col min="12091" max="12284" width="9.140625" style="3"/>
+    <col min="12285" max="12285" width="2.140625" style="3" customWidth="1"/>
+    <col min="12286" max="12286" width="2.42578125" style="3" customWidth="1"/>
+    <col min="12287" max="12287" width="9.5703125" style="3" customWidth="1"/>
+    <col min="12288" max="12288" width="14.85546875" style="3" customWidth="1"/>
+    <col min="12289" max="12289" width="8" style="3" customWidth="1"/>
+    <col min="12290" max="12290" width="6.5703125" style="3" customWidth="1"/>
+    <col min="12291" max="12291" width="7.42578125" style="3" customWidth="1"/>
+    <col min="12292" max="12322" width="4.7109375" style="3" customWidth="1"/>
+    <col min="12323" max="12328" width="5.7109375" style="3" customWidth="1"/>
+    <col min="12329" max="12329" width="5.140625" style="3" customWidth="1"/>
+    <col min="12330" max="12336" width="5.7109375" style="3" customWidth="1"/>
+    <col min="12337" max="12337" width="6.85546875" style="3" customWidth="1"/>
+    <col min="12338" max="12338" width="6.5703125" style="3" customWidth="1"/>
+    <col min="12339" max="12339" width="10" style="3" customWidth="1"/>
+    <col min="12340" max="12346" width="10.7109375" style="3" customWidth="1"/>
+    <col min="12347" max="12540" width="9.140625" style="3"/>
+    <col min="12541" max="12541" width="2.140625" style="3" customWidth="1"/>
+    <col min="12542" max="12542" width="2.42578125" style="3" customWidth="1"/>
+    <col min="12543" max="12543" width="9.5703125" style="3" customWidth="1"/>
+    <col min="12544" max="12544" width="14.85546875" style="3" customWidth="1"/>
+    <col min="12545" max="12545" width="8" style="3" customWidth="1"/>
+    <col min="12546" max="12546" width="6.5703125" style="3" customWidth="1"/>
+    <col min="12547" max="12547" width="7.42578125" style="3" customWidth="1"/>
+    <col min="12548" max="12578" width="4.7109375" style="3" customWidth="1"/>
+    <col min="12579" max="12584" width="5.7109375" style="3" customWidth="1"/>
+    <col min="12585" max="12585" width="5.140625" style="3" customWidth="1"/>
+    <col min="12586" max="12592" width="5.7109375" style="3" customWidth="1"/>
+    <col min="12593" max="12593" width="6.85546875" style="3" customWidth="1"/>
+    <col min="12594" max="12594" width="6.5703125" style="3" customWidth="1"/>
+    <col min="12595" max="12595" width="10" style="3" customWidth="1"/>
+    <col min="12596" max="12602" width="10.7109375" style="3" customWidth="1"/>
+    <col min="12603" max="12796" width="9.140625" style="3"/>
+    <col min="12797" max="12797" width="2.140625" style="3" customWidth="1"/>
+    <col min="12798" max="12798" width="2.42578125" style="3" customWidth="1"/>
+    <col min="12799" max="12799" width="9.5703125" style="3" customWidth="1"/>
+    <col min="12800" max="12800" width="14.85546875" style="3" customWidth="1"/>
+    <col min="12801" max="12801" width="8" style="3" customWidth="1"/>
+    <col min="12802" max="12802" width="6.5703125" style="3" customWidth="1"/>
+    <col min="12803" max="12803" width="7.42578125" style="3" customWidth="1"/>
+    <col min="12804" max="12834" width="4.7109375" style="3" customWidth="1"/>
+    <col min="12835" max="12840" width="5.7109375" style="3" customWidth="1"/>
+    <col min="12841" max="12841" width="5.140625" style="3" customWidth="1"/>
+    <col min="12842" max="12848" width="5.7109375" style="3" customWidth="1"/>
+    <col min="12849" max="12849" width="6.85546875" style="3" customWidth="1"/>
+    <col min="12850" max="12850" width="6.5703125" style="3" customWidth="1"/>
+    <col min="12851" max="12851" width="10" style="3" customWidth="1"/>
+    <col min="12852" max="12858" width="10.7109375" style="3" customWidth="1"/>
+    <col min="12859" max="13052" width="9.140625" style="3"/>
+    <col min="13053" max="13053" width="2.140625" style="3" customWidth="1"/>
+    <col min="13054" max="13054" width="2.42578125" style="3" customWidth="1"/>
+    <col min="13055" max="13055" width="9.5703125" style="3" customWidth="1"/>
+    <col min="13056" max="13056" width="14.85546875" style="3" customWidth="1"/>
+    <col min="13057" max="13057" width="8" style="3" customWidth="1"/>
+    <col min="13058" max="13058" width="6.5703125" style="3" customWidth="1"/>
+    <col min="13059" max="13059" width="7.42578125" style="3" customWidth="1"/>
+    <col min="13060" max="13090" width="4.7109375" style="3" customWidth="1"/>
+    <col min="13091" max="13096" width="5.7109375" style="3" customWidth="1"/>
+    <col min="13097" max="13097" width="5.140625" style="3" customWidth="1"/>
+    <col min="13098" max="13104" width="5.7109375" style="3" customWidth="1"/>
+    <col min="13105" max="13105" width="6.85546875" style="3" customWidth="1"/>
+    <col min="13106" max="13106" width="6.5703125" style="3" customWidth="1"/>
+    <col min="13107" max="13107" width="10" style="3" customWidth="1"/>
+    <col min="13108" max="13114" width="10.7109375" style="3" customWidth="1"/>
+    <col min="13115" max="13308" width="9.140625" style="3"/>
+    <col min="13309" max="13309" width="2.140625" style="3" customWidth="1"/>
+    <col min="13310" max="13310" width="2.42578125" style="3" customWidth="1"/>
+    <col min="13311" max="13311" width="9.5703125" style="3" customWidth="1"/>
+    <col min="13312" max="13312" width="14.85546875" style="3" customWidth="1"/>
+    <col min="13313" max="13313" width="8" style="3" customWidth="1"/>
+    <col min="13314" max="13314" width="6.5703125" style="3" customWidth="1"/>
+    <col min="13315" max="13315" width="7.42578125" style="3" customWidth="1"/>
+    <col min="13316" max="13346" width="4.7109375" style="3" customWidth="1"/>
+    <col min="13347" max="13352" width="5.7109375" style="3" customWidth="1"/>
+    <col min="13353" max="13353" width="5.140625" style="3" customWidth="1"/>
+    <col min="13354" max="13360" width="5.7109375" style="3" customWidth="1"/>
+    <col min="13361" max="13361" width="6.85546875" style="3" customWidth="1"/>
+    <col min="13362" max="13362" width="6.5703125" style="3" customWidth="1"/>
+    <col min="13363" max="13363" width="10" style="3" customWidth="1"/>
+    <col min="13364" max="13370" width="10.7109375" style="3" customWidth="1"/>
+    <col min="13371" max="13564" width="9.140625" style="3"/>
+    <col min="13565" max="13565" width="2.140625" style="3" customWidth="1"/>
+    <col min="13566" max="13566" width="2.42578125" style="3" customWidth="1"/>
+    <col min="13567" max="13567" width="9.5703125" style="3" customWidth="1"/>
+    <col min="13568" max="13568" width="14.85546875" style="3" customWidth="1"/>
+    <col min="13569" max="13569" width="8" style="3" customWidth="1"/>
+    <col min="13570" max="13570" width="6.5703125" style="3" customWidth="1"/>
+    <col min="13571" max="13571" width="7.42578125" style="3" customWidth="1"/>
+    <col min="13572" max="13602" width="4.7109375" style="3" customWidth="1"/>
+    <col min="13603" max="13608" width="5.7109375" style="3" customWidth="1"/>
+    <col min="13609" max="13609" width="5.140625" style="3" customWidth="1"/>
+    <col min="13610" max="13616" width="5.7109375" style="3" customWidth="1"/>
+    <col min="13617" max="13617" width="6.85546875" style="3" customWidth="1"/>
+    <col min="13618" max="13618" width="6.5703125" style="3" customWidth="1"/>
+    <col min="13619" max="13619" width="10" style="3" customWidth="1"/>
+    <col min="13620" max="13626" width="10.7109375" style="3" customWidth="1"/>
+    <col min="13627" max="13820" width="9.140625" style="3"/>
+    <col min="13821" max="13821" width="2.140625" style="3" customWidth="1"/>
+    <col min="13822" max="13822" width="2.42578125" style="3" customWidth="1"/>
+    <col min="13823" max="13823" width="9.5703125" style="3" customWidth="1"/>
+    <col min="13824" max="13824" width="14.85546875" style="3" customWidth="1"/>
+    <col min="13825" max="13825" width="8" style="3" customWidth="1"/>
+    <col min="13826" max="13826" width="6.5703125" style="3" customWidth="1"/>
+    <col min="13827" max="13827" width="7.42578125" style="3" customWidth="1"/>
+    <col min="13828" max="13858" width="4.7109375" style="3" customWidth="1"/>
+    <col min="13859" max="13864" width="5.7109375" style="3" customWidth="1"/>
+    <col min="13865" max="13865" width="5.140625" style="3" customWidth="1"/>
+    <col min="13866" max="13872" width="5.7109375" style="3" customWidth="1"/>
+    <col min="13873" max="13873" width="6.85546875" style="3" customWidth="1"/>
+    <col min="13874" max="13874" width="6.5703125" style="3" customWidth="1"/>
+    <col min="13875" max="13875" width="10" style="3" customWidth="1"/>
+    <col min="13876" max="13882" width="10.7109375" style="3" customWidth="1"/>
+    <col min="13883" max="14076" width="9.140625" style="3"/>
+    <col min="14077" max="14077" width="2.140625" style="3" customWidth="1"/>
+    <col min="14078" max="14078" width="2.42578125" style="3" customWidth="1"/>
+    <col min="14079" max="14079" width="9.5703125" style="3" customWidth="1"/>
+    <col min="14080" max="14080" width="14.85546875" style="3" customWidth="1"/>
+    <col min="14081" max="14081" width="8" style="3" customWidth="1"/>
+    <col min="14082" max="14082" width="6.5703125" style="3" customWidth="1"/>
+    <col min="14083" max="14083" width="7.42578125" style="3" customWidth="1"/>
+    <col min="14084" max="14114" width="4.7109375" style="3" customWidth="1"/>
+    <col min="14115" max="14120" width="5.7109375" style="3" customWidth="1"/>
+    <col min="14121" max="14121" width="5.140625" style="3" customWidth="1"/>
+    <col min="14122" max="14128" width="5.7109375" style="3" customWidth="1"/>
+    <col min="14129" max="14129" width="6.85546875" style="3" customWidth="1"/>
+    <col min="14130" max="14130" width="6.5703125" style="3" customWidth="1"/>
+    <col min="14131" max="14131" width="10" style="3" customWidth="1"/>
+    <col min="14132" max="14138" width="10.7109375" style="3" customWidth="1"/>
+    <col min="14139" max="14332" width="9.140625" style="3"/>
+    <col min="14333" max="14333" width="2.140625" style="3" customWidth="1"/>
+    <col min="14334" max="14334" width="2.42578125" style="3" customWidth="1"/>
+    <col min="14335" max="14335" width="9.5703125" style="3" customWidth="1"/>
+    <col min="14336" max="14336" width="14.85546875" style="3" customWidth="1"/>
+    <col min="14337" max="14337" width="8" style="3" customWidth="1"/>
+    <col min="14338" max="14338" width="6.5703125" style="3" customWidth="1"/>
+    <col min="14339" max="14339" width="7.42578125" style="3" customWidth="1"/>
+    <col min="14340" max="14370" width="4.7109375" style="3" customWidth="1"/>
+    <col min="14371" max="14376" width="5.7109375" style="3" customWidth="1"/>
+    <col min="14377" max="14377" width="5.140625" style="3" customWidth="1"/>
+    <col min="14378" max="14384" width="5.7109375" style="3" customWidth="1"/>
+    <col min="14385" max="14385" width="6.85546875" style="3" customWidth="1"/>
+    <col min="14386" max="14386" width="6.5703125" style="3" customWidth="1"/>
+    <col min="14387" max="14387" width="10" style="3" customWidth="1"/>
+    <col min="14388" max="14394" width="10.7109375" style="3" customWidth="1"/>
+    <col min="14395" max="14588" width="9.140625" style="3"/>
+    <col min="14589" max="14589" width="2.140625" style="3" customWidth="1"/>
+    <col min="14590" max="14590" width="2.42578125" style="3" customWidth="1"/>
+    <col min="14591" max="14591" width="9.5703125" style="3" customWidth="1"/>
+    <col min="14592" max="14592" width="14.85546875" style="3" customWidth="1"/>
+    <col min="14593" max="14593" width="8" style="3" customWidth="1"/>
+    <col min="14594" max="14594" width="6.5703125" style="3" customWidth="1"/>
+    <col min="14595" max="14595" width="7.42578125" style="3" customWidth="1"/>
+    <col min="14596" max="14626" width="4.7109375" style="3" customWidth="1"/>
+    <col min="14627" max="14632" width="5.7109375" style="3" customWidth="1"/>
+    <col min="14633" max="14633" width="5.140625" style="3" customWidth="1"/>
+    <col min="14634" max="14640" width="5.7109375" style="3" customWidth="1"/>
+    <col min="14641" max="14641" width="6.85546875" style="3" customWidth="1"/>
+    <col min="14642" max="14642" width="6.5703125" style="3" customWidth="1"/>
+    <col min="14643" max="14643" width="10" style="3" customWidth="1"/>
+    <col min="14644" max="14650" width="10.7109375" style="3" customWidth="1"/>
+    <col min="14651" max="14844" width="9.140625" style="3"/>
+    <col min="14845" max="14845" width="2.140625" style="3" customWidth="1"/>
+    <col min="14846" max="14846" width="2.42578125" style="3" customWidth="1"/>
+    <col min="14847" max="14847" width="9.5703125" style="3" customWidth="1"/>
+    <col min="14848" max="14848" width="14.85546875" style="3" customWidth="1"/>
+    <col min="14849" max="14849" width="8" style="3" customWidth="1"/>
+    <col min="14850" max="14850" width="6.5703125" style="3" customWidth="1"/>
+    <col min="14851" max="14851" width="7.42578125" style="3" customWidth="1"/>
+    <col min="14852" max="14882" width="4.7109375" style="3" customWidth="1"/>
+    <col min="14883" max="14888" width="5.7109375" style="3" customWidth="1"/>
+    <col min="14889" max="14889" width="5.140625" style="3" customWidth="1"/>
+    <col min="14890" max="14896" width="5.7109375" style="3" customWidth="1"/>
+    <col min="14897" max="14897" width="6.85546875" style="3" customWidth="1"/>
+    <col min="14898" max="14898" width="6.5703125" style="3" customWidth="1"/>
+    <col min="14899" max="14899" width="10" style="3" customWidth="1"/>
+    <col min="14900" max="14906" width="10.7109375" style="3" customWidth="1"/>
+    <col min="14907" max="15100" width="9.140625" style="3"/>
+    <col min="15101" max="15101" width="2.140625" style="3" customWidth="1"/>
+    <col min="15102" max="15102" width="2.42578125" style="3" customWidth="1"/>
+    <col min="15103" max="15103" width="9.5703125" style="3" customWidth="1"/>
+    <col min="15104" max="15104" width="14.85546875" style="3" customWidth="1"/>
+    <col min="15105" max="15105" width="8" style="3" customWidth="1"/>
+    <col min="15106" max="15106" width="6.5703125" style="3" customWidth="1"/>
+    <col min="15107" max="15107" width="7.42578125" style="3" customWidth="1"/>
+    <col min="15108" max="15138" width="4.7109375" style="3" customWidth="1"/>
+    <col min="15139" max="15144" width="5.7109375" style="3" customWidth="1"/>
+    <col min="15145" max="15145" width="5.140625" style="3" customWidth="1"/>
+    <col min="15146" max="15152" width="5.7109375" style="3" customWidth="1"/>
+    <col min="15153" max="15153" width="6.85546875" style="3" customWidth="1"/>
+    <col min="15154" max="15154" width="6.5703125" style="3" customWidth="1"/>
+    <col min="15155" max="15155" width="10" style="3" customWidth="1"/>
+    <col min="15156" max="15162" width="10.7109375" style="3" customWidth="1"/>
+    <col min="15163" max="15356" width="9.140625" style="3"/>
+    <col min="15357" max="15357" width="2.140625" style="3" customWidth="1"/>
+    <col min="15358" max="15358" width="2.42578125" style="3" customWidth="1"/>
+    <col min="15359" max="15359" width="9.5703125" style="3" customWidth="1"/>
+    <col min="15360" max="15360" width="14.85546875" style="3" customWidth="1"/>
+    <col min="15361" max="15361" width="8" style="3" customWidth="1"/>
+    <col min="15362" max="15362" width="6.5703125" style="3" customWidth="1"/>
+    <col min="15363" max="15363" width="7.42578125" style="3" customWidth="1"/>
+    <col min="15364" max="15394" width="4.7109375" style="3" customWidth="1"/>
+    <col min="15395" max="15400" width="5.7109375" style="3" customWidth="1"/>
+    <col min="15401" max="15401" width="5.140625" style="3" customWidth="1"/>
+    <col min="15402" max="15408" width="5.7109375" style="3" customWidth="1"/>
+    <col min="15409" max="15409" width="6.85546875" style="3" customWidth="1"/>
+    <col min="15410" max="15410" width="6.5703125" style="3" customWidth="1"/>
+    <col min="15411" max="15411" width="10" style="3" customWidth="1"/>
+    <col min="15412" max="15418" width="10.7109375" style="3" customWidth="1"/>
+    <col min="15419" max="15612" width="9.140625" style="3"/>
+    <col min="15613" max="15613" width="2.140625" style="3" customWidth="1"/>
+    <col min="15614" max="15614" width="2.42578125" style="3" customWidth="1"/>
+    <col min="15615" max="15615" width="9.5703125" style="3" customWidth="1"/>
+    <col min="15616" max="15616" width="14.85546875" style="3" customWidth="1"/>
+    <col min="15617" max="15617" width="8" style="3" customWidth="1"/>
+    <col min="15618" max="15618" width="6.5703125" style="3" customWidth="1"/>
+    <col min="15619" max="15619" width="7.42578125" style="3" customWidth="1"/>
+    <col min="15620" max="15650" width="4.7109375" style="3" customWidth="1"/>
+    <col min="15651" max="15656" width="5.7109375" style="3" customWidth="1"/>
+    <col min="15657" max="15657" width="5.140625" style="3" customWidth="1"/>
+    <col min="15658" max="15664" width="5.7109375" style="3" customWidth="1"/>
+    <col min="15665" max="15665" width="6.85546875" style="3" customWidth="1"/>
+    <col min="15666" max="15666" width="6.5703125" style="3" customWidth="1"/>
+    <col min="15667" max="15667" width="10" style="3" customWidth="1"/>
+    <col min="15668" max="15674" width="10.7109375" style="3" customWidth="1"/>
+    <col min="15675" max="15868" width="9.140625" style="3"/>
+    <col min="15869" max="15869" width="2.140625" style="3" customWidth="1"/>
+    <col min="15870" max="15870" width="2.42578125" style="3" customWidth="1"/>
+    <col min="15871" max="15871" width="9.5703125" style="3" customWidth="1"/>
+    <col min="15872" max="15872" width="14.85546875" style="3" customWidth="1"/>
+    <col min="15873" max="15873" width="8" style="3" customWidth="1"/>
+    <col min="15874" max="15874" width="6.5703125" style="3" customWidth="1"/>
+    <col min="15875" max="15875" width="7.42578125" style="3" customWidth="1"/>
+    <col min="15876" max="15906" width="4.7109375" style="3" customWidth="1"/>
+    <col min="15907" max="15912" width="5.7109375" style="3" customWidth="1"/>
+    <col min="15913" max="15913" width="5.140625" style="3" customWidth="1"/>
+    <col min="15914" max="15920" width="5.7109375" style="3" customWidth="1"/>
+    <col min="15921" max="15921" width="6.85546875" style="3" customWidth="1"/>
+    <col min="15922" max="15922" width="6.5703125" style="3" customWidth="1"/>
+    <col min="15923" max="15923" width="10" style="3" customWidth="1"/>
+    <col min="15924" max="15930" width="10.7109375" style="3" customWidth="1"/>
+    <col min="15931" max="16124" width="9.140625" style="3"/>
+    <col min="16125" max="16125" width="2.140625" style="3" customWidth="1"/>
+    <col min="16126" max="16126" width="2.42578125" style="3" customWidth="1"/>
+    <col min="16127" max="16127" width="9.5703125" style="3" customWidth="1"/>
+    <col min="16128" max="16128" width="14.85546875" style="3" customWidth="1"/>
+    <col min="16129" max="16129" width="8" style="3" customWidth="1"/>
+    <col min="16130" max="16130" width="6.5703125" style="3" customWidth="1"/>
+    <col min="16131" max="16131" width="7.42578125" style="3" customWidth="1"/>
+    <col min="16132" max="16162" width="4.7109375" style="3" customWidth="1"/>
+    <col min="16163" max="16168" width="5.7109375" style="3" customWidth="1"/>
+    <col min="16169" max="16169" width="5.140625" style="3" customWidth="1"/>
+    <col min="16170" max="16176" width="5.7109375" style="3" customWidth="1"/>
+    <col min="16177" max="16177" width="6.85546875" style="3" customWidth="1"/>
+    <col min="16178" max="16178" width="6.5703125" style="3" customWidth="1"/>
+    <col min="16179" max="16179" width="10" style="3" customWidth="1"/>
+    <col min="16180" max="16186" width="10.7109375" style="3" customWidth="1"/>
+    <col min="16187" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="42.75" customHeight="1">
+    <row r="1" spans="1:66" ht="42.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2252,7 +2253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="2" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -2450,7 +2451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="3" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A3" s="33">
         <v>2</v>
       </c>
@@ -2644,11 +2645,11 @@
         <v>0</v>
       </c>
       <c r="BE3" s="46">
-        <f t="shared" ref="BE3:BE11" si="10">AW3-SUM(AK3:AQ3)</f>
+        <f>AW3-SUM(AK3:AQ3)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="4" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -2842,11 +2843,11 @@
         <v>50%</v>
       </c>
       <c r="BE4" s="46">
-        <f t="shared" si="10"/>
+        <f>AW4-SUM(AK4:AQ4)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="5" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A5" s="33">
         <v>4</v>
       </c>
@@ -3040,11 +3041,11 @@
         <v>75%</v>
       </c>
       <c r="BE5" s="46">
-        <f t="shared" si="10"/>
+        <f>AW5-SUM(AK5:AQ5)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="6" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -3238,11 +3239,11 @@
         <v>50%</v>
       </c>
       <c r="BE6" s="46">
-        <f t="shared" si="10"/>
+        <f>AW6-SUM(AK6:AQ6)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="7" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A7" s="33">
         <v>6</v>
       </c>
@@ -3436,11 +3437,11 @@
         <v>75%</v>
       </c>
       <c r="BE7" s="46">
-        <f t="shared" si="10"/>
+        <f>AW7-SUM(AK7:AQ7)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="8" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -3634,11 +3635,11 @@
         <v>50%</v>
       </c>
       <c r="BE8" s="46">
-        <f t="shared" si="10"/>
+        <f>AW8-SUM(AK8:AQ8)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="9" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A9" s="33">
         <v>8</v>
       </c>
@@ -3832,11 +3833,11 @@
         <v>75%</v>
       </c>
       <c r="BE9" s="46">
-        <f t="shared" si="10"/>
+        <f>AW9-SUM(AK9:AQ9)</f>
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="10" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A10" s="33">
         <v>9</v>
       </c>
@@ -4030,11 +4031,11 @@
         <v>100%</v>
       </c>
       <c r="BE10" s="46">
-        <f t="shared" si="10"/>
+        <f>AW10-SUM(AK10:AQ10)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="11" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A11" s="33">
         <v>10</v>
       </c>
@@ -4228,11 +4229,11 @@
         <v>0</v>
       </c>
       <c r="BE11" s="46">
-        <f t="shared" si="10"/>
+        <f>AW11-SUM(AK11:AQ11)</f>
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:65" ht="35.1" customHeight="1">
+    <row r="12" spans="1:66" ht="35.1" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4284,7 +4285,7 @@
       <c r="AW12" s="19"/>
       <c r="AX12" s="19"/>
     </row>
-    <row r="13" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="13" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="15" t="s">
         <v>48</v>
@@ -4338,7 +4339,7 @@
       <c r="AW13" s="19"/>
       <c r="AX13" s="19"/>
     </row>
-    <row r="14" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="14" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>0</v>
       </c>
@@ -4510,32 +4511,35 @@
       <c r="BE14" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="BF14" s="30" t="s">
+      <c r="BF14" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="BG14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="BG14" s="29" t="s">
+      <c r="BH14" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="BH14" s="29" t="s">
+      <c r="BI14" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="BI14" s="29" t="s">
+      <c r="BJ14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="BJ14" s="29" t="s">
+      <c r="BK14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="BK14" s="29" t="s">
+      <c r="BL14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="BL14" s="31" t="s">
+      <c r="BM14" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="BM14" s="32" t="s">
+      <c r="BN14" s="32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="15" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A15" s="33">
         <v>1</v>
       </c>
@@ -4645,127 +4649,131 @@
         <v>2.5</v>
       </c>
       <c r="AJ15" s="40">
-        <f t="shared" ref="AJ15:AY24" si="11">IF(E15&lt;1,E15*1,IF(E15&lt;2,(1.5+(E15-1)*1.5),3.5+(E15-2)*2))</f>
+        <f t="shared" ref="AJ15:AY24" si="10">IF(E15&lt;1,E15*1,IF(E15&lt;2,(1.5+(E15-1)*1.5),3.5+(E15-2)*2))</f>
         <v>0</v>
       </c>
       <c r="AK15" s="40">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AL15" s="40">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AM15" s="40">
+        <f t="shared" si="10"/>
+        <v>2.25</v>
+      </c>
+      <c r="AN15" s="40">
+        <f t="shared" si="10"/>
+        <v>5.5</v>
+      </c>
+      <c r="AO15" s="40">
+        <f t="shared" si="10"/>
+        <v>5.5</v>
+      </c>
+      <c r="AP15" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR15" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS15" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU15" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW15" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY15" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="40">
+        <f t="shared" ref="AY15:BD24" si="11">IF(U15&lt;1,U15*1,IF(U15&lt;2,(1.5+(U15-1)*1.5),3.5+(U15-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="40">
         <f t="shared" si="11"/>
-        <v>1.5</v>
-      </c>
-      <c r="AL15" s="40">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="40">
         <f t="shared" si="11"/>
-        <v>1.5</v>
-      </c>
-      <c r="AM15" s="40">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="40">
         <f t="shared" si="11"/>
-        <v>2.25</v>
-      </c>
-      <c r="AN15" s="40">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="39">
         <f t="shared" si="11"/>
-        <v>5.5</v>
-      </c>
-      <c r="AO15" s="40">
-        <f t="shared" si="11"/>
-        <v>5.5</v>
-      </c>
-      <c r="AP15" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR15" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AS15" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT15" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AU15" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV15" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW15" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AX15" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AY15" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="40">
-        <f t="shared" ref="AY15:BE24" si="12">IF(U15&lt;1,U15*1,IF(U15&lt;2,(1.5+(U15-1)*1.5),3.5+(U15-2)*2))</f>
-        <v>0</v>
-      </c>
-      <c r="BA15" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BB15" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BC15" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BD15" s="39">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BE15" s="40">
-        <f t="shared" si="12"/>
+        <f>IF(Z15&lt;1,Z15*1,IF(Z15&lt;2,(1.5+(Z15-1)*1.5),3.5+(Z15-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BF15" s="40">
-        <f t="shared" ref="BF15:BF24" si="13">IF(AB15&lt;1,AB15*1,IF(AB15&lt;2,(1.5+(AB15-1)*1.5),3.5+(AB15-2)*2))</f>
+        <f t="shared" ref="BF15:BF24" si="12">IF(AA15&lt;1,AA15*1,IF(AA15&lt;2,(1.5+(AA15-1)*1.5),3.5+(AA15-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BG15" s="40">
-        <f t="shared" ref="BG15:BG24" si="14">IF(AC15&lt;1,AC15*1,IF(AC15&lt;2,(1.5+(AC15-1)*1.5),3.5+(AC15-2)*2))</f>
+        <f>IF(AB15&lt;1,AB15*1,IF(AB15&lt;2,(1.5+(AB15-1)*1.5),3.5+(AB15-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BH15" s="40">
-        <f t="shared" ref="BH15:BH24" si="15">IF(AD15&lt;1,AD15*1,IF(AD15&lt;2,(1.5+(AD15-1)*1.5),3.5+(AD15-2)*2))</f>
+        <f>IF(AC15&lt;1,AC15*1,IF(AC15&lt;2,(1.5+(AC15-1)*1.5),3.5+(AC15-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BI15" s="40">
-        <f t="shared" ref="BI15:BI24" si="16">IF(AE15&lt;1,AE15*1,IF(AE15&lt;2,(1.5+(AE15-1)*1.5),3.5+(AE15-2)*2))</f>
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="39">
-        <f t="shared" ref="BJ15:BJ24" si="17">IF(AF15&lt;1,AF15*1,IF(AF15&lt;2,(1.5+(AF15-1)*1.5),3.5+(AF15-2)*2))</f>
-        <v>0</v>
-      </c>
-      <c r="BK15" s="40">
-        <f t="shared" ref="BK15:BK24" si="18">IF(AG15&lt;1,AG15*1,IF(AG15&lt;2,(1.5+(AG15-1)*1.5),3.5+(AG15-2)*2))</f>
+        <f>IF(AD15&lt;1,AD15*1,IF(AD15&lt;2,(1.5+(AD15-1)*1.5),3.5+(AD15-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="40">
+        <f>IF(AE15&lt;1,AE15*1,IF(AE15&lt;2,(1.5+(AE15-1)*1.5),3.5+(AE15-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BK15" s="39">
+        <f>IF(AF15&lt;1,AF15*1,IF(AF15&lt;2,(1.5+(AF15-1)*1.5),3.5+(AF15-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BL15" s="40">
-        <f t="shared" ref="BL15:BL24" si="19">IF(AH15&lt;1,AH15*1,IF(AH15&lt;2,(1.5+(AH15-1)*1.5),3.5+(AH15-2)*2))</f>
-        <v>0</v>
-      </c>
-      <c r="BM15" s="41">
-        <f t="shared" ref="BM15:BM24" si="20">SUM(AI15:BL15)</f>
+        <f>IF(AG15&lt;1,AG15*1,IF(AG15&lt;2,(1.5+(AG15-1)*1.5),3.5+(AG15-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BM15" s="40">
+        <f>IF(AH15&lt;1,AH15*1,IF(AH15&lt;2,(1.5+(AH15-1)*1.5),3.5+(AH15-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BN15" s="41">
+        <f>SUM(AI15:BM15)</f>
         <v>18.75</v>
       </c>
     </row>
-    <row r="16" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="16" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A16" s="33">
         <v>2</v>
       </c>
@@ -4871,131 +4879,135 @@
         <v>0</v>
       </c>
       <c r="AI16" s="39">
-        <f t="shared" ref="AI16:AV24" si="21">IF(D16&lt;1,D16*1,IF(D16&lt;2,(1.5+(D16-1)*1.5),3.5+(D16-2)*2))</f>
+        <f t="shared" ref="AI16:AV24" si="13">IF(D16&lt;1,D16*1,IF(D16&lt;2,(1.5+(D16-1)*1.5),3.5+(D16-2)*2))</f>
         <v>0</v>
       </c>
       <c r="AJ16" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK16" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL16" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AM16" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP16" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR16" s="40">
+        <f t="shared" si="10"/>
+        <v>3.5</v>
+      </c>
+      <c r="AS16" s="40">
+        <f t="shared" si="10"/>
+        <v>3.5</v>
+      </c>
+      <c r="AT16" s="40">
+        <f t="shared" si="10"/>
+        <v>3.5</v>
+      </c>
+      <c r="AU16" s="40">
+        <f t="shared" si="10"/>
+        <v>3.5</v>
+      </c>
+      <c r="AV16" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW16" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX16" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY16" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AK16" s="40">
+      <c r="AZ16" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AL16" s="40">
+      <c r="BA16" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AM16" s="40">
+      <c r="BB16" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="40">
+      <c r="BC16" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO16" s="40">
+      <c r="BD16" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP16" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR16" s="40">
-        <f t="shared" si="11"/>
-        <v>3.5</v>
-      </c>
-      <c r="AS16" s="40">
-        <f t="shared" si="11"/>
-        <v>3.5</v>
-      </c>
-      <c r="AT16" s="40">
-        <f t="shared" si="11"/>
-        <v>3.5</v>
-      </c>
-      <c r="AU16" s="40">
-        <f t="shared" si="11"/>
-        <v>3.5</v>
-      </c>
-      <c r="AV16" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW16" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AX16" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AY16" s="40">
+      <c r="BE16" s="40">
+        <f>IF(Z16&lt;1,Z16*1,IF(Z16&lt;2,(1.5+(Z16-1)*1.5),3.5+(Z16-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BF16" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AZ16" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BA16" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BB16" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BC16" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BD16" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BE16" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BF16" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="BG16" s="40">
-        <f t="shared" si="14"/>
+        <f>IF(AB16&lt;1,AB16*1,IF(AB16&lt;2,(1.5+(AB16-1)*1.5),3.5+(AB16-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BH16" s="40">
-        <f t="shared" si="15"/>
+        <f>IF(AC16&lt;1,AC16*1,IF(AC16&lt;2,(1.5+(AC16-1)*1.5),3.5+(AC16-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BI16" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="39">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BK16" s="40">
-        <f t="shared" si="18"/>
+        <f>IF(AD16&lt;1,AD16*1,IF(AD16&lt;2,(1.5+(AD16-1)*1.5),3.5+(AD16-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="40">
+        <f>IF(AE16&lt;1,AE16*1,IF(AE16&lt;2,(1.5+(AE16-1)*1.5),3.5+(AE16-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BK16" s="39">
+        <f>IF(AF16&lt;1,AF16*1,IF(AF16&lt;2,(1.5+(AF16-1)*1.5),3.5+(AF16-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BL16" s="40">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BM16" s="41">
-        <f t="shared" si="20"/>
+        <f>IF(AG16&lt;1,AG16*1,IF(AG16&lt;2,(1.5+(AG16-1)*1.5),3.5+(AG16-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BM16" s="40">
+        <f>IF(AH16&lt;1,AH16*1,IF(AH16&lt;2,(1.5+(AH16-1)*1.5),3.5+(AH16-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BN16" s="41">
+        <f>SUM(AI16:BM16)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="17" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A17" s="33">
         <v>3</v>
       </c>
@@ -5101,131 +5113,135 @@
         <v>0</v>
       </c>
       <c r="AI17" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ17" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR17" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS17" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV17" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX17" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AK17" s="40">
+      <c r="AZ17" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AL17" s="40">
+      <c r="BA17" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AM17" s="40">
+      <c r="BB17" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="40">
+      <c r="BC17" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO17" s="40">
+      <c r="BD17" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP17" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR17" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AS17" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT17" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AU17" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV17" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW17" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AX17" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AY17" s="40">
+      <c r="BE17" s="40">
+        <f>IF(Z17&lt;1,Z17*1,IF(Z17&lt;2,(1.5+(Z17-1)*1.5),3.5+(Z17-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BF17" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AZ17" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BA17" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BB17" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BC17" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BD17" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BE17" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BF17" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="BG17" s="40">
-        <f t="shared" si="14"/>
+        <f>IF(AB17&lt;1,AB17*1,IF(AB17&lt;2,(1.5+(AB17-1)*1.5),3.5+(AB17-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BH17" s="40">
-        <f t="shared" si="15"/>
+        <f>IF(AC17&lt;1,AC17*1,IF(AC17&lt;2,(1.5+(AC17-1)*1.5),3.5+(AC17-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BI17" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="39">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BK17" s="40">
-        <f t="shared" si="18"/>
+        <f>IF(AD17&lt;1,AD17*1,IF(AD17&lt;2,(1.5+(AD17-1)*1.5),3.5+(AD17-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="40">
+        <f>IF(AE17&lt;1,AE17*1,IF(AE17&lt;2,(1.5+(AE17-1)*1.5),3.5+(AE17-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BK17" s="39">
+        <f>IF(AF17&lt;1,AF17*1,IF(AF17&lt;2,(1.5+(AF17-1)*1.5),3.5+(AF17-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BL17" s="40">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BM17" s="41">
-        <f t="shared" si="20"/>
+        <f>IF(AG17&lt;1,AG17*1,IF(AG17&lt;2,(1.5+(AG17-1)*1.5),3.5+(AG17-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BM17" s="40">
+        <f>IF(AH17&lt;1,AH17*1,IF(AH17&lt;2,(1.5+(AH17-1)*1.5),3.5+(AH17-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BN17" s="41">
+        <f>SUM(AI17:BM17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="18" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A18" s="33">
         <v>4</v>
       </c>
@@ -5331,131 +5347,135 @@
         <v>0</v>
       </c>
       <c r="AI18" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ18" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR18" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX18" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY18" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AK18" s="40">
+      <c r="AZ18" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AL18" s="40">
+      <c r="BA18" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AM18" s="40">
+      <c r="BB18" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="40">
+      <c r="BC18" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO18" s="40">
+      <c r="BD18" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP18" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR18" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AS18" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT18" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AU18" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV18" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW18" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AX18" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AY18" s="40">
+      <c r="BE18" s="40">
+        <f>IF(Z18&lt;1,Z18*1,IF(Z18&lt;2,(1.5+(Z18-1)*1.5),3.5+(Z18-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BF18" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AZ18" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BA18" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BB18" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BC18" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BD18" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BE18" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BF18" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="BG18" s="40">
-        <f t="shared" si="14"/>
+        <f>IF(AB18&lt;1,AB18*1,IF(AB18&lt;2,(1.5+(AB18-1)*1.5),3.5+(AB18-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BH18" s="40">
-        <f t="shared" si="15"/>
+        <f>IF(AC18&lt;1,AC18*1,IF(AC18&lt;2,(1.5+(AC18-1)*1.5),3.5+(AC18-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BI18" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="39">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BK18" s="40">
-        <f t="shared" si="18"/>
+        <f>IF(AD18&lt;1,AD18*1,IF(AD18&lt;2,(1.5+(AD18-1)*1.5),3.5+(AD18-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="40">
+        <f>IF(AE18&lt;1,AE18*1,IF(AE18&lt;2,(1.5+(AE18-1)*1.5),3.5+(AE18-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BK18" s="39">
+        <f>IF(AF18&lt;1,AF18*1,IF(AF18&lt;2,(1.5+(AF18-1)*1.5),3.5+(AF18-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BL18" s="40">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BM18" s="41">
-        <f t="shared" si="20"/>
+        <f>IF(AG18&lt;1,AG18*1,IF(AG18&lt;2,(1.5+(AG18-1)*1.5),3.5+(AG18-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BM18" s="40">
+        <f>IF(AH18&lt;1,AH18*1,IF(AH18&lt;2,(1.5+(AH18-1)*1.5),3.5+(AH18-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BN18" s="41">
+        <f>SUM(AI18:BM18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="19" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A19" s="33">
         <v>5</v>
       </c>
@@ -5561,131 +5581,135 @@
         <v>0</v>
       </c>
       <c r="AI19" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ19" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR19" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS19" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT19" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV19" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW19" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX19" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AK19" s="40">
+      <c r="AZ19" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AL19" s="40">
+      <c r="BA19" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AM19" s="40">
+      <c r="BB19" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="40">
+      <c r="BC19" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO19" s="40">
+      <c r="BD19" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP19" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR19" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AS19" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT19" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AU19" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV19" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW19" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AX19" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AY19" s="40">
+      <c r="BE19" s="40">
+        <f>IF(Z19&lt;1,Z19*1,IF(Z19&lt;2,(1.5+(Z19-1)*1.5),3.5+(Z19-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BF19" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AZ19" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BA19" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BB19" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BC19" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BD19" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BE19" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BF19" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="BG19" s="40">
-        <f t="shared" si="14"/>
+        <f>IF(AB19&lt;1,AB19*1,IF(AB19&lt;2,(1.5+(AB19-1)*1.5),3.5+(AB19-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BH19" s="40">
-        <f t="shared" si="15"/>
+        <f>IF(AC19&lt;1,AC19*1,IF(AC19&lt;2,(1.5+(AC19-1)*1.5),3.5+(AC19-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BI19" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="39">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BK19" s="40">
-        <f t="shared" si="18"/>
+        <f>IF(AD19&lt;1,AD19*1,IF(AD19&lt;2,(1.5+(AD19-1)*1.5),3.5+(AD19-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="40">
+        <f>IF(AE19&lt;1,AE19*1,IF(AE19&lt;2,(1.5+(AE19-1)*1.5),3.5+(AE19-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BK19" s="39">
+        <f>IF(AF19&lt;1,AF19*1,IF(AF19&lt;2,(1.5+(AF19-1)*1.5),3.5+(AF19-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BL19" s="40">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BM19" s="41">
-        <f t="shared" si="20"/>
+        <f>IF(AG19&lt;1,AG19*1,IF(AG19&lt;2,(1.5+(AG19-1)*1.5),3.5+(AG19-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BM19" s="40">
+        <f>IF(AH19&lt;1,AH19*1,IF(AH19&lt;2,(1.5+(AH19-1)*1.5),3.5+(AH19-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BN19" s="41">
+        <f>SUM(AI19:BM19)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="20" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A20" s="33">
         <v>6</v>
       </c>
@@ -5791,131 +5815,135 @@
         <v>0</v>
       </c>
       <c r="AI20" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ20" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="40">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AM20" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR20" s="40">
+        <f t="shared" si="10"/>
+        <v>3.5</v>
+      </c>
+      <c r="AS20" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT20" s="40">
+        <f t="shared" si="10"/>
+        <v>3.5</v>
+      </c>
+      <c r="AU20" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW20" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX20" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY20" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AK20" s="40">
+      <c r="AZ20" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AL20" s="40">
+      <c r="BA20" s="40">
         <f t="shared" si="11"/>
-        <v>1.5</v>
-      </c>
-      <c r="AM20" s="40">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="40">
+      <c r="BC20" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO20" s="40">
+      <c r="BD20" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP20" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR20" s="40">
-        <f t="shared" si="11"/>
-        <v>3.5</v>
-      </c>
-      <c r="AS20" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT20" s="40">
-        <f t="shared" si="11"/>
-        <v>3.5</v>
-      </c>
-      <c r="AU20" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV20" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW20" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AX20" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AY20" s="40">
+      <c r="BE20" s="40">
+        <f>IF(Z20&lt;1,Z20*1,IF(Z20&lt;2,(1.5+(Z20-1)*1.5),3.5+(Z20-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BF20" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AZ20" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BA20" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BB20" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BC20" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BD20" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BE20" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BF20" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="BG20" s="40">
-        <f t="shared" si="14"/>
+        <f>IF(AB20&lt;1,AB20*1,IF(AB20&lt;2,(1.5+(AB20-1)*1.5),3.5+(AB20-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BH20" s="40">
-        <f t="shared" si="15"/>
+        <f>IF(AC20&lt;1,AC20*1,IF(AC20&lt;2,(1.5+(AC20-1)*1.5),3.5+(AC20-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BI20" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="39">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BK20" s="40">
-        <f t="shared" si="18"/>
+        <f>IF(AD20&lt;1,AD20*1,IF(AD20&lt;2,(1.5+(AD20-1)*1.5),3.5+(AD20-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="40">
+        <f>IF(AE20&lt;1,AE20*1,IF(AE20&lt;2,(1.5+(AE20-1)*1.5),3.5+(AE20-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BK20" s="39">
+        <f>IF(AF20&lt;1,AF20*1,IF(AF20&lt;2,(1.5+(AF20-1)*1.5),3.5+(AF20-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BL20" s="40">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BM20" s="41">
-        <f t="shared" si="20"/>
+        <f>IF(AG20&lt;1,AG20*1,IF(AG20&lt;2,(1.5+(AG20-1)*1.5),3.5+(AG20-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BM20" s="40">
+        <f>IF(AH20&lt;1,AH20*1,IF(AH20&lt;2,(1.5+(AH20-1)*1.5),3.5+(AH20-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BN20" s="41">
+        <f>SUM(AI20:BM20)</f>
         <v>8.5</v>
       </c>
     </row>
-    <row r="21" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="21" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A21" s="33">
         <v>7</v>
       </c>
@@ -6021,131 +6049,135 @@
         <v>0</v>
       </c>
       <c r="AI21" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ21" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR21" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS21" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT21" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV21" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW21" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="40">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AK21" s="40">
+        <v>1.5</v>
+      </c>
+      <c r="AZ21" s="40">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL21" s="40">
+        <v>3.5</v>
+      </c>
+      <c r="BA21" s="40">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AM21" s="40">
+        <v>5.5</v>
+      </c>
+      <c r="BB21" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="40">
+      <c r="BC21" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AO21" s="40">
+      <c r="BD21" s="39">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AP21" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR21" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AS21" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT21" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AU21" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV21" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW21" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AX21" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AY21" s="40">
+      <c r="BE21" s="40">
+        <f>IF(Z21&lt;1,Z21*1,IF(Z21&lt;2,(1.5+(Z21-1)*1.5),3.5+(Z21-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BF21" s="40">
         <f t="shared" si="12"/>
-        <v>1.5</v>
-      </c>
-      <c r="AZ21" s="40">
-        <f t="shared" si="12"/>
-        <v>3.5</v>
-      </c>
-      <c r="BA21" s="40">
-        <f t="shared" si="12"/>
-        <v>5.5</v>
-      </c>
-      <c r="BB21" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BC21" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BD21" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BE21" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BF21" s="40">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="BG21" s="40">
-        <f t="shared" si="14"/>
+        <f>IF(AB21&lt;1,AB21*1,IF(AB21&lt;2,(1.5+(AB21-1)*1.5),3.5+(AB21-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BH21" s="40">
-        <f t="shared" si="15"/>
+        <f>IF(AC21&lt;1,AC21*1,IF(AC21&lt;2,(1.5+(AC21-1)*1.5),3.5+(AC21-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BI21" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="39">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BK21" s="40">
-        <f t="shared" si="18"/>
+        <f>IF(AD21&lt;1,AD21*1,IF(AD21&lt;2,(1.5+(AD21-1)*1.5),3.5+(AD21-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="40">
+        <f>IF(AE21&lt;1,AE21*1,IF(AE21&lt;2,(1.5+(AE21-1)*1.5),3.5+(AE21-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BK21" s="39">
+        <f>IF(AF21&lt;1,AF21*1,IF(AF21&lt;2,(1.5+(AF21-1)*1.5),3.5+(AF21-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BL21" s="40">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BM21" s="41">
-        <f t="shared" si="20"/>
+        <f>IF(AG21&lt;1,AG21*1,IF(AG21&lt;2,(1.5+(AG21-1)*1.5),3.5+(AG21-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BM21" s="40">
+        <f>IF(AH21&lt;1,AH21*1,IF(AH21&lt;2,(1.5+(AH21-1)*1.5),3.5+(AH21-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BN21" s="41">
+        <f>SUM(AI21:BM21)</f>
         <v>10.5</v>
       </c>
     </row>
-    <row r="22" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="22" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A22" s="33">
         <v>8</v>
       </c>
@@ -6251,131 +6283,135 @@
         <v>0</v>
       </c>
       <c r="AI22" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ22" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="40">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AL22" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="40">
+        <f t="shared" si="10"/>
+        <v>3.5</v>
+      </c>
+      <c r="AO22" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR22" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS22" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="40">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AU22" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV22" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW22" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX22" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY22" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AK22" s="40">
+      <c r="AZ22" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BA22" s="40">
         <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
-      <c r="AL22" s="40">
+      <c r="BB22" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AM22" s="40">
+      <c r="BC22" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="40">
+      <c r="BD22" s="39">
         <f t="shared" si="11"/>
-        <v>3.5</v>
-      </c>
-      <c r="AO22" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AP22" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR22" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AS22" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT22" s="40">
-        <f t="shared" si="11"/>
-        <v>1.5</v>
-      </c>
-      <c r="AU22" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV22" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW22" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AX22" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AY22" s="40">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="40">
+        <f>IF(Z22&lt;1,Z22*1,IF(Z22&lt;2,(1.5+(Z22-1)*1.5),3.5+(Z22-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BF22" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AZ22" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BA22" s="40">
-        <f t="shared" si="12"/>
-        <v>1.5</v>
-      </c>
-      <c r="BB22" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BC22" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BD22" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BE22" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BF22" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="BG22" s="40">
-        <f t="shared" si="14"/>
+        <f>IF(AB22&lt;1,AB22*1,IF(AB22&lt;2,(1.5+(AB22-1)*1.5),3.5+(AB22-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BH22" s="40">
-        <f t="shared" si="15"/>
+        <f>IF(AC22&lt;1,AC22*1,IF(AC22&lt;2,(1.5+(AC22-1)*1.5),3.5+(AC22-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BI22" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="39">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BK22" s="40">
-        <f t="shared" si="18"/>
+        <f>IF(AD22&lt;1,AD22*1,IF(AD22&lt;2,(1.5+(AD22-1)*1.5),3.5+(AD22-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ22" s="40">
+        <f>IF(AE22&lt;1,AE22*1,IF(AE22&lt;2,(1.5+(AE22-1)*1.5),3.5+(AE22-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BK22" s="39">
+        <f>IF(AF22&lt;1,AF22*1,IF(AF22&lt;2,(1.5+(AF22-1)*1.5),3.5+(AF22-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BL22" s="40">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BM22" s="41">
-        <f t="shared" si="20"/>
+        <f>IF(AG22&lt;1,AG22*1,IF(AG22&lt;2,(1.5+(AG22-1)*1.5),3.5+(AG22-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BM22" s="40">
+        <f>IF(AH22&lt;1,AH22*1,IF(AH22&lt;2,(1.5+(AH22-1)*1.5),3.5+(AH22-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BN22" s="41">
+        <f>SUM(AI22:BM22)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="23" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A23" s="33">
         <v>9</v>
       </c>
@@ -6481,131 +6517,135 @@
         <v>0</v>
       </c>
       <c r="AI23" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ23" s="40">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="AK23" s="40">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="AL23" s="40">
+        <f t="shared" si="10"/>
+        <v>2.25</v>
+      </c>
+      <c r="AM23" s="40">
+        <f t="shared" si="10"/>
+        <v>3.5</v>
+      </c>
+      <c r="AN23" s="40">
+        <f t="shared" si="10"/>
+        <v>4.5</v>
+      </c>
+      <c r="AO23" s="40">
+        <f t="shared" si="10"/>
+        <v>6.5</v>
+      </c>
+      <c r="AP23" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AR23" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AS23" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AT23" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AU23" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AV23" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW23" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX23" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY23" s="40">
         <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="AK23" s="40">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="40">
         <f t="shared" si="11"/>
-        <v>1.5</v>
-      </c>
-      <c r="AL23" s="40">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="40">
         <f t="shared" si="11"/>
-        <v>2.25</v>
-      </c>
-      <c r="AM23" s="40">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="40">
         <f t="shared" si="11"/>
-        <v>3.5</v>
-      </c>
-      <c r="AN23" s="40">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="40">
         <f t="shared" si="11"/>
-        <v>4.5</v>
-      </c>
-      <c r="AO23" s="40">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="39">
         <f t="shared" si="11"/>
-        <v>6.5</v>
-      </c>
-      <c r="AP23" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AQ23" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AR23" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AS23" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AT23" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AU23" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AV23" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AW23" s="39">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AX23" s="40">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AY23" s="40">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="40">
+        <f>IF(Z23&lt;1,Z23*1,IF(Z23&lt;2,(1.5+(Z23-1)*1.5),3.5+(Z23-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BF23" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AZ23" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BA23" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BB23" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BC23" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BD23" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BE23" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BF23" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="BG23" s="40">
-        <f t="shared" si="14"/>
+        <f>IF(AB23&lt;1,AB23*1,IF(AB23&lt;2,(1.5+(AB23-1)*1.5),3.5+(AB23-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BH23" s="40">
-        <f t="shared" si="15"/>
+        <f>IF(AC23&lt;1,AC23*1,IF(AC23&lt;2,(1.5+(AC23-1)*1.5),3.5+(AC23-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BI23" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="39">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BK23" s="40">
-        <f t="shared" si="18"/>
+        <f>IF(AD23&lt;1,AD23*1,IF(AD23&lt;2,(1.5+(AD23-1)*1.5),3.5+(AD23-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="40">
+        <f>IF(AE23&lt;1,AE23*1,IF(AE23&lt;2,(1.5+(AE23-1)*1.5),3.5+(AE23-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BK23" s="39">
+        <f>IF(AF23&lt;1,AF23*1,IF(AF23&lt;2,(1.5+(AF23-1)*1.5),3.5+(AF23-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BL23" s="40">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BM23" s="41">
-        <f t="shared" si="20"/>
+        <f>IF(AG23&lt;1,AG23*1,IF(AG23&lt;2,(1.5+(AG23-1)*1.5),3.5+(AG23-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BM23" s="40">
+        <f>IF(AH23&lt;1,AH23*1,IF(AH23&lt;2,(1.5+(AH23-1)*1.5),3.5+(AH23-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BN23" s="41">
+        <f>SUM(AI23:BM23)</f>
         <v>18.75</v>
       </c>
     </row>
-    <row r="24" spans="1:65" s="20" customFormat="1" ht="35.1" customHeight="1">
+    <row r="24" spans="1:66" s="20" customFormat="1" ht="35.1" customHeight="1">
       <c r="A24" s="33">
         <v>10</v>
       </c>
@@ -6711,136 +6751,140 @@
         <v>0</v>
       </c>
       <c r="AI24" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AJ24" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AK24" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AL24" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AM24" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AN24" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AO24" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AP24" s="39">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AQ24" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AR24" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AS24" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AT24" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AU24" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AV24" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AW24" s="39">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX24" s="40">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AY24" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AX24" s="40">
+      <c r="AZ24" s="40">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AY24" s="40">
+      <c r="BA24" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BB24" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BC24" s="40">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BD24" s="39">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BE24" s="40">
+        <f>IF(Z24&lt;1,Z24*1,IF(Z24&lt;2,(1.5+(Z24-1)*1.5),3.5+(Z24-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BF24" s="40">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AZ24" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BA24" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BB24" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BC24" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BD24" s="39">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BE24" s="40">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="BF24" s="40">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="BG24" s="40">
-        <f t="shared" si="14"/>
+        <f>IF(AB24&lt;1,AB24*1,IF(AB24&lt;2,(1.5+(AB24-1)*1.5),3.5+(AB24-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BH24" s="40">
-        <f t="shared" si="15"/>
+        <f>IF(AC24&lt;1,AC24*1,IF(AC24&lt;2,(1.5+(AC24-1)*1.5),3.5+(AC24-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BI24" s="40">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="39">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="BK24" s="40">
-        <f t="shared" si="18"/>
+        <f>IF(AD24&lt;1,AD24*1,IF(AD24&lt;2,(1.5+(AD24-1)*1.5),3.5+(AD24-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="40">
+        <f>IF(AE24&lt;1,AE24*1,IF(AE24&lt;2,(1.5+(AE24-1)*1.5),3.5+(AE24-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BK24" s="39">
+        <f>IF(AF24&lt;1,AF24*1,IF(AF24&lt;2,(1.5+(AF24-1)*1.5),3.5+(AF24-2)*2))</f>
         <v>0</v>
       </c>
       <c r="BL24" s="40">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="BM24" s="41">
-        <f t="shared" si="20"/>
+        <f>IF(AG24&lt;1,AG24*1,IF(AG24&lt;2,(1.5+(AG24-1)*1.5),3.5+(AG24-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BM24" s="40">
+        <f>IF(AH24&lt;1,AH24*1,IF(AH24&lt;2,(1.5+(AH24-1)*1.5),3.5+(AH24-2)*2))</f>
+        <v>0</v>
+      </c>
+      <c r="BN24" s="41">
+        <f>SUM(AI24:BM24)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVK983049:WWO983054 D65545:AH65550 WLO983049:WMS983054 WBS983049:WCW983054 VRW983049:VTA983054 VIA983049:VJE983054 UYE983049:UZI983054 UOI983049:UPM983054 UEM983049:UFQ983054 TUQ983049:TVU983054 TKU983049:TLY983054 TAY983049:TCC983054 SRC983049:SSG983054 SHG983049:SIK983054 RXK983049:RYO983054 RNO983049:ROS983054 RDS983049:REW983054 QTW983049:QVA983054 QKA983049:QLE983054 QAE983049:QBI983054 PQI983049:PRM983054 PGM983049:PHQ983054 OWQ983049:OXU983054 OMU983049:ONY983054 OCY983049:OEC983054 NTC983049:NUG983054 NJG983049:NKK983054 MZK983049:NAO983054 MPO983049:MQS983054 MFS983049:MGW983054 LVW983049:LXA983054 LMA983049:LNE983054 LCE983049:LDI983054 KSI983049:KTM983054 KIM983049:KJQ983054 JYQ983049:JZU983054 JOU983049:JPY983054 JEY983049:JGC983054 IVC983049:IWG983054 ILG983049:IMK983054 IBK983049:ICO983054 HRO983049:HSS983054 HHS983049:HIW983054 GXW983049:GZA983054 GOA983049:GPE983054 GEE983049:GFI983054 FUI983049:FVM983054 FKM983049:FLQ983054 FAQ983049:FBU983054 EQU983049:ERY983054 EGY983049:EIC983054 DXC983049:DYG983054 DNG983049:DOK983054 DDK983049:DEO983054 CTO983049:CUS983054 CJS983049:CKW983054 BZW983049:CBA983054 BQA983049:BRE983054 BGE983049:BHI983054 AWI983049:AXM983054 AMM983049:ANQ983054 ACQ983049:ADU983054 SU983049:TY983054 IY983049:KC983054 D983049:AH983054 WVK917513:WWO917518 WLO917513:WMS917518 WBS917513:WCW917518 VRW917513:VTA917518 VIA917513:VJE917518 UYE917513:UZI917518 UOI917513:UPM917518 UEM917513:UFQ917518 TUQ917513:TVU917518 TKU917513:TLY917518 TAY917513:TCC917518 SRC917513:SSG917518 SHG917513:SIK917518 RXK917513:RYO917518 RNO917513:ROS917518 RDS917513:REW917518 QTW917513:QVA917518 QKA917513:QLE917518 QAE917513:QBI917518 PQI917513:PRM917518 PGM917513:PHQ917518 OWQ917513:OXU917518 OMU917513:ONY917518 OCY917513:OEC917518 NTC917513:NUG917518 NJG917513:NKK917518 MZK917513:NAO917518 MPO917513:MQS917518 MFS917513:MGW917518 LVW917513:LXA917518 LMA917513:LNE917518 LCE917513:LDI917518 KSI917513:KTM917518 KIM917513:KJQ917518 JYQ917513:JZU917518 JOU917513:JPY917518 JEY917513:JGC917518 IVC917513:IWG917518 ILG917513:IMK917518 IBK917513:ICO917518 HRO917513:HSS917518 HHS917513:HIW917518 GXW917513:GZA917518 GOA917513:GPE917518 GEE917513:GFI917518 FUI917513:FVM917518 FKM917513:FLQ917518 FAQ917513:FBU917518 EQU917513:ERY917518 EGY917513:EIC917518 DXC917513:DYG917518 DNG917513:DOK917518 DDK917513:DEO917518 CTO917513:CUS917518 CJS917513:CKW917518 BZW917513:CBA917518 BQA917513:BRE917518 BGE917513:BHI917518 AWI917513:AXM917518 AMM917513:ANQ917518 ACQ917513:ADU917518 SU917513:TY917518 IY917513:KC917518 D917513:AH917518 WVK851977:WWO851982 WLO851977:WMS851982 WBS851977:WCW851982 VRW851977:VTA851982 VIA851977:VJE851982 UYE851977:UZI851982 UOI851977:UPM851982 UEM851977:UFQ851982 TUQ851977:TVU851982 TKU851977:TLY851982 TAY851977:TCC851982 SRC851977:SSG851982 SHG851977:SIK851982 RXK851977:RYO851982 RNO851977:ROS851982 RDS851977:REW851982 QTW851977:QVA851982 QKA851977:QLE851982 QAE851977:QBI851982 PQI851977:PRM851982 PGM851977:PHQ851982 OWQ851977:OXU851982 OMU851977:ONY851982 OCY851977:OEC851982 NTC851977:NUG851982 NJG851977:NKK851982 MZK851977:NAO851982 MPO851977:MQS851982 MFS851977:MGW851982 LVW851977:LXA851982 LMA851977:LNE851982 LCE851977:LDI851982 KSI851977:KTM851982 KIM851977:KJQ851982 JYQ851977:JZU851982 JOU851977:JPY851982 JEY851977:JGC851982 IVC851977:IWG851982 ILG851977:IMK851982 IBK851977:ICO851982 HRO851977:HSS851982 HHS851977:HIW851982 GXW851977:GZA851982 GOA851977:GPE851982 GEE851977:GFI851982 FUI851977:FVM851982 FKM851977:FLQ851982 FAQ851977:FBU851982 EQU851977:ERY851982 EGY851977:EIC851982 DXC851977:DYG851982 DNG851977:DOK851982 DDK851977:DEO851982 CTO851977:CUS851982 CJS851977:CKW851982 BZW851977:CBA851982 BQA851977:BRE851982 BGE851977:BHI851982 AWI851977:AXM851982 AMM851977:ANQ851982 ACQ851977:ADU851982 SU851977:TY851982 IY851977:KC851982 D851977:AH851982 WVK786441:WWO786446 WLO786441:WMS786446 WBS786441:WCW786446 VRW786441:VTA786446 VIA786441:VJE786446 UYE786441:UZI786446 UOI786441:UPM786446 UEM786441:UFQ786446 TUQ786441:TVU786446 TKU786441:TLY786446 TAY786441:TCC786446 SRC786441:SSG786446 SHG786441:SIK786446 RXK786441:RYO786446 RNO786441:ROS786446 RDS786441:REW786446 QTW786441:QVA786446 QKA786441:QLE786446 QAE786441:QBI786446 PQI786441:PRM786446 PGM786441:PHQ786446 OWQ786441:OXU786446 OMU786441:ONY786446 OCY786441:OEC786446 NTC786441:NUG786446 NJG786441:NKK786446 MZK786441:NAO786446 MPO786441:MQS786446 MFS786441:MGW786446 LVW786441:LXA786446 LMA786441:LNE786446 LCE786441:LDI786446 KSI786441:KTM786446 KIM786441:KJQ786446 JYQ786441:JZU786446 JOU786441:JPY786446 JEY786441:JGC786446 IVC786441:IWG786446 ILG786441:IMK786446 IBK786441:ICO786446 HRO786441:HSS786446 HHS786441:HIW786446 GXW786441:GZA786446 GOA786441:GPE786446 GEE786441:GFI786446 FUI786441:FVM786446 FKM786441:FLQ786446 FAQ786441:FBU786446 EQU786441:ERY786446 EGY786441:EIC786446 DXC786441:DYG786446 DNG786441:DOK786446 DDK786441:DEO786446 CTO786441:CUS786446 CJS786441:CKW786446 BZW786441:CBA786446 BQA786441:BRE786446 BGE786441:BHI786446 AWI786441:AXM786446 AMM786441:ANQ786446 ACQ786441:ADU786446 SU786441:TY786446 IY786441:KC786446 D786441:AH786446 WVK720905:WWO720910 WLO720905:WMS720910 WBS720905:WCW720910 VRW720905:VTA720910 VIA720905:VJE720910 UYE720905:UZI720910 UOI720905:UPM720910 UEM720905:UFQ720910 TUQ720905:TVU720910 TKU720905:TLY720910 TAY720905:TCC720910 SRC720905:SSG720910 SHG720905:SIK720910 RXK720905:RYO720910 RNO720905:ROS720910 RDS720905:REW720910 QTW720905:QVA720910 QKA720905:QLE720910 QAE720905:QBI720910 PQI720905:PRM720910 PGM720905:PHQ720910 OWQ720905:OXU720910 OMU720905:ONY720910 OCY720905:OEC720910 NTC720905:NUG720910 NJG720905:NKK720910 MZK720905:NAO720910 MPO720905:MQS720910 MFS720905:MGW720910 LVW720905:LXA720910 LMA720905:LNE720910 LCE720905:LDI720910 KSI720905:KTM720910 KIM720905:KJQ720910 JYQ720905:JZU720910 JOU720905:JPY720910 JEY720905:JGC720910 IVC720905:IWG720910 ILG720905:IMK720910 IBK720905:ICO720910 HRO720905:HSS720910 HHS720905:HIW720910 GXW720905:GZA720910 GOA720905:GPE720910 GEE720905:GFI720910 FUI720905:FVM720910 FKM720905:FLQ720910 FAQ720905:FBU720910 EQU720905:ERY720910 EGY720905:EIC720910 DXC720905:DYG720910 DNG720905:DOK720910 DDK720905:DEO720910 CTO720905:CUS720910 CJS720905:CKW720910 BZW720905:CBA720910 BQA720905:BRE720910 BGE720905:BHI720910 AWI720905:AXM720910 AMM720905:ANQ720910 ACQ720905:ADU720910 SU720905:TY720910 IY720905:KC720910 D720905:AH720910 WVK655369:WWO655374 WLO655369:WMS655374 WBS655369:WCW655374 VRW655369:VTA655374 VIA655369:VJE655374 UYE655369:UZI655374 UOI655369:UPM655374 UEM655369:UFQ655374 TUQ655369:TVU655374 TKU655369:TLY655374 TAY655369:TCC655374 SRC655369:SSG655374 SHG655369:SIK655374 RXK655369:RYO655374 RNO655369:ROS655374 RDS655369:REW655374 QTW655369:QVA655374 QKA655369:QLE655374 QAE655369:QBI655374 PQI655369:PRM655374 PGM655369:PHQ655374 OWQ655369:OXU655374 OMU655369:ONY655374 OCY655369:OEC655374 NTC655369:NUG655374 NJG655369:NKK655374 MZK655369:NAO655374 MPO655369:MQS655374 MFS655369:MGW655374 LVW655369:LXA655374 LMA655369:LNE655374 LCE655369:LDI655374 KSI655369:KTM655374 KIM655369:KJQ655374 JYQ655369:JZU655374 JOU655369:JPY655374 JEY655369:JGC655374 IVC655369:IWG655374 ILG655369:IMK655374 IBK655369:ICO655374 HRO655369:HSS655374 HHS655369:HIW655374 GXW655369:GZA655374 GOA655369:GPE655374 GEE655369:GFI655374 FUI655369:FVM655374 FKM655369:FLQ655374 FAQ655369:FBU655374 EQU655369:ERY655374 EGY655369:EIC655374 DXC655369:DYG655374 DNG655369:DOK655374 DDK655369:DEO655374 CTO655369:CUS655374 CJS655369:CKW655374 BZW655369:CBA655374 BQA655369:BRE655374 BGE655369:BHI655374 AWI655369:AXM655374 AMM655369:ANQ655374 ACQ655369:ADU655374 SU655369:TY655374 IY655369:KC655374 D655369:AH655374 WVK589833:WWO589838 WLO589833:WMS589838 WBS589833:WCW589838 VRW589833:VTA589838 VIA589833:VJE589838 UYE589833:UZI589838 UOI589833:UPM589838 UEM589833:UFQ589838 TUQ589833:TVU589838 TKU589833:TLY589838 TAY589833:TCC589838 SRC589833:SSG589838 SHG589833:SIK589838 RXK589833:RYO589838 RNO589833:ROS589838 RDS589833:REW589838 QTW589833:QVA589838 QKA589833:QLE589838 QAE589833:QBI589838 PQI589833:PRM589838 PGM589833:PHQ589838 OWQ589833:OXU589838 OMU589833:ONY589838 OCY589833:OEC589838 NTC589833:NUG589838 NJG589833:NKK589838 MZK589833:NAO589838 MPO589833:MQS589838 MFS589833:MGW589838 LVW589833:LXA589838 LMA589833:LNE589838 LCE589833:LDI589838 KSI589833:KTM589838 KIM589833:KJQ589838 JYQ589833:JZU589838 JOU589833:JPY589838 JEY589833:JGC589838 IVC589833:IWG589838 ILG589833:IMK589838 IBK589833:ICO589838 HRO589833:HSS589838 HHS589833:HIW589838 GXW589833:GZA589838 GOA589833:GPE589838 GEE589833:GFI589838 FUI589833:FVM589838 FKM589833:FLQ589838 FAQ589833:FBU589838 EQU589833:ERY589838 EGY589833:EIC589838 DXC589833:DYG589838 DNG589833:DOK589838 DDK589833:DEO589838 CTO589833:CUS589838 CJS589833:CKW589838 BZW589833:CBA589838 BQA589833:BRE589838 BGE589833:BHI589838 AWI589833:AXM589838 AMM589833:ANQ589838 ACQ589833:ADU589838 SU589833:TY589838 IY589833:KC589838 D589833:AH589838 WVK524297:WWO524302 WLO524297:WMS524302 WBS524297:WCW524302 VRW524297:VTA524302 VIA524297:VJE524302 UYE524297:UZI524302 UOI524297:UPM524302 UEM524297:UFQ524302 TUQ524297:TVU524302 TKU524297:TLY524302 TAY524297:TCC524302 SRC524297:SSG524302 SHG524297:SIK524302 RXK524297:RYO524302 RNO524297:ROS524302 RDS524297:REW524302 QTW524297:QVA524302 QKA524297:QLE524302 QAE524297:QBI524302 PQI524297:PRM524302 PGM524297:PHQ524302 OWQ524297:OXU524302 OMU524297:ONY524302 OCY524297:OEC524302 NTC524297:NUG524302 NJG524297:NKK524302 MZK524297:NAO524302 MPO524297:MQS524302 MFS524297:MGW524302 LVW524297:LXA524302 LMA524297:LNE524302 LCE524297:LDI524302 KSI524297:KTM524302 KIM524297:KJQ524302 JYQ524297:JZU524302 JOU524297:JPY524302 JEY524297:JGC524302 IVC524297:IWG524302 ILG524297:IMK524302 IBK524297:ICO524302 HRO524297:HSS524302 HHS524297:HIW524302 GXW524297:GZA524302 GOA524297:GPE524302 GEE524297:GFI524302 FUI524297:FVM524302 FKM524297:FLQ524302 FAQ524297:FBU524302 EQU524297:ERY524302 EGY524297:EIC524302 DXC524297:DYG524302 DNG524297:DOK524302 DDK524297:DEO524302 CTO524297:CUS524302 CJS524297:CKW524302 BZW524297:CBA524302 BQA524297:BRE524302 BGE524297:BHI524302 AWI524297:AXM524302 AMM524297:ANQ524302 ACQ524297:ADU524302 SU524297:TY524302 IY524297:KC524302 D524297:AH524302 WVK458761:WWO458766 WLO458761:WMS458766 WBS458761:WCW458766 VRW458761:VTA458766 VIA458761:VJE458766 UYE458761:UZI458766 UOI458761:UPM458766 UEM458761:UFQ458766 TUQ458761:TVU458766 TKU458761:TLY458766 TAY458761:TCC458766 SRC458761:SSG458766 SHG458761:SIK458766 RXK458761:RYO458766 RNO458761:ROS458766 RDS458761:REW458766 QTW458761:QVA458766 QKA458761:QLE458766 QAE458761:QBI458766 PQI458761:PRM458766 PGM458761:PHQ458766 OWQ458761:OXU458766 OMU458761:ONY458766 OCY458761:OEC458766 NTC458761:NUG458766 NJG458761:NKK458766 MZK458761:NAO458766 MPO458761:MQS458766 MFS458761:MGW458766 LVW458761:LXA458766 LMA458761:LNE458766 LCE458761:LDI458766 KSI458761:KTM458766 KIM458761:KJQ458766 JYQ458761:JZU458766 JOU458761:JPY458766 JEY458761:JGC458766 IVC458761:IWG458766 ILG458761:IMK458766 IBK458761:ICO458766 HRO458761:HSS458766 HHS458761:HIW458766 GXW458761:GZA458766 GOA458761:GPE458766 GEE458761:GFI458766 FUI458761:FVM458766 FKM458761:FLQ458766 FAQ458761:FBU458766 EQU458761:ERY458766 EGY458761:EIC458766 DXC458761:DYG458766 DNG458761:DOK458766 DDK458761:DEO458766 CTO458761:CUS458766 CJS458761:CKW458766 BZW458761:CBA458766 BQA458761:BRE458766 BGE458761:BHI458766 AWI458761:AXM458766 AMM458761:ANQ458766 ACQ458761:ADU458766 SU458761:TY458766 IY458761:KC458766 D458761:AH458766 WVK393225:WWO393230 WLO393225:WMS393230 WBS393225:WCW393230 VRW393225:VTA393230 VIA393225:VJE393230 UYE393225:UZI393230 UOI393225:UPM393230 UEM393225:UFQ393230 TUQ393225:TVU393230 TKU393225:TLY393230 TAY393225:TCC393230 SRC393225:SSG393230 SHG393225:SIK393230 RXK393225:RYO393230 RNO393225:ROS393230 RDS393225:REW393230 QTW393225:QVA393230 QKA393225:QLE393230 QAE393225:QBI393230 PQI393225:PRM393230 PGM393225:PHQ393230 OWQ393225:OXU393230 OMU393225:ONY393230 OCY393225:OEC393230 NTC393225:NUG393230 NJG393225:NKK393230 MZK393225:NAO393230 MPO393225:MQS393230 MFS393225:MGW393230 LVW393225:LXA393230 LMA393225:LNE393230 LCE393225:LDI393230 KSI393225:KTM393230 KIM393225:KJQ393230 JYQ393225:JZU393230 JOU393225:JPY393230 JEY393225:JGC393230 IVC393225:IWG393230 ILG393225:IMK393230 IBK393225:ICO393230 HRO393225:HSS393230 HHS393225:HIW393230 GXW393225:GZA393230 GOA393225:GPE393230 GEE393225:GFI393230 FUI393225:FVM393230 FKM393225:FLQ393230 FAQ393225:FBU393230 EQU393225:ERY393230 EGY393225:EIC393230 DXC393225:DYG393230 DNG393225:DOK393230 DDK393225:DEO393230 CTO393225:CUS393230 CJS393225:CKW393230 BZW393225:CBA393230 BQA393225:BRE393230 BGE393225:BHI393230 AWI393225:AXM393230 AMM393225:ANQ393230 ACQ393225:ADU393230 SU393225:TY393230 IY393225:KC393230 D393225:AH393230 WVK327689:WWO327694 WLO327689:WMS327694 WBS327689:WCW327694 VRW327689:VTA327694 VIA327689:VJE327694 UYE327689:UZI327694 UOI327689:UPM327694 UEM327689:UFQ327694 TUQ327689:TVU327694 TKU327689:TLY327694 TAY327689:TCC327694 SRC327689:SSG327694 SHG327689:SIK327694 RXK327689:RYO327694 RNO327689:ROS327694 RDS327689:REW327694 QTW327689:QVA327694 QKA327689:QLE327694 QAE327689:QBI327694 PQI327689:PRM327694 PGM327689:PHQ327694 OWQ327689:OXU327694 OMU327689:ONY327694 OCY327689:OEC327694 NTC327689:NUG327694 NJG327689:NKK327694 MZK327689:NAO327694 MPO327689:MQS327694 MFS327689:MGW327694 LVW327689:LXA327694 LMA327689:LNE327694 LCE327689:LDI327694 KSI327689:KTM327694 KIM327689:KJQ327694 JYQ327689:JZU327694 JOU327689:JPY327694 JEY327689:JGC327694 IVC327689:IWG327694 ILG327689:IMK327694 IBK327689:ICO327694 HRO327689:HSS327694 HHS327689:HIW327694 GXW327689:GZA327694 GOA327689:GPE327694 GEE327689:GFI327694 FUI327689:FVM327694 FKM327689:FLQ327694 FAQ327689:FBU327694 EQU327689:ERY327694 EGY327689:EIC327694 DXC327689:DYG327694 DNG327689:DOK327694 DDK327689:DEO327694 CTO327689:CUS327694 CJS327689:CKW327694 BZW327689:CBA327694 BQA327689:BRE327694 BGE327689:BHI327694 AWI327689:AXM327694 AMM327689:ANQ327694 ACQ327689:ADU327694 SU327689:TY327694 IY327689:KC327694 D327689:AH327694 WVK262153:WWO262158 WLO262153:WMS262158 WBS262153:WCW262158 VRW262153:VTA262158 VIA262153:VJE262158 UYE262153:UZI262158 UOI262153:UPM262158 UEM262153:UFQ262158 TUQ262153:TVU262158 TKU262153:TLY262158 TAY262153:TCC262158 SRC262153:SSG262158 SHG262153:SIK262158 RXK262153:RYO262158 RNO262153:ROS262158 RDS262153:REW262158 QTW262153:QVA262158 QKA262153:QLE262158 QAE262153:QBI262158 PQI262153:PRM262158 PGM262153:PHQ262158 OWQ262153:OXU262158 OMU262153:ONY262158 OCY262153:OEC262158 NTC262153:NUG262158 NJG262153:NKK262158 MZK262153:NAO262158 MPO262153:MQS262158 MFS262153:MGW262158 LVW262153:LXA262158 LMA262153:LNE262158 LCE262153:LDI262158 KSI262153:KTM262158 KIM262153:KJQ262158 JYQ262153:JZU262158 JOU262153:JPY262158 JEY262153:JGC262158 IVC262153:IWG262158 ILG262153:IMK262158 IBK262153:ICO262158 HRO262153:HSS262158 HHS262153:HIW262158 GXW262153:GZA262158 GOA262153:GPE262158 GEE262153:GFI262158 FUI262153:FVM262158 FKM262153:FLQ262158 FAQ262153:FBU262158 EQU262153:ERY262158 EGY262153:EIC262158 DXC262153:DYG262158 DNG262153:DOK262158 DDK262153:DEO262158 CTO262153:CUS262158 CJS262153:CKW262158 BZW262153:CBA262158 BQA262153:BRE262158 BGE262153:BHI262158 AWI262153:AXM262158 AMM262153:ANQ262158 ACQ262153:ADU262158 SU262153:TY262158 IY262153:KC262158 D262153:AH262158 WVK196617:WWO196622 WLO196617:WMS196622 WBS196617:WCW196622 VRW196617:VTA196622 VIA196617:VJE196622 UYE196617:UZI196622 UOI196617:UPM196622 UEM196617:UFQ196622 TUQ196617:TVU196622 TKU196617:TLY196622 TAY196617:TCC196622 SRC196617:SSG196622 SHG196617:SIK196622 RXK196617:RYO196622 RNO196617:ROS196622 RDS196617:REW196622 QTW196617:QVA196622 QKA196617:QLE196622 QAE196617:QBI196622 PQI196617:PRM196622 PGM196617:PHQ196622 OWQ196617:OXU196622 OMU196617:ONY196622 OCY196617:OEC196622 NTC196617:NUG196622 NJG196617:NKK196622 MZK196617:NAO196622 MPO196617:MQS196622 MFS196617:MGW196622 LVW196617:LXA196622 LMA196617:LNE196622 LCE196617:LDI196622 KSI196617:KTM196622 KIM196617:KJQ196622 JYQ196617:JZU196622 JOU196617:JPY196622 JEY196617:JGC196622 IVC196617:IWG196622 ILG196617:IMK196622 IBK196617:ICO196622 HRO196617:HSS196622 HHS196617:HIW196622 GXW196617:GZA196622 GOA196617:GPE196622 GEE196617:GFI196622 FUI196617:FVM196622 FKM196617:FLQ196622 FAQ196617:FBU196622 EQU196617:ERY196622 EGY196617:EIC196622 DXC196617:DYG196622 DNG196617:DOK196622 DDK196617:DEO196622 CTO196617:CUS196622 CJS196617:CKW196622 BZW196617:CBA196622 BQA196617:BRE196622 BGE196617:BHI196622 AWI196617:AXM196622 AMM196617:ANQ196622 ACQ196617:ADU196622 SU196617:TY196622 IY196617:KC196622 D196617:AH196622 WVK131081:WWO131086 WLO131081:WMS131086 WBS131081:WCW131086 VRW131081:VTA131086 VIA131081:VJE131086 UYE131081:UZI131086 UOI131081:UPM131086 UEM131081:UFQ131086 TUQ131081:TVU131086 TKU131081:TLY131086 TAY131081:TCC131086 SRC131081:SSG131086 SHG131081:SIK131086 RXK131081:RYO131086 RNO131081:ROS131086 RDS131081:REW131086 QTW131081:QVA131086 QKA131081:QLE131086 QAE131081:QBI131086 PQI131081:PRM131086 PGM131081:PHQ131086 OWQ131081:OXU131086 OMU131081:ONY131086 OCY131081:OEC131086 NTC131081:NUG131086 NJG131081:NKK131086 MZK131081:NAO131086 MPO131081:MQS131086 MFS131081:MGW131086 LVW131081:LXA131086 LMA131081:LNE131086 LCE131081:LDI131086 KSI131081:KTM131086 KIM131081:KJQ131086 JYQ131081:JZU131086 JOU131081:JPY131086 JEY131081:JGC131086 IVC131081:IWG131086 ILG131081:IMK131086 IBK131081:ICO131086 HRO131081:HSS131086 HHS131081:HIW131086 GXW131081:GZA131086 GOA131081:GPE131086 GEE131081:GFI131086 FUI131081:FVM131086 FKM131081:FLQ131086 FAQ131081:FBU131086 EQU131081:ERY131086 EGY131081:EIC131086 DXC131081:DYG131086 DNG131081:DOK131086 DDK131081:DEO131086 CTO131081:CUS131086 CJS131081:CKW131086 BZW131081:CBA131086 BQA131081:BRE131086 BGE131081:BHI131086 AWI131081:AXM131086 AMM131081:ANQ131086 ACQ131081:ADU131086 SU131081:TY131086 IY131081:KC131086 D131081:AH131086 WVK65545:WWO65550 WLO65545:WMS65550 WBS65545:WCW65550 VRW65545:VTA65550 VIA65545:VJE65550 UYE65545:UZI65550 UOI65545:UPM65550 UEM65545:UFQ65550 TUQ65545:TVU65550 TKU65545:TLY65550 TAY65545:TCC65550 SRC65545:SSG65550 SHG65545:SIK65550 RXK65545:RYO65550 RNO65545:ROS65550 RDS65545:REW65550 QTW65545:QVA65550 QKA65545:QLE65550 QAE65545:QBI65550 PQI65545:PRM65550 PGM65545:PHQ65550 OWQ65545:OXU65550 OMU65545:ONY65550 OCY65545:OEC65550 NTC65545:NUG65550 NJG65545:NKK65550 MZK65545:NAO65550 MPO65545:MQS65550 MFS65545:MGW65550 LVW65545:LXA65550 LMA65545:LNE65550 LCE65545:LDI65550 KSI65545:KTM65550 KIM65545:KJQ65550 JYQ65545:JZU65550 JOU65545:JPY65550 JEY65545:JGC65550 IVC65545:IWG65550 ILG65545:IMK65550 IBK65545:ICO65550 HRO65545:HSS65550 HHS65545:HIW65550 GXW65545:GZA65550 GOA65545:GPE65550 GEE65545:GFI65550 FUI65545:FVM65550 FKM65545:FLQ65550 FAQ65545:FBU65550 EQU65545:ERY65550 EGY65545:EIC65550 DXC65545:DYG65550 DNG65545:DOK65550 DDK65545:DEO65550 CTO65545:CUS65550 CJS65545:CKW65550 BZW65545:CBA65550 BQA65545:BRE65550 BGE65545:BHI65550 AWI65545:AXM65550 AMM65545:ANQ65550 ACQ65545:ADU65550 SU65545:TY65550 IY65545:KC65550" xr:uid="{13836989-51AB-4200-8378-0B72A378AD4B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVL983049:WWP983054 D65545:AH65550 WLP983049:WMT983054 WBT983049:WCX983054 VRX983049:VTB983054 VIB983049:VJF983054 UYF983049:UZJ983054 UOJ983049:UPN983054 UEN983049:UFR983054 TUR983049:TVV983054 TKV983049:TLZ983054 TAZ983049:TCD983054 SRD983049:SSH983054 SHH983049:SIL983054 RXL983049:RYP983054 RNP983049:ROT983054 RDT983049:REX983054 QTX983049:QVB983054 QKB983049:QLF983054 QAF983049:QBJ983054 PQJ983049:PRN983054 PGN983049:PHR983054 OWR983049:OXV983054 OMV983049:ONZ983054 OCZ983049:OED983054 NTD983049:NUH983054 NJH983049:NKL983054 MZL983049:NAP983054 MPP983049:MQT983054 MFT983049:MGX983054 LVX983049:LXB983054 LMB983049:LNF983054 LCF983049:LDJ983054 KSJ983049:KTN983054 KIN983049:KJR983054 JYR983049:JZV983054 JOV983049:JPZ983054 JEZ983049:JGD983054 IVD983049:IWH983054 ILH983049:IML983054 IBL983049:ICP983054 HRP983049:HST983054 HHT983049:HIX983054 GXX983049:GZB983054 GOB983049:GPF983054 GEF983049:GFJ983054 FUJ983049:FVN983054 FKN983049:FLR983054 FAR983049:FBV983054 EQV983049:ERZ983054 EGZ983049:EID983054 DXD983049:DYH983054 DNH983049:DOL983054 DDL983049:DEP983054 CTP983049:CUT983054 CJT983049:CKX983054 BZX983049:CBB983054 BQB983049:BRF983054 BGF983049:BHJ983054 AWJ983049:AXN983054 AMN983049:ANR983054 ACR983049:ADV983054 SV983049:TZ983054 IZ983049:KD983054 D983049:AH983054 WVL917513:WWP917518 WLP917513:WMT917518 WBT917513:WCX917518 VRX917513:VTB917518 VIB917513:VJF917518 UYF917513:UZJ917518 UOJ917513:UPN917518 UEN917513:UFR917518 TUR917513:TVV917518 TKV917513:TLZ917518 TAZ917513:TCD917518 SRD917513:SSH917518 SHH917513:SIL917518 RXL917513:RYP917518 RNP917513:ROT917518 RDT917513:REX917518 QTX917513:QVB917518 QKB917513:QLF917518 QAF917513:QBJ917518 PQJ917513:PRN917518 PGN917513:PHR917518 OWR917513:OXV917518 OMV917513:ONZ917518 OCZ917513:OED917518 NTD917513:NUH917518 NJH917513:NKL917518 MZL917513:NAP917518 MPP917513:MQT917518 MFT917513:MGX917518 LVX917513:LXB917518 LMB917513:LNF917518 LCF917513:LDJ917518 KSJ917513:KTN917518 KIN917513:KJR917518 JYR917513:JZV917518 JOV917513:JPZ917518 JEZ917513:JGD917518 IVD917513:IWH917518 ILH917513:IML917518 IBL917513:ICP917518 HRP917513:HST917518 HHT917513:HIX917518 GXX917513:GZB917518 GOB917513:GPF917518 GEF917513:GFJ917518 FUJ917513:FVN917518 FKN917513:FLR917518 FAR917513:FBV917518 EQV917513:ERZ917518 EGZ917513:EID917518 DXD917513:DYH917518 DNH917513:DOL917518 DDL917513:DEP917518 CTP917513:CUT917518 CJT917513:CKX917518 BZX917513:CBB917518 BQB917513:BRF917518 BGF917513:BHJ917518 AWJ917513:AXN917518 AMN917513:ANR917518 ACR917513:ADV917518 SV917513:TZ917518 IZ917513:KD917518 D917513:AH917518 WVL851977:WWP851982 WLP851977:WMT851982 WBT851977:WCX851982 VRX851977:VTB851982 VIB851977:VJF851982 UYF851977:UZJ851982 UOJ851977:UPN851982 UEN851977:UFR851982 TUR851977:TVV851982 TKV851977:TLZ851982 TAZ851977:TCD851982 SRD851977:SSH851982 SHH851977:SIL851982 RXL851977:RYP851982 RNP851977:ROT851982 RDT851977:REX851982 QTX851977:QVB851982 QKB851977:QLF851982 QAF851977:QBJ851982 PQJ851977:PRN851982 PGN851977:PHR851982 OWR851977:OXV851982 OMV851977:ONZ851982 OCZ851977:OED851982 NTD851977:NUH851982 NJH851977:NKL851982 MZL851977:NAP851982 MPP851977:MQT851982 MFT851977:MGX851982 LVX851977:LXB851982 LMB851977:LNF851982 LCF851977:LDJ851982 KSJ851977:KTN851982 KIN851977:KJR851982 JYR851977:JZV851982 JOV851977:JPZ851982 JEZ851977:JGD851982 IVD851977:IWH851982 ILH851977:IML851982 IBL851977:ICP851982 HRP851977:HST851982 HHT851977:HIX851982 GXX851977:GZB851982 GOB851977:GPF851982 GEF851977:GFJ851982 FUJ851977:FVN851982 FKN851977:FLR851982 FAR851977:FBV851982 EQV851977:ERZ851982 EGZ851977:EID851982 DXD851977:DYH851982 DNH851977:DOL851982 DDL851977:DEP851982 CTP851977:CUT851982 CJT851977:CKX851982 BZX851977:CBB851982 BQB851977:BRF851982 BGF851977:BHJ851982 AWJ851977:AXN851982 AMN851977:ANR851982 ACR851977:ADV851982 SV851977:TZ851982 IZ851977:KD851982 D851977:AH851982 WVL786441:WWP786446 WLP786441:WMT786446 WBT786441:WCX786446 VRX786441:VTB786446 VIB786441:VJF786446 UYF786441:UZJ786446 UOJ786441:UPN786446 UEN786441:UFR786446 TUR786441:TVV786446 TKV786441:TLZ786446 TAZ786441:TCD786446 SRD786441:SSH786446 SHH786441:SIL786446 RXL786441:RYP786446 RNP786441:ROT786446 RDT786441:REX786446 QTX786441:QVB786446 QKB786441:QLF786446 QAF786441:QBJ786446 PQJ786441:PRN786446 PGN786441:PHR786446 OWR786441:OXV786446 OMV786441:ONZ786446 OCZ786441:OED786446 NTD786441:NUH786446 NJH786441:NKL786446 MZL786441:NAP786446 MPP786441:MQT786446 MFT786441:MGX786446 LVX786441:LXB786446 LMB786441:LNF786446 LCF786441:LDJ786446 KSJ786441:KTN786446 KIN786441:KJR786446 JYR786441:JZV786446 JOV786441:JPZ786446 JEZ786441:JGD786446 IVD786441:IWH786446 ILH786441:IML786446 IBL786441:ICP786446 HRP786441:HST786446 HHT786441:HIX786446 GXX786441:GZB786446 GOB786441:GPF786446 GEF786441:GFJ786446 FUJ786441:FVN786446 FKN786441:FLR786446 FAR786441:FBV786446 EQV786441:ERZ786446 EGZ786441:EID786446 DXD786441:DYH786446 DNH786441:DOL786446 DDL786441:DEP786446 CTP786441:CUT786446 CJT786441:CKX786446 BZX786441:CBB786446 BQB786441:BRF786446 BGF786441:BHJ786446 AWJ786441:AXN786446 AMN786441:ANR786446 ACR786441:ADV786446 SV786441:TZ786446 IZ786441:KD786446 D786441:AH786446 WVL720905:WWP720910 WLP720905:WMT720910 WBT720905:WCX720910 VRX720905:VTB720910 VIB720905:VJF720910 UYF720905:UZJ720910 UOJ720905:UPN720910 UEN720905:UFR720910 TUR720905:TVV720910 TKV720905:TLZ720910 TAZ720905:TCD720910 SRD720905:SSH720910 SHH720905:SIL720910 RXL720905:RYP720910 RNP720905:ROT720910 RDT720905:REX720910 QTX720905:QVB720910 QKB720905:QLF720910 QAF720905:QBJ720910 PQJ720905:PRN720910 PGN720905:PHR720910 OWR720905:OXV720910 OMV720905:ONZ720910 OCZ720905:OED720910 NTD720905:NUH720910 NJH720905:NKL720910 MZL720905:NAP720910 MPP720905:MQT720910 MFT720905:MGX720910 LVX720905:LXB720910 LMB720905:LNF720910 LCF720905:LDJ720910 KSJ720905:KTN720910 KIN720905:KJR720910 JYR720905:JZV720910 JOV720905:JPZ720910 JEZ720905:JGD720910 IVD720905:IWH720910 ILH720905:IML720910 IBL720905:ICP720910 HRP720905:HST720910 HHT720905:HIX720910 GXX720905:GZB720910 GOB720905:GPF720910 GEF720905:GFJ720910 FUJ720905:FVN720910 FKN720905:FLR720910 FAR720905:FBV720910 EQV720905:ERZ720910 EGZ720905:EID720910 DXD720905:DYH720910 DNH720905:DOL720910 DDL720905:DEP720910 CTP720905:CUT720910 CJT720905:CKX720910 BZX720905:CBB720910 BQB720905:BRF720910 BGF720905:BHJ720910 AWJ720905:AXN720910 AMN720905:ANR720910 ACR720905:ADV720910 SV720905:TZ720910 IZ720905:KD720910 D720905:AH720910 WVL655369:WWP655374 WLP655369:WMT655374 WBT655369:WCX655374 VRX655369:VTB655374 VIB655369:VJF655374 UYF655369:UZJ655374 UOJ655369:UPN655374 UEN655369:UFR655374 TUR655369:TVV655374 TKV655369:TLZ655374 TAZ655369:TCD655374 SRD655369:SSH655374 SHH655369:SIL655374 RXL655369:RYP655374 RNP655369:ROT655374 RDT655369:REX655374 QTX655369:QVB655374 QKB655369:QLF655374 QAF655369:QBJ655374 PQJ655369:PRN655374 PGN655369:PHR655374 OWR655369:OXV655374 OMV655369:ONZ655374 OCZ655369:OED655374 NTD655369:NUH655374 NJH655369:NKL655374 MZL655369:NAP655374 MPP655369:MQT655374 MFT655369:MGX655374 LVX655369:LXB655374 LMB655369:LNF655374 LCF655369:LDJ655374 KSJ655369:KTN655374 KIN655369:KJR655374 JYR655369:JZV655374 JOV655369:JPZ655374 JEZ655369:JGD655374 IVD655369:IWH655374 ILH655369:IML655374 IBL655369:ICP655374 HRP655369:HST655374 HHT655369:HIX655374 GXX655369:GZB655374 GOB655369:GPF655374 GEF655369:GFJ655374 FUJ655369:FVN655374 FKN655369:FLR655374 FAR655369:FBV655374 EQV655369:ERZ655374 EGZ655369:EID655374 DXD655369:DYH655374 DNH655369:DOL655374 DDL655369:DEP655374 CTP655369:CUT655374 CJT655369:CKX655374 BZX655369:CBB655374 BQB655369:BRF655374 BGF655369:BHJ655374 AWJ655369:AXN655374 AMN655369:ANR655374 ACR655369:ADV655374 SV655369:TZ655374 IZ655369:KD655374 D655369:AH655374 WVL589833:WWP589838 WLP589833:WMT589838 WBT589833:WCX589838 VRX589833:VTB589838 VIB589833:VJF589838 UYF589833:UZJ589838 UOJ589833:UPN589838 UEN589833:UFR589838 TUR589833:TVV589838 TKV589833:TLZ589838 TAZ589833:TCD589838 SRD589833:SSH589838 SHH589833:SIL589838 RXL589833:RYP589838 RNP589833:ROT589838 RDT589833:REX589838 QTX589833:QVB589838 QKB589833:QLF589838 QAF589833:QBJ589838 PQJ589833:PRN589838 PGN589833:PHR589838 OWR589833:OXV589838 OMV589833:ONZ589838 OCZ589833:OED589838 NTD589833:NUH589838 NJH589833:NKL589838 MZL589833:NAP589838 MPP589833:MQT589838 MFT589833:MGX589838 LVX589833:LXB589838 LMB589833:LNF589838 LCF589833:LDJ589838 KSJ589833:KTN589838 KIN589833:KJR589838 JYR589833:JZV589838 JOV589833:JPZ589838 JEZ589833:JGD589838 IVD589833:IWH589838 ILH589833:IML589838 IBL589833:ICP589838 HRP589833:HST589838 HHT589833:HIX589838 GXX589833:GZB589838 GOB589833:GPF589838 GEF589833:GFJ589838 FUJ589833:FVN589838 FKN589833:FLR589838 FAR589833:FBV589838 EQV589833:ERZ589838 EGZ589833:EID589838 DXD589833:DYH589838 DNH589833:DOL589838 DDL589833:DEP589838 CTP589833:CUT589838 CJT589833:CKX589838 BZX589833:CBB589838 BQB589833:BRF589838 BGF589833:BHJ589838 AWJ589833:AXN589838 AMN589833:ANR589838 ACR589833:ADV589838 SV589833:TZ589838 IZ589833:KD589838 D589833:AH589838 WVL524297:WWP524302 WLP524297:WMT524302 WBT524297:WCX524302 VRX524297:VTB524302 VIB524297:VJF524302 UYF524297:UZJ524302 UOJ524297:UPN524302 UEN524297:UFR524302 TUR524297:TVV524302 TKV524297:TLZ524302 TAZ524297:TCD524302 SRD524297:SSH524302 SHH524297:SIL524302 RXL524297:RYP524302 RNP524297:ROT524302 RDT524297:REX524302 QTX524297:QVB524302 QKB524297:QLF524302 QAF524297:QBJ524302 PQJ524297:PRN524302 PGN524297:PHR524302 OWR524297:OXV524302 OMV524297:ONZ524302 OCZ524297:OED524302 NTD524297:NUH524302 NJH524297:NKL524302 MZL524297:NAP524302 MPP524297:MQT524302 MFT524297:MGX524302 LVX524297:LXB524302 LMB524297:LNF524302 LCF524297:LDJ524302 KSJ524297:KTN524302 KIN524297:KJR524302 JYR524297:JZV524302 JOV524297:JPZ524302 JEZ524297:JGD524302 IVD524297:IWH524302 ILH524297:IML524302 IBL524297:ICP524302 HRP524297:HST524302 HHT524297:HIX524302 GXX524297:GZB524302 GOB524297:GPF524302 GEF524297:GFJ524302 FUJ524297:FVN524302 FKN524297:FLR524302 FAR524297:FBV524302 EQV524297:ERZ524302 EGZ524297:EID524302 DXD524297:DYH524302 DNH524297:DOL524302 DDL524297:DEP524302 CTP524297:CUT524302 CJT524297:CKX524302 BZX524297:CBB524302 BQB524297:BRF524302 BGF524297:BHJ524302 AWJ524297:AXN524302 AMN524297:ANR524302 ACR524297:ADV524302 SV524297:TZ524302 IZ524297:KD524302 D524297:AH524302 WVL458761:WWP458766 WLP458761:WMT458766 WBT458761:WCX458766 VRX458761:VTB458766 VIB458761:VJF458766 UYF458761:UZJ458766 UOJ458761:UPN458766 UEN458761:UFR458766 TUR458761:TVV458766 TKV458761:TLZ458766 TAZ458761:TCD458766 SRD458761:SSH458766 SHH458761:SIL458766 RXL458761:RYP458766 RNP458761:ROT458766 RDT458761:REX458766 QTX458761:QVB458766 QKB458761:QLF458766 QAF458761:QBJ458766 PQJ458761:PRN458766 PGN458761:PHR458766 OWR458761:OXV458766 OMV458761:ONZ458766 OCZ458761:OED458766 NTD458761:NUH458766 NJH458761:NKL458766 MZL458761:NAP458766 MPP458761:MQT458766 MFT458761:MGX458766 LVX458761:LXB458766 LMB458761:LNF458766 LCF458761:LDJ458766 KSJ458761:KTN458766 KIN458761:KJR458766 JYR458761:JZV458766 JOV458761:JPZ458766 JEZ458761:JGD458766 IVD458761:IWH458766 ILH458761:IML458766 IBL458761:ICP458766 HRP458761:HST458766 HHT458761:HIX458766 GXX458761:GZB458766 GOB458761:GPF458766 GEF458761:GFJ458766 FUJ458761:FVN458766 FKN458761:FLR458766 FAR458761:FBV458766 EQV458761:ERZ458766 EGZ458761:EID458766 DXD458761:DYH458766 DNH458761:DOL458766 DDL458761:DEP458766 CTP458761:CUT458766 CJT458761:CKX458766 BZX458761:CBB458766 BQB458761:BRF458766 BGF458761:BHJ458766 AWJ458761:AXN458766 AMN458761:ANR458766 ACR458761:ADV458766 SV458761:TZ458766 IZ458761:KD458766 D458761:AH458766 WVL393225:WWP393230 WLP393225:WMT393230 WBT393225:WCX393230 VRX393225:VTB393230 VIB393225:VJF393230 UYF393225:UZJ393230 UOJ393225:UPN393230 UEN393225:UFR393230 TUR393225:TVV393230 TKV393225:TLZ393230 TAZ393225:TCD393230 SRD393225:SSH393230 SHH393225:SIL393230 RXL393225:RYP393230 RNP393225:ROT393230 RDT393225:REX393230 QTX393225:QVB393230 QKB393225:QLF393230 QAF393225:QBJ393230 PQJ393225:PRN393230 PGN393225:PHR393230 OWR393225:OXV393230 OMV393225:ONZ393230 OCZ393225:OED393230 NTD393225:NUH393230 NJH393225:NKL393230 MZL393225:NAP393230 MPP393225:MQT393230 MFT393225:MGX393230 LVX393225:LXB393230 LMB393225:LNF393230 LCF393225:LDJ393230 KSJ393225:KTN393230 KIN393225:KJR393230 JYR393225:JZV393230 JOV393225:JPZ393230 JEZ393225:JGD393230 IVD393225:IWH393230 ILH393225:IML393230 IBL393225:ICP393230 HRP393225:HST393230 HHT393225:HIX393230 GXX393225:GZB393230 GOB393225:GPF393230 GEF393225:GFJ393230 FUJ393225:FVN393230 FKN393225:FLR393230 FAR393225:FBV393230 EQV393225:ERZ393230 EGZ393225:EID393230 DXD393225:DYH393230 DNH393225:DOL393230 DDL393225:DEP393230 CTP393225:CUT393230 CJT393225:CKX393230 BZX393225:CBB393230 BQB393225:BRF393230 BGF393225:BHJ393230 AWJ393225:AXN393230 AMN393225:ANR393230 ACR393225:ADV393230 SV393225:TZ393230 IZ393225:KD393230 D393225:AH393230 WVL327689:WWP327694 WLP327689:WMT327694 WBT327689:WCX327694 VRX327689:VTB327694 VIB327689:VJF327694 UYF327689:UZJ327694 UOJ327689:UPN327694 UEN327689:UFR327694 TUR327689:TVV327694 TKV327689:TLZ327694 TAZ327689:TCD327694 SRD327689:SSH327694 SHH327689:SIL327694 RXL327689:RYP327694 RNP327689:ROT327694 RDT327689:REX327694 QTX327689:QVB327694 QKB327689:QLF327694 QAF327689:QBJ327694 PQJ327689:PRN327694 PGN327689:PHR327694 OWR327689:OXV327694 OMV327689:ONZ327694 OCZ327689:OED327694 NTD327689:NUH327694 NJH327689:NKL327694 MZL327689:NAP327694 MPP327689:MQT327694 MFT327689:MGX327694 LVX327689:LXB327694 LMB327689:LNF327694 LCF327689:LDJ327694 KSJ327689:KTN327694 KIN327689:KJR327694 JYR327689:JZV327694 JOV327689:JPZ327694 JEZ327689:JGD327694 IVD327689:IWH327694 ILH327689:IML327694 IBL327689:ICP327694 HRP327689:HST327694 HHT327689:HIX327694 GXX327689:GZB327694 GOB327689:GPF327694 GEF327689:GFJ327694 FUJ327689:FVN327694 FKN327689:FLR327694 FAR327689:FBV327694 EQV327689:ERZ327694 EGZ327689:EID327694 DXD327689:DYH327694 DNH327689:DOL327694 DDL327689:DEP327694 CTP327689:CUT327694 CJT327689:CKX327694 BZX327689:CBB327694 BQB327689:BRF327694 BGF327689:BHJ327694 AWJ327689:AXN327694 AMN327689:ANR327694 ACR327689:ADV327694 SV327689:TZ327694 IZ327689:KD327694 D327689:AH327694 WVL262153:WWP262158 WLP262153:WMT262158 WBT262153:WCX262158 VRX262153:VTB262158 VIB262153:VJF262158 UYF262153:UZJ262158 UOJ262153:UPN262158 UEN262153:UFR262158 TUR262153:TVV262158 TKV262153:TLZ262158 TAZ262153:TCD262158 SRD262153:SSH262158 SHH262153:SIL262158 RXL262153:RYP262158 RNP262153:ROT262158 RDT262153:REX262158 QTX262153:QVB262158 QKB262153:QLF262158 QAF262153:QBJ262158 PQJ262153:PRN262158 PGN262153:PHR262158 OWR262153:OXV262158 OMV262153:ONZ262158 OCZ262153:OED262158 NTD262153:NUH262158 NJH262153:NKL262158 MZL262153:NAP262158 MPP262153:MQT262158 MFT262153:MGX262158 LVX262153:LXB262158 LMB262153:LNF262158 LCF262153:LDJ262158 KSJ262153:KTN262158 KIN262153:KJR262158 JYR262153:JZV262158 JOV262153:JPZ262158 JEZ262153:JGD262158 IVD262153:IWH262158 ILH262153:IML262158 IBL262153:ICP262158 HRP262153:HST262158 HHT262153:HIX262158 GXX262153:GZB262158 GOB262153:GPF262158 GEF262153:GFJ262158 FUJ262153:FVN262158 FKN262153:FLR262158 FAR262153:FBV262158 EQV262153:ERZ262158 EGZ262153:EID262158 DXD262153:DYH262158 DNH262153:DOL262158 DDL262153:DEP262158 CTP262153:CUT262158 CJT262153:CKX262158 BZX262153:CBB262158 BQB262153:BRF262158 BGF262153:BHJ262158 AWJ262153:AXN262158 AMN262153:ANR262158 ACR262153:ADV262158 SV262153:TZ262158 IZ262153:KD262158 D262153:AH262158 WVL196617:WWP196622 WLP196617:WMT196622 WBT196617:WCX196622 VRX196617:VTB196622 VIB196617:VJF196622 UYF196617:UZJ196622 UOJ196617:UPN196622 UEN196617:UFR196622 TUR196617:TVV196622 TKV196617:TLZ196622 TAZ196617:TCD196622 SRD196617:SSH196622 SHH196617:SIL196622 RXL196617:RYP196622 RNP196617:ROT196622 RDT196617:REX196622 QTX196617:QVB196622 QKB196617:QLF196622 QAF196617:QBJ196622 PQJ196617:PRN196622 PGN196617:PHR196622 OWR196617:OXV196622 OMV196617:ONZ196622 OCZ196617:OED196622 NTD196617:NUH196622 NJH196617:NKL196622 MZL196617:NAP196622 MPP196617:MQT196622 MFT196617:MGX196622 LVX196617:LXB196622 LMB196617:LNF196622 LCF196617:LDJ196622 KSJ196617:KTN196622 KIN196617:KJR196622 JYR196617:JZV196622 JOV196617:JPZ196622 JEZ196617:JGD196622 IVD196617:IWH196622 ILH196617:IML196622 IBL196617:ICP196622 HRP196617:HST196622 HHT196617:HIX196622 GXX196617:GZB196622 GOB196617:GPF196622 GEF196617:GFJ196622 FUJ196617:FVN196622 FKN196617:FLR196622 FAR196617:FBV196622 EQV196617:ERZ196622 EGZ196617:EID196622 DXD196617:DYH196622 DNH196617:DOL196622 DDL196617:DEP196622 CTP196617:CUT196622 CJT196617:CKX196622 BZX196617:CBB196622 BQB196617:BRF196622 BGF196617:BHJ196622 AWJ196617:AXN196622 AMN196617:ANR196622 ACR196617:ADV196622 SV196617:TZ196622 IZ196617:KD196622 D196617:AH196622 WVL131081:WWP131086 WLP131081:WMT131086 WBT131081:WCX131086 VRX131081:VTB131086 VIB131081:VJF131086 UYF131081:UZJ131086 UOJ131081:UPN131086 UEN131081:UFR131086 TUR131081:TVV131086 TKV131081:TLZ131086 TAZ131081:TCD131086 SRD131081:SSH131086 SHH131081:SIL131086 RXL131081:RYP131086 RNP131081:ROT131086 RDT131081:REX131086 QTX131081:QVB131086 QKB131081:QLF131086 QAF131081:QBJ131086 PQJ131081:PRN131086 PGN131081:PHR131086 OWR131081:OXV131086 OMV131081:ONZ131086 OCZ131081:OED131086 NTD131081:NUH131086 NJH131081:NKL131086 MZL131081:NAP131086 MPP131081:MQT131086 MFT131081:MGX131086 LVX131081:LXB131086 LMB131081:LNF131086 LCF131081:LDJ131086 KSJ131081:KTN131086 KIN131081:KJR131086 JYR131081:JZV131086 JOV131081:JPZ131086 JEZ131081:JGD131086 IVD131081:IWH131086 ILH131081:IML131086 IBL131081:ICP131086 HRP131081:HST131086 HHT131081:HIX131086 GXX131081:GZB131086 GOB131081:GPF131086 GEF131081:GFJ131086 FUJ131081:FVN131086 FKN131081:FLR131086 FAR131081:FBV131086 EQV131081:ERZ131086 EGZ131081:EID131086 DXD131081:DYH131086 DNH131081:DOL131086 DDL131081:DEP131086 CTP131081:CUT131086 CJT131081:CKX131086 BZX131081:CBB131086 BQB131081:BRF131086 BGF131081:BHJ131086 AWJ131081:AXN131086 AMN131081:ANR131086 ACR131081:ADV131086 SV131081:TZ131086 IZ131081:KD131086 D131081:AH131086 WVL65545:WWP65550 WLP65545:WMT65550 WBT65545:WCX65550 VRX65545:VTB65550 VIB65545:VJF65550 UYF65545:UZJ65550 UOJ65545:UPN65550 UEN65545:UFR65550 TUR65545:TVV65550 TKV65545:TLZ65550 TAZ65545:TCD65550 SRD65545:SSH65550 SHH65545:SIL65550 RXL65545:RYP65550 RNP65545:ROT65550 RDT65545:REX65550 QTX65545:QVB65550 QKB65545:QLF65550 QAF65545:QBJ65550 PQJ65545:PRN65550 PGN65545:PHR65550 OWR65545:OXV65550 OMV65545:ONZ65550 OCZ65545:OED65550 NTD65545:NUH65550 NJH65545:NKL65550 MZL65545:NAP65550 MPP65545:MQT65550 MFT65545:MGX65550 LVX65545:LXB65550 LMB65545:LNF65550 LCF65545:LDJ65550 KSJ65545:KTN65550 KIN65545:KJR65550 JYR65545:JZV65550 JOV65545:JPZ65550 JEZ65545:JGD65550 IVD65545:IWH65550 ILH65545:IML65550 IBL65545:ICP65550 HRP65545:HST65550 HHT65545:HIX65550 GXX65545:GZB65550 GOB65545:GPF65550 GEF65545:GFJ65550 FUJ65545:FVN65550 FKN65545:FLR65550 FAR65545:FBV65550 EQV65545:ERZ65550 EGZ65545:EID65550 DXD65545:DYH65550 DNH65545:DOL65550 DDL65545:DEP65550 CTP65545:CUT65550 CJT65545:CKX65550 BZX65545:CBB65550 BQB65545:BRF65550 BGF65545:BHJ65550 AWJ65545:AXN65550 AMN65545:ANR65550 ACR65545:ADV65550 SV65545:TZ65550 IZ65545:KD65550" xr:uid="{13836989-51AB-4200-8378-0B72A378AD4B}">
       <formula1>$C$3:$C$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="ACH20:ADL20 SL20:TP20 IP20:JT20 AMD20:ANH20 WVB20:WWF20 WLF20:WMJ20 WBJ20:WCN20 VRN20:VSR20 VHR20:VIV20 UXV20:UYZ20 UNZ20:UPD20 UED20:UFH20 TUH20:TVL20 TKL20:TLP20 TAP20:TBT20 SQT20:SRX20 SGX20:SIB20 RXB20:RYF20 RNF20:ROJ20 RDJ20:REN20 QTN20:QUR20 QJR20:QKV20 PZV20:QAZ20 PPZ20:PRD20 PGD20:PHH20 OWH20:OXL20 OML20:ONP20 OCP20:ODT20 NST20:NTX20 NIX20:NKB20 MZB20:NAF20 MPF20:MQJ20 MFJ20:MGN20 LVN20:LWR20 LLR20:LMV20 LBV20:LCZ20 KRZ20:KTD20 KID20:KJH20 JYH20:JZL20 JOL20:JPP20 JEP20:JFT20 IUT20:IVX20 IKX20:IMB20 IBB20:ICF20 HRF20:HSJ20 HHJ20:HIN20 GXN20:GYR20 GNR20:GOV20 GDV20:GEZ20 FTZ20:FVD20 FKD20:FLH20 FAH20:FBL20 EQL20:ERP20 EGP20:EHT20 DWT20:DXX20 DMX20:DOB20 DDB20:DEF20 CTF20:CUJ20 CJJ20:CKN20 BZN20:CAR20 BPR20:BQV20 BFV20:BGZ20 AVZ20:AXD20" xr:uid="{34CE7E59-78BC-4E1D-BE54-AF9AEE8D9F14}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="ACI20:ADM20 SM20:TQ20 IQ20:JU20 AME20:ANI20 WVC20:WWG20 WLG20:WMK20 WBK20:WCO20 VRO20:VSS20 VHS20:VIW20 UXW20:UZA20 UOA20:UPE20 UEE20:UFI20 TUI20:TVM20 TKM20:TLQ20 TAQ20:TBU20 SQU20:SRY20 SGY20:SIC20 RXC20:RYG20 RNG20:ROK20 RDK20:REO20 QTO20:QUS20 QJS20:QKW20 PZW20:QBA20 PQA20:PRE20 PGE20:PHI20 OWI20:OXM20 OMM20:ONQ20 OCQ20:ODU20 NSU20:NTY20 NIY20:NKC20 MZC20:NAG20 MPG20:MQK20 MFK20:MGO20 LVO20:LWS20 LLS20:LMW20 LBW20:LDA20 KSA20:KTE20 KIE20:KJI20 JYI20:JZM20 JOM20:JPQ20 JEQ20:JFU20 IUU20:IVY20 IKY20:IMC20 IBC20:ICG20 HRG20:HSK20 HHK20:HIO20 GXO20:GYS20 GNS20:GOW20 GDW20:GFA20 FUA20:FVE20 FKE20:FLI20 FAI20:FBM20 EQM20:ERQ20 EGQ20:EHU20 DWU20:DXY20 DMY20:DOC20 DDC20:DEG20 CTG20:CUK20 CJK20:CKO20 BZO20:CAS20 BPS20:BQW20 BFW20:BHA20 AWA20:AXE20" xr:uid="{34CE7E59-78BC-4E1D-BE54-AF9AEE8D9F14}">
       <formula1>$C$3:$C$14</formula1>
     </dataValidation>
   </dataValidations>
